--- a/doc/支持文件/公版数据字典.xlsx
+++ b/doc/支持文件/公版数据字典.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12720"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="253">
   <si>
     <t>用户表</t>
   </si>
@@ -867,12 +867,48 @@
     <t>价格</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>客户反馈</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_feeds</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈内容</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtime</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈时间</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1039,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1047,7 +1109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,9 +1159,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,6 +1213,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1423,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ181"/>
+  <dimension ref="A1:AQ187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -1538,7 +1612,7 @@
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="13"/>
@@ -1576,18 +1650,18 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -1893,7 +1967,7 @@
       <c r="E33" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1">
       <c r="A34" s="13" t="s">
@@ -1907,10 +1981,10 @@
       <c r="E34" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" ht="21" customHeight="1">
-      <c r="F35" s="28"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" ht="21" customHeight="1">
       <c r="A36" s="1" t="s">
@@ -2077,17 +2151,17 @@
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2095,10 +2169,10 @@
       <c r="A48" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="13"/>
@@ -2113,7 +2187,7 @@
       <c r="B49" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="13"/>
@@ -2135,205 +2209,205 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="21" customHeight="1">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="24"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="23"/>
     </row>
     <row r="52" spans="1:6" ht="21" customHeight="1">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:6" ht="21" customHeight="1">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="24"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" spans="1:6" ht="21" customHeight="1">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="26" t="s">
         <v>198</v>
       </c>
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27" t="s">
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26" t="s">
         <v>200</v>
       </c>
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27" t="s">
+      <c r="D57" s="26"/>
+      <c r="E57" s="26" t="s">
         <v>202</v>
       </c>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="26" t="s">
         <v>204</v>
       </c>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27" t="s">
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26" t="s">
         <v>207</v>
       </c>
       <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6" ht="21" customHeight="1">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="21" customHeight="1">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="26" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="21" customHeight="1">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27" t="s">
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="21" customHeight="1">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30" t="s">
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="21" customHeight="1">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="32" t="s">
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="F64" s="31"/>
+      <c r="F64" s="30"/>
     </row>
     <row r="66" spans="1:6" ht="21" customHeight="1">
       <c r="A66" s="1" t="s">
@@ -2418,7 +2492,7 @@
       <c r="A71" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C71" s="13"/>
@@ -2428,11 +2502,11 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="21" customHeight="1">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
     </row>
     <row r="73" spans="1:6" ht="21" customHeight="1">
       <c r="A73" s="1" t="s">
@@ -2557,200 +2631,200 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="21" customHeight="1">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
     </row>
     <row r="82" spans="1:6" ht="21" customHeight="1">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
     </row>
     <row r="83" spans="1:6" ht="21" customHeight="1">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="21" customHeight="1">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="21" customHeight="1">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F85" s="20"/>
+      <c r="F85" s="19"/>
     </row>
     <row r="86" spans="1:6" ht="21" customHeight="1">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23" t="s">
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="F86" s="20"/>
+      <c r="F86" s="19"/>
     </row>
     <row r="87" spans="1:6" ht="21" customHeight="1">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23" t="s">
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="F87" s="20"/>
+      <c r="F87" s="19"/>
     </row>
     <row r="88" spans="1:6" ht="21" customHeight="1">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23" t="s">
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="F88" s="20"/>
+      <c r="F88" s="19"/>
     </row>
     <row r="89" spans="1:6" ht="21" customHeight="1">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23" t="s">
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="F89" s="20"/>
+      <c r="F89" s="19"/>
     </row>
     <row r="90" spans="1:6" ht="21" customHeight="1">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23" t="s">
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="21" customHeight="1">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23" t="s">
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="21" customHeight="1">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23" t="s">
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="21" customHeight="1">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23" t="s">
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="21" customHeight="1">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23" t="s">
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="21" customHeight="1">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
     </row>
     <row r="97" spans="1:6" ht="21" customHeight="1">
       <c r="A97" s="1" t="s">
@@ -2899,7 +2973,7 @@
       <c r="A106" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B106" s="33" t="s">
+      <c r="B106" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C106" s="13" t="s">
@@ -2914,7 +2988,7 @@
       <c r="A107" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B107" s="33" t="s">
+      <c r="B107" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C107" s="13" t="s">
@@ -2926,26 +3000,26 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="21" customHeight="1">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="13"/>
-      <c r="E108" s="33" t="s">
+      <c r="E108" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="F108" s="31"/>
+      <c r="F108" s="30"/>
     </row>
     <row r="109" spans="1:6" ht="21" customHeight="1">
-      <c r="A109" s="33" t="s">
+      <c r="A109" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="32" t="s">
         <v>240</v>
       </c>
       <c r="C109" s="13" t="s">
@@ -2957,10 +3031,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="21" customHeight="1">
-      <c r="A110" s="35"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="18"/>
-      <c r="F110" s="31"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="17"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A111" s="1" t="s">
@@ -3095,7 +3169,7 @@
       <c r="A119" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C119" s="13"/>
@@ -3109,7 +3183,7 @@
       <c r="A120" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B120" s="33" t="s">
+      <c r="B120" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C120" s="13"/>
@@ -3227,7 +3301,7 @@
       <c r="A128" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B128" s="33" t="s">
+      <c r="B128" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C128" s="13"/>
@@ -3241,7 +3315,7 @@
       <c r="A129" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B129" s="33" t="s">
+      <c r="B129" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C129" s="13"/>
@@ -3487,7 +3561,7 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="28"/>
+      <c r="F139" s="27"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -3542,7 +3616,7 @@
       <c r="E140" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F140" s="28"/>
+      <c r="F140" s="27"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
@@ -3597,7 +3671,7 @@
       <c r="E141" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F141" s="28"/>
+      <c r="F141" s="27"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -3652,7 +3726,7 @@
       <c r="E142" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F142" s="28"/>
+      <c r="F142" s="27"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -3705,7 +3779,7 @@
       <c r="E143" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F143" s="28"/>
+      <c r="F143" s="27"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
@@ -3748,7 +3822,7 @@
       <c r="A144" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B144" s="33" t="s">
+      <c r="B144" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C144" s="13" t="s">
@@ -3758,7 +3832,7 @@
       <c r="E144" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F144" s="28"/>
+      <c r="F144" s="27"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
@@ -3811,7 +3885,7 @@
       <c r="E145" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F145" s="28"/>
+      <c r="F145" s="27"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
@@ -3851,12 +3925,12 @@
       <c r="AQ145" s="3"/>
     </row>
     <row r="146" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A146" s="18"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="28"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="27"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
@@ -3896,16 +3970,16 @@
       <c r="AQ146" s="3"/>
     </row>
     <row r="147" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A147" s="29" t="s">
+      <c r="A147" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="B147" s="29" t="s">
+      <c r="B147" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="28"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="27"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
@@ -3945,22 +4019,22 @@
       <c r="AQ147" s="3"/>
     </row>
     <row r="148" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A148" s="19" t="s">
+      <c r="A148" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="19" t="s">
+      <c r="B148" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="19" t="s">
+      <c r="C148" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D148" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E148" s="19" t="s">
+      <c r="E148" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F148" s="28"/>
+      <c r="F148" s="27"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -4000,22 +4074,22 @@
       <c r="AQ148" s="3"/>
     </row>
     <row r="149" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A149" s="32" t="s">
+      <c r="A149" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C149" s="32" t="s">
+      <c r="C149" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="32" t="s">
+      <c r="E149" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F149" s="28"/>
+      <c r="F149" s="27"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
@@ -4055,22 +4129,22 @@
       <c r="AQ149" s="3"/>
     </row>
     <row r="150" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A150" s="32" t="s">
+      <c r="A150" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B150" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="C150" s="32" t="s">
+      <c r="C150" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D150" s="32" t="s">
+      <c r="D150" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E150" s="32" t="s">
+      <c r="E150" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F150" s="28"/>
+      <c r="F150" s="27"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
@@ -4110,22 +4184,22 @@
       <c r="AQ150" s="3"/>
     </row>
     <row r="151" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A151" s="32" t="s">
+      <c r="A151" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B151" s="32" t="s">
+      <c r="B151" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C151" s="32" t="s">
+      <c r="C151" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D151" s="32" t="s">
+      <c r="D151" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E151" s="32" t="s">
+      <c r="E151" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="F151" s="28"/>
+      <c r="F151" s="27"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -4165,20 +4239,20 @@
       <c r="AQ151" s="3"/>
     </row>
     <row r="152" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A152" s="32" t="s">
+      <c r="A152" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B152" s="32" t="s">
+      <c r="B152" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C152" s="32" t="s">
+      <c r="C152" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32" t="s">
+      <c r="D152" s="31"/>
+      <c r="E152" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="F152" s="28"/>
+      <c r="F152" s="27"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
@@ -4218,22 +4292,22 @@
       <c r="AQ152" s="3"/>
     </row>
     <row r="153" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A153" s="32" t="s">
+      <c r="A153" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="B153" s="32" t="s">
+      <c r="B153" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C153" s="32" t="s">
+      <c r="C153" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D153" s="32" t="s">
+      <c r="D153" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E153" s="32" t="s">
+      <c r="E153" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="F153" s="28"/>
+      <c r="F153" s="27"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
@@ -4273,20 +4347,20 @@
       <c r="AQ153" s="3"/>
     </row>
     <row r="154" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A154" s="32" t="s">
+      <c r="A154" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="B154" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="C154" s="32" t="s">
+      <c r="C154" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32" t="s">
+      <c r="D154" s="31"/>
+      <c r="E154" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="F154" s="28"/>
+      <c r="F154" s="27"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -4326,20 +4400,20 @@
       <c r="AQ154" s="3"/>
     </row>
     <row r="155" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A155" s="32" t="s">
+      <c r="A155" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="32" t="s">
+      <c r="B155" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C155" s="32" t="s">
+      <c r="C155" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D155" s="32"/>
-      <c r="E155" s="32" t="s">
+      <c r="D155" s="31"/>
+      <c r="E155" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F155" s="28"/>
+      <c r="F155" s="27"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
@@ -4379,20 +4453,20 @@
       <c r="AQ155" s="3"/>
     </row>
     <row r="156" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A156" s="32" t="s">
+      <c r="A156" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="B156" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C156" s="32" t="s">
+      <c r="C156" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32" t="s">
+      <c r="D156" s="31"/>
+      <c r="E156" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="F156" s="28"/>
+      <c r="F156" s="27"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -4432,20 +4506,20 @@
       <c r="AQ156" s="3"/>
     </row>
     <row r="157" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A157" s="32" t="s">
+      <c r="A157" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B157" s="32" t="s">
+      <c r="B157" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="C157" s="32" t="s">
+      <c r="C157" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D157" s="32"/>
-      <c r="E157" s="32" t="s">
+      <c r="D157" s="31"/>
+      <c r="E157" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="F157" s="28"/>
+      <c r="F157" s="27"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
@@ -4485,12 +4559,12 @@
       <c r="AQ157" s="3"/>
     </row>
     <row r="158" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A158" s="18"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="28"/>
+      <c r="A158" s="17"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="27"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -4530,12 +4604,18 @@
       <c r="AQ158" s="3"/>
     </row>
     <row r="159" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="28"/>
+      <c r="A159" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B159" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C159" s="36"/>
+      <c r="D159" s="36"/>
+      <c r="E159" s="36"/>
+      <c r="F159" s="39" t="s">
+        <v>252</v>
+      </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
@@ -4575,11 +4655,21 @@
       <c r="AQ159" s="3"/>
     </row>
     <row r="160" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
+      <c r="A160" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="37" t="s">
+        <v>6</v>
+      </c>
       <c r="F160" s="10"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -4620,13 +4710,21 @@
       <c r="AQ160" s="1"/>
     </row>
     <row r="161" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A161" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
+      <c r="A161" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="38" t="s">
+        <v>11</v>
+      </c>
       <c r="F161" s="12"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
@@ -4667,16 +4765,22 @@
       <c r="AQ161" s="2"/>
     </row>
     <row r="162" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A162" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="28"/>
+      <c r="A162" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B162" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="F162" s="27"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -4716,22 +4820,20 @@
       <c r="AQ162" s="3"/>
     </row>
     <row r="163" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A163" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F163" s="28"/>
+      <c r="A163" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B163" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="38"/>
+      <c r="E163" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F163" s="27"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -4771,22 +4873,20 @@
       <c r="AQ163" s="3"/>
     </row>
     <row r="164" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A164" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B164" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="28"/>
+      <c r="A164" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B164" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C164" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="38"/>
+      <c r="E164" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="F164" s="27"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -4826,20 +4926,12 @@
       <c r="AQ164" s="3"/>
     </row>
     <row r="165" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A165" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B165" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F165" s="28"/>
+      <c r="A165" s="17"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="27"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
@@ -4878,178 +4970,164 @@
       <c r="AP165" s="3"/>
       <c r="AQ165" s="3"/>
     </row>
-    <row r="166" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A166" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F166" s="28"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3"/>
-      <c r="N166" s="3"/>
-      <c r="O166" s="3"/>
-      <c r="P166" s="3"/>
-      <c r="Q166" s="3"/>
-      <c r="R166" s="3"/>
-      <c r="S166" s="3"/>
-      <c r="T166" s="3"/>
-      <c r="U166" s="3"/>
-      <c r="V166" s="3"/>
-      <c r="W166" s="3"/>
-      <c r="X166" s="3"/>
-      <c r="Y166" s="3"/>
-      <c r="Z166" s="3"/>
-      <c r="AA166" s="3"/>
-      <c r="AB166" s="3"/>
-      <c r="AC166" s="3"/>
-      <c r="AD166" s="3"/>
-      <c r="AE166" s="3"/>
-      <c r="AF166" s="3"/>
-      <c r="AG166" s="3"/>
-      <c r="AH166" s="3"/>
-      <c r="AI166" s="3"/>
-      <c r="AJ166" s="3"/>
-      <c r="AK166" s="3"/>
-      <c r="AL166" s="3"/>
-      <c r="AM166" s="3"/>
-      <c r="AN166" s="3"/>
-      <c r="AO166" s="3"/>
-      <c r="AP166" s="3"/>
-      <c r="AQ166" s="3"/>
-    </row>
-    <row r="167" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A167" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F167" s="10"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
-      <c r="T167" s="1"/>
-      <c r="U167" s="1"/>
-      <c r="V167" s="1"/>
-      <c r="W167" s="1"/>
-      <c r="X167" s="1"/>
-      <c r="Y167" s="1"/>
-      <c r="Z167" s="1"/>
-      <c r="AA167" s="1"/>
-      <c r="AB167" s="1"/>
-      <c r="AC167" s="1"/>
-      <c r="AD167" s="1"/>
-      <c r="AE167" s="1"/>
-      <c r="AF167" s="1"/>
-      <c r="AG167" s="1"/>
-      <c r="AH167" s="1"/>
-      <c r="AI167" s="1"/>
-      <c r="AJ167" s="1"/>
-      <c r="AK167" s="1"/>
-      <c r="AL167" s="1"/>
-      <c r="AM167" s="1"/>
-      <c r="AN167" s="1"/>
-      <c r="AO167" s="1"/>
-      <c r="AP167" s="1"/>
-      <c r="AQ167" s="1"/>
-    </row>
-    <row r="168" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A168" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F168" s="12"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2"/>
-      <c r="V168" s="2"/>
-      <c r="W168" s="2"/>
-      <c r="X168" s="2"/>
-      <c r="Y168" s="2"/>
-      <c r="Z168" s="2"/>
-      <c r="AA168" s="2"/>
-      <c r="AB168" s="2"/>
-      <c r="AC168" s="2"/>
-      <c r="AD168" s="2"/>
-      <c r="AE168" s="2"/>
-      <c r="AF168" s="2"/>
-      <c r="AG168" s="2"/>
-      <c r="AH168" s="2"/>
-      <c r="AI168" s="2"/>
-      <c r="AJ168" s="2"/>
-      <c r="AK168" s="2"/>
-      <c r="AL168" s="2"/>
-      <c r="AM168" s="2"/>
-      <c r="AN168" s="2"/>
-      <c r="AO168" s="2"/>
-      <c r="AP168" s="2"/>
-      <c r="AQ168" s="2"/>
+    <row r="166" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="1"/>
+      <c r="W166" s="1"/>
+      <c r="X166" s="1"/>
+      <c r="Y166" s="1"/>
+      <c r="Z166" s="1"/>
+      <c r="AA166" s="1"/>
+      <c r="AB166" s="1"/>
+      <c r="AC166" s="1"/>
+      <c r="AD166" s="1"/>
+      <c r="AE166" s="1"/>
+      <c r="AF166" s="1"/>
+      <c r="AG166" s="1"/>
+      <c r="AH166" s="1"/>
+      <c r="AI166" s="1"/>
+      <c r="AJ166" s="1"/>
+      <c r="AK166" s="1"/>
+      <c r="AL166" s="1"/>
+      <c r="AM166" s="1"/>
+      <c r="AN166" s="1"/>
+      <c r="AO166" s="1"/>
+      <c r="AP166" s="1"/>
+      <c r="AQ166" s="1"/>
+    </row>
+    <row r="167" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A167" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B167" s="35"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2"/>
+      <c r="V167" s="2"/>
+      <c r="W167" s="2"/>
+      <c r="X167" s="2"/>
+      <c r="Y167" s="2"/>
+      <c r="Z167" s="2"/>
+      <c r="AA167" s="2"/>
+      <c r="AB167" s="2"/>
+      <c r="AC167" s="2"/>
+      <c r="AD167" s="2"/>
+      <c r="AE167" s="2"/>
+      <c r="AF167" s="2"/>
+      <c r="AG167" s="2"/>
+      <c r="AH167" s="2"/>
+      <c r="AI167" s="2"/>
+      <c r="AJ167" s="2"/>
+      <c r="AK167" s="2"/>
+      <c r="AL167" s="2"/>
+      <c r="AM167" s="2"/>
+      <c r="AN167" s="2"/>
+      <c r="AO167" s="2"/>
+      <c r="AP167" s="2"/>
+      <c r="AQ167" s="2"/>
+    </row>
+    <row r="168" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A168" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
+      <c r="Y168" s="3"/>
+      <c r="Z168" s="3"/>
+      <c r="AA168" s="3"/>
+      <c r="AB168" s="3"/>
+      <c r="AC168" s="3"/>
+      <c r="AD168" s="3"/>
+      <c r="AE168" s="3"/>
+      <c r="AF168" s="3"/>
+      <c r="AG168" s="3"/>
+      <c r="AH168" s="3"/>
+      <c r="AI168" s="3"/>
+      <c r="AJ168" s="3"/>
+      <c r="AK168" s="3"/>
+      <c r="AL168" s="3"/>
+      <c r="AM168" s="3"/>
+      <c r="AN168" s="3"/>
+      <c r="AO168" s="3"/>
+      <c r="AP168" s="3"/>
+      <c r="AQ168" s="3"/>
     </row>
     <row r="169" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A169" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F169" s="28"/>
+      <c r="A169" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F169" s="27"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -5088,204 +5166,261 @@
       <c r="AP169" s="3"/>
       <c r="AQ169" s="3"/>
     </row>
-    <row r="170" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="F170" s="28"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
-      <c r="L170" s="3"/>
-      <c r="M170" s="3"/>
-      <c r="N170" s="3"/>
-      <c r="O170" s="3"/>
-      <c r="P170" s="3"/>
-      <c r="Q170" s="3"/>
-      <c r="R170" s="3"/>
-      <c r="S170" s="3"/>
-      <c r="T170" s="3"/>
-      <c r="U170" s="3"/>
-      <c r="V170" s="3"/>
-      <c r="W170" s="3"/>
-      <c r="X170" s="3"/>
-      <c r="Y170" s="3"/>
-      <c r="Z170" s="3"/>
-      <c r="AA170" s="3"/>
-      <c r="AB170" s="3"/>
-      <c r="AC170" s="3"/>
-      <c r="AD170" s="3"/>
-      <c r="AE170" s="3"/>
-      <c r="AF170" s="3"/>
-      <c r="AG170" s="3"/>
-      <c r="AH170" s="3"/>
-      <c r="AI170" s="3"/>
-      <c r="AJ170" s="3"/>
-      <c r="AK170" s="3"/>
-      <c r="AL170" s="3"/>
-      <c r="AM170" s="3"/>
-      <c r="AN170" s="3"/>
-      <c r="AO170" s="3"/>
-      <c r="AP170" s="3"/>
-      <c r="AQ170" s="3"/>
+    <row r="170" spans="1:43" ht="21" customHeight="1">
+      <c r="A170" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="171" spans="1:43" ht="21" customHeight="1">
-      <c r="A171" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
+      <c r="A171" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="172" spans="1:43" ht="21" customHeight="1">
-      <c r="A172" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D172" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E172" s="15" t="s">
-        <v>6</v>
+      <c r="A172" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:43" ht="21" customHeight="1">
       <c r="A173" s="16" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="16" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D173" s="16"/>
       <c r="E173" s="16" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174" spans="1:43" ht="21" customHeight="1">
       <c r="A174" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C174" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="16"/>
       <c r="E174" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="1:43" ht="21" customHeight="1">
       <c r="A175" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>21</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C175" s="16"/>
       <c r="D175" s="16"/>
       <c r="E175" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="1:43" ht="21" customHeight="1">
-      <c r="A176" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16" t="s">
-        <v>154</v>
-      </c>
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
     </row>
     <row r="177" spans="1:5" ht="21" customHeight="1">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
+      <c r="A177" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
     </row>
     <row r="178" spans="1:5" ht="21" customHeight="1">
-      <c r="A178" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
+      <c r="A178" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="179" spans="1:5" ht="21" customHeight="1">
-      <c r="A179" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D179" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E179" s="15" t="s">
-        <v>6</v>
+      <c r="A179" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="21" customHeight="1">
       <c r="A180" s="16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D180" s="16"/>
       <c r="E180" s="16" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="21" customHeight="1">
       <c r="A181" s="16" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C181" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D181" s="16"/>
       <c r="E181" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="21" customHeight="1">
+      <c r="A182" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="21" customHeight="1">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+    </row>
+    <row r="184" spans="1:5" ht="21" customHeight="1">
+      <c r="A184" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+    </row>
+    <row r="185" spans="1:5" ht="21" customHeight="1">
+      <c r="A185" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="21" customHeight="1">
+      <c r="A186" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="21" customHeight="1">
+      <c r="A187" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A167:E167"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/doc/支持文件/公版数据字典.xlsx
+++ b/doc/支持文件/公版数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="262">
   <si>
     <t>用户表</t>
   </si>
@@ -902,6 +902,40 @@
   <si>
     <t>新增表</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_repair</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户报修</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编码</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>picpath</t>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修地址</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态0：未处理 1：已处理</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1103,13 +1137,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,9 +1262,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1228,6 +1272,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1497,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ187"/>
+  <dimension ref="A1:AQ198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F159" sqref="F159"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -4604,16 +4675,16 @@
       <c r="AQ158" s="3"/>
     </row>
     <row r="159" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A159" s="36" t="s">
+      <c r="A159" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="B159" s="36" t="s">
+      <c r="B159" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C159" s="36"/>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="39" t="s">
+      <c r="C159" s="35"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="35"/>
+      <c r="F159" s="38" t="s">
         <v>252</v>
       </c>
       <c r="G159" s="3"/>
@@ -4655,19 +4726,19 @@
       <c r="AQ159" s="3"/>
     </row>
     <row r="160" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A160" s="37" t="s">
+      <c r="A160" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="37" t="s">
+      <c r="B160" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C160" s="37" t="s">
+      <c r="C160" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="37" t="s">
+      <c r="D160" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E160" s="37" t="s">
+      <c r="E160" s="36" t="s">
         <v>6</v>
       </c>
       <c r="F160" s="10"/>
@@ -4710,19 +4781,19 @@
       <c r="AQ160" s="1"/>
     </row>
     <row r="161" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A161" s="38" t="s">
+      <c r="A161" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="B161" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="38" t="s">
+      <c r="C161" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D161" s="38" t="s">
+      <c r="D161" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="38" t="s">
+      <c r="E161" s="37" t="s">
         <v>11</v>
       </c>
       <c r="F161" s="12"/>
@@ -4765,19 +4836,19 @@
       <c r="AQ161" s="2"/>
     </row>
     <row r="162" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A162" s="38" t="s">
+      <c r="A162" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="38" t="s">
+      <c r="C162" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="38" t="s">
+      <c r="D162" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="38" t="s">
+      <c r="E162" s="37" t="s">
         <v>247</v>
       </c>
       <c r="F162" s="27"/>
@@ -4820,17 +4891,17 @@
       <c r="AQ162" s="3"/>
     </row>
     <row r="163" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A163" s="38" t="s">
+      <c r="A163" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="B163" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C163" s="38" t="s">
+      <c r="C163" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D163" s="38"/>
-      <c r="E163" s="38" t="s">
+      <c r="D163" s="37"/>
+      <c r="E163" s="37" t="s">
         <v>248</v>
       </c>
       <c r="F163" s="27"/>
@@ -4873,17 +4944,17 @@
       <c r="AQ163" s="3"/>
     </row>
     <row r="164" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A164" s="38" t="s">
+      <c r="A164" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="B164" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="C164" s="38" t="s">
+      <c r="C164" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D164" s="38"/>
-      <c r="E164" s="38" t="s">
+      <c r="D164" s="37"/>
+      <c r="E164" s="37" t="s">
         <v>251</v>
       </c>
       <c r="F164" s="27"/>
@@ -4971,12 +5042,18 @@
       <c r="AQ165" s="3"/>
     </row>
     <row r="166" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="10"/>
+      <c r="A166" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B166" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C166" s="41"/>
+      <c r="D166" s="41"/>
+      <c r="E166" s="42"/>
+      <c r="F166" s="40" t="s">
+        <v>252</v>
+      </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -5016,14 +5093,22 @@
       <c r="AQ166" s="1"/>
     </row>
     <row r="167" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A167" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B167" s="35"/>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="12"/>
+      <c r="A167" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" s="45"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
@@ -5063,16 +5148,22 @@
       <c r="AQ167" s="2"/>
     </row>
     <row r="168" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A168" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="27"/>
+      <c r="A168" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="46"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -5112,22 +5203,22 @@
       <c r="AQ168" s="3"/>
     </row>
     <row r="169" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A169" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D169" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F169" s="27"/>
+      <c r="A169" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B169" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D169" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="F169" s="47"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -5167,260 +5258,407 @@
       <c r="AQ169" s="3"/>
     </row>
     <row r="170" spans="1:43" ht="21" customHeight="1">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B170" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="37"/>
+      <c r="E170" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="F170" s="47"/>
+    </row>
+    <row r="171" spans="1:43" ht="21" customHeight="1">
+      <c r="A171" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C171" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="37"/>
+      <c r="E171" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="F171" s="47"/>
+    </row>
+    <row r="172" spans="1:43" ht="21" customHeight="1">
+      <c r="A172" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B172" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="37"/>
+      <c r="E172" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="F172" s="47"/>
+    </row>
+    <row r="173" spans="1:43" ht="21" customHeight="1">
+      <c r="A173" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B173" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C173" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="37"/>
+      <c r="E173" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="F173" s="47"/>
+    </row>
+    <row r="174" spans="1:43" ht="21" customHeight="1">
+      <c r="A174" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B174" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C174" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="37"/>
+      <c r="E174" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="F174" s="47"/>
+    </row>
+    <row r="175" spans="1:43" ht="21" customHeight="1">
+      <c r="A175" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B175" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C175" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="37"/>
+      <c r="E175" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="F175" s="47"/>
+    </row>
+    <row r="176" spans="1:43" ht="21" customHeight="1">
+      <c r="A176" s="40"/>
+      <c r="B176" s="40"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="30"/>
+    </row>
+    <row r="177" spans="1:6" ht="21" customHeight="1">
+      <c r="F177" s="10"/>
+    </row>
+    <row r="178" spans="1:6" ht="21" customHeight="1">
+      <c r="A178" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B178" s="39"/>
+      <c r="C178" s="39"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="39"/>
+      <c r="F178" s="12"/>
+    </row>
+    <row r="179" spans="1:6" ht="21" customHeight="1">
+      <c r="A179" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="27"/>
+    </row>
+    <row r="180" spans="1:6" ht="21" customHeight="1">
+      <c r="A180" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180" s="27"/>
+    </row>
+    <row r="181" spans="1:6" ht="21" customHeight="1">
+      <c r="A181" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B181" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C170" s="16" t="s">
+      <c r="C181" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D170" s="16" t="s">
+      <c r="D181" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E181" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:43" ht="21" customHeight="1">
-      <c r="A171" s="16" t="s">
+    <row r="182" spans="1:6" ht="21" customHeight="1">
+      <c r="A182" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B182" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="172" spans="1:43" ht="21" customHeight="1">
-      <c r="A172" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" s="16"/>
-      <c r="E172" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="173" spans="1:43" ht="21" customHeight="1">
-      <c r="A173" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B173" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="174" spans="1:43" ht="21" customHeight="1">
-      <c r="A174" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B174" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D174" s="16"/>
-      <c r="E174" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="175" spans="1:43" ht="21" customHeight="1">
-      <c r="A175" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B175" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C175" s="16"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="176" spans="1:43" ht="21" customHeight="1">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-    </row>
-    <row r="177" spans="1:5" ht="21" customHeight="1">
-      <c r="A177" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-    </row>
-    <row r="178" spans="1:5" ht="21" customHeight="1">
-      <c r="A178" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E178" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="21" customHeight="1">
-      <c r="A179" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="21" customHeight="1">
-      <c r="A180" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B180" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" s="16"/>
-      <c r="E180" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="21" customHeight="1">
-      <c r="A181" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B181" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D181" s="16"/>
-      <c r="E181" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="21" customHeight="1">
-      <c r="A182" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B182" s="16" t="s">
-        <v>74</v>
       </c>
       <c r="C182" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D182" s="16"/>
       <c r="E182" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="21" customHeight="1">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-    </row>
-    <row r="184" spans="1:5" ht="21" customHeight="1">
-      <c r="A184" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-    </row>
-    <row r="185" spans="1:5" ht="21" customHeight="1">
-      <c r="A185" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B185" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D185" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E185" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="21" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="21" customHeight="1">
+      <c r="A183" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="21" customHeight="1">
+      <c r="A184" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="21" customHeight="1">
+      <c r="A185" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="21" customHeight="1">
       <c r="A186" s="16" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>21</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C186" s="16"/>
       <c r="D186" s="16"/>
       <c r="E186" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="21" customHeight="1">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+    </row>
+    <row r="188" spans="1:6" ht="21" customHeight="1">
+      <c r="A188" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" spans="1:6" ht="21" customHeight="1">
+      <c r="A189" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="21" customHeight="1">
+      <c r="A190" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="21" customHeight="1">
+      <c r="A191" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="21" customHeight="1">
+      <c r="A192" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="21" customHeight="1">
+      <c r="A193" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="21" customHeight="1">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" spans="1:5" ht="21" customHeight="1">
+      <c r="A195" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" spans="1:5" ht="21" customHeight="1">
+      <c r="A196" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="21" customHeight="1">
+      <c r="A197" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="21" customHeight="1">
-      <c r="A187" s="16" t="s">
+    <row r="198" spans="1:5" ht="21" customHeight="1">
+      <c r="A198" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B198" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C187" s="16" t="s">
+      <c r="C198" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16" t="s">
+      <c r="D198" s="16"/>
+      <c r="E198" s="16" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A178:E178"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/doc/支持文件/公版数据字典.xlsx
+++ b/doc/支持文件/公版数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="266">
   <si>
     <t>用户表</t>
   </si>
@@ -936,6 +936,22 @@
   </si>
   <si>
     <t>状态0：未处理 1：已处理</t>
+  </si>
+  <si>
+    <t>picpath</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤芯图片</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增字段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1274,9 +1290,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1299,6 +1312,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1568,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ198"/>
+  <dimension ref="A1:AQ199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -2367,24 +2383,24 @@
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A57" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="F57" s="10"/>
+      <c r="A57" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="58" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A58" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B58" s="26" t="s">
         <v>8</v>
@@ -2394,27 +2410,29 @@
       </c>
       <c r="D58" s="26"/>
       <c r="E58" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C59" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="D59" s="26"/>
       <c r="E59" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="1:6" ht="21" customHeight="1">
+        <v>204</v>
+      </c>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A60" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>206</v>
@@ -2422,244 +2440,242 @@
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26" t="s">
-        <v>209</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="21" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>21</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C61" s="26"/>
       <c r="D61" s="26"/>
       <c r="E61" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="21" customHeight="1">
       <c r="A62" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="26"/>
+      <c r="C62" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="D62" s="26"/>
       <c r="E62" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21" customHeight="1">
+      <c r="A63" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="21" customHeight="1">
-      <c r="A63" s="29" t="s">
+    <row r="64" spans="1:6" ht="21" customHeight="1">
+      <c r="A64" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B64" s="29" t="s">
         <v>8</v>
-      </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="21" customHeight="1">
-      <c r="A64" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="B64" s="31" t="s">
-        <v>242</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="21" customHeight="1">
+      <c r="A65" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="F64" s="30"/>
-    </row>
-    <row r="66" spans="1:6" ht="21" customHeight="1">
-      <c r="A66" s="1" t="s">
+      <c r="F65" s="30"/>
+    </row>
+    <row r="67" spans="1:6" ht="21" customHeight="1">
+      <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" ht="21" customHeight="1">
-      <c r="A67" s="11" t="s">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" ht="21" customHeight="1">
+      <c r="A68" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B68" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D68" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E68" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="21" customHeight="1">
-      <c r="A68" s="13" t="s">
+    <row r="69" spans="1:6" ht="21" customHeight="1">
+      <c r="A69" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A69" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A70" s="13" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="13"/>
+      <c r="D70" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E70" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" s="12"/>
-    </row>
-    <row r="71" spans="1:6" ht="21" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A71" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:6" ht="21" customHeight="1">
+      <c r="A72" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="21" customHeight="1">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-    </row>
     <row r="73" spans="1:6" ht="21" customHeight="1">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" ht="21" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" ht="21" customHeight="1">
-      <c r="A74" s="11" t="s">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="21" customHeight="1">
+      <c r="A75" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B75" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D75" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E75" s="11" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="21" customHeight="1">
-      <c r="A75" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="21" customHeight="1">
       <c r="A76" s="13" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="21" customHeight="1">
       <c r="A77" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="13"/>
+      <c r="D77" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E77" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A78" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>165</v>
@@ -2669,123 +2685,125 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F78" s="12"/>
-    </row>
-    <row r="79" spans="1:6" ht="21" customHeight="1">
+        <v>166</v>
+      </c>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A79" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="s">
-        <v>172</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F79" s="12"/>
     </row>
     <row r="80" spans="1:6" ht="21" customHeight="1">
       <c r="A80" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="21" customHeight="1">
+      <c r="A81" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="21" customHeight="1">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-    </row>
     <row r="82" spans="1:6" ht="21" customHeight="1">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:6" ht="21" customHeight="1">
+      <c r="A83" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B83" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-    </row>
-    <row r="83" spans="1:6" ht="21" customHeight="1">
-      <c r="A83" s="21" t="s">
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+    </row>
+    <row r="84" spans="1:6" ht="21" customHeight="1">
+      <c r="A84" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B84" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C84" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D84" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E84" s="21" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="21" customHeight="1">
-      <c r="A84" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="21" customHeight="1">
       <c r="A85" s="22" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="22"/>
+        <v>9</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="E85" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F85" s="19"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="21" customHeight="1">
       <c r="A86" s="22" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C86" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="D86" s="22"/>
       <c r="E86" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F86" s="19"/>
     </row>
     <row r="87" spans="1:6" ht="21" customHeight="1">
       <c r="A87" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="22" t="s">
         <v>178</v>
@@ -2793,13 +2811,13 @@
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
       <c r="E87" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F87" s="19"/>
     </row>
     <row r="88" spans="1:6" ht="21" customHeight="1">
       <c r="A88" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88" s="22" t="s">
         <v>178</v>
@@ -2807,13 +2825,13 @@
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
       <c r="E88" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F88" s="19"/>
     </row>
     <row r="89" spans="1:6" ht="21" customHeight="1">
       <c r="A89" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" s="22" t="s">
         <v>178</v>
@@ -2821,13 +2839,13 @@
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
       <c r="E89" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F89" s="19"/>
     </row>
     <row r="90" spans="1:6" ht="21" customHeight="1">
       <c r="A90" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" s="22" t="s">
         <v>178</v>
@@ -2835,12 +2853,13 @@
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
       <c r="E90" s="22" t="s">
-        <v>183</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F90" s="19"/>
     </row>
     <row r="91" spans="1:6" ht="21" customHeight="1">
       <c r="A91" s="22" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B91" s="22" t="s">
         <v>178</v>
@@ -2848,12 +2867,12 @@
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
       <c r="E91" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="21" customHeight="1">
       <c r="A92" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B92" s="22" t="s">
         <v>178</v>
@@ -2861,12 +2880,12 @@
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
       <c r="E92" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="21" customHeight="1">
       <c r="A93" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B93" s="22" t="s">
         <v>178</v>
@@ -2874,96 +2893,92 @@
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
       <c r="E93" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="21" customHeight="1">
       <c r="A94" s="22" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
       <c r="E94" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="21" customHeight="1">
+      <c r="A95" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="21" customHeight="1">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-    </row>
-    <row r="97" spans="1:6" ht="21" customHeight="1">
-      <c r="A97" s="1" t="s">
+    <row r="96" spans="1:6" ht="21" customHeight="1">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+    </row>
+    <row r="98" spans="1:6" ht="21" customHeight="1">
+      <c r="A98" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A98" s="11" t="s">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A99" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B99" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C99" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D99" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E99" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A99" s="13" t="s">
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A100" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="12"/>
-    </row>
-    <row r="100" spans="1:6" ht="21" customHeight="1">
-      <c r="A100" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>91</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F100" s="12"/>
     </row>
     <row r="101" spans="1:6" ht="21" customHeight="1">
       <c r="A101" s="13" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>8</v>
@@ -2975,12 +2990,12 @@
         <v>15</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="21" customHeight="1">
       <c r="A102" s="13" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>8</v>
@@ -2992,12 +3007,12 @@
         <v>15</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="21" customHeight="1">
       <c r="A103" s="13" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>8</v>
@@ -3005,29 +3020,31 @@
       <c r="C103" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D103" s="13"/>
+      <c r="D103" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E103" s="13" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="21" customHeight="1">
       <c r="A104" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="21" customHeight="1">
       <c r="A105" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>95</v>
@@ -3037,27 +3054,27 @@
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="21" customHeight="1">
       <c r="A106" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B106" s="32" t="s">
-        <v>165</v>
+        <v>97</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="21" customHeight="1">
       <c r="A107" s="13" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B107" s="32" t="s">
         <v>165</v>
@@ -3067,12 +3084,12 @@
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="21" customHeight="1">
-      <c r="A108" s="32" t="s">
-        <v>236</v>
+      <c r="A108" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="B108" s="32" t="s">
         <v>165</v>
@@ -3081,96 +3098,94 @@
         <v>21</v>
       </c>
       <c r="D108" s="13"/>
-      <c r="E108" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="F108" s="30"/>
+      <c r="E108" s="13" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="21" customHeight="1">
       <c r="A109" s="32" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D109" s="13"/>
-      <c r="E109" s="13" t="s">
+      <c r="E109" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="F109" s="30"/>
+    </row>
+    <row r="110" spans="1:6" ht="21" customHeight="1">
+      <c r="A110" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="21" customHeight="1">
-      <c r="A110" s="34"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="17"/>
-      <c r="F110" s="30"/>
-    </row>
-    <row r="111" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:6" ht="21" customHeight="1">
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="17"/>
+      <c r="F111" s="30"/>
+    </row>
+    <row r="112" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A112" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F111" s="10"/>
-    </row>
-    <row r="112" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A112" s="11" t="s">
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A113" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B113" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C113" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D113" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E113" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F112" s="12"/>
-    </row>
-    <row r="113" spans="1:7" ht="21" customHeight="1">
-      <c r="A113" s="13" t="s">
+      <c r="F113" s="12"/>
+    </row>
+    <row r="114" spans="1:6" ht="21" customHeight="1">
+      <c r="A114" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="21" customHeight="1">
-      <c r="A114" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="21" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="21" customHeight="1">
       <c r="A115" s="13" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>8</v>
@@ -3182,12 +3197,12 @@
         <v>15</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="21" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="21" customHeight="1">
       <c r="A116" s="13" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>8</v>
@@ -3199,12 +3214,12 @@
         <v>15</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="21" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="21" customHeight="1">
       <c r="A117" s="13" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>8</v>
@@ -3216,14 +3231,14 @@
         <v>15</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="21" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="21" customHeight="1">
       <c r="A118" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B118" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="13" t="s">
@@ -3233,26 +3248,29 @@
         <v>15</v>
       </c>
       <c r="E118" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="21" customHeight="1">
+      <c r="A119" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A119" s="13" t="s">
+    <row r="120" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
+      <c r="A120" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="B119" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F119" s="9"/>
-    </row>
-    <row r="120" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A120" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="B120" s="32" t="s">
         <v>165</v>
@@ -3260,131 +3278,128 @@
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F120" s="9"/>
+    </row>
+    <row r="121" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A121" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F120" s="10"/>
-    </row>
-    <row r="121" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="12"/>
-    </row>
-    <row r="122" spans="1:7" ht="21" customHeight="1">
-      <c r="A122" s="1" t="s">
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="12"/>
+    </row>
+    <row r="123" spans="1:6" ht="21" customHeight="1">
+      <c r="A123" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" ht="21" customHeight="1">
-      <c r="A123" s="11" t="s">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" ht="21" customHeight="1">
+      <c r="A124" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B124" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C124" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D124" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E124" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="21" customHeight="1">
-      <c r="A124" s="13" t="s">
+    <row r="125" spans="1:6" ht="21" customHeight="1">
+      <c r="A125" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="21" customHeight="1">
-      <c r="A125" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="21" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="21" customHeight="1">
       <c r="A126" s="13" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D126" s="13"/>
+      <c r="D126" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E126" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="5" customFormat="1" ht="21" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="21" customHeight="1">
       <c r="A127" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F127" s="9"/>
-    </row>
-    <row r="128" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A128" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B128" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C128" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F128" s="10"/>
-    </row>
-    <row r="129" spans="1:43" s="2" customFormat="1" ht="21" customHeight="1">
+        <v>116</v>
+      </c>
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="1:43" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A129" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B129" s="32" t="s">
         <v>165</v>
@@ -3392,73 +3407,72 @@
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" s="10"/>
+    </row>
+    <row r="130" spans="1:43" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A130" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F129" s="12"/>
-    </row>
-    <row r="131" spans="1:43" ht="21" customHeight="1">
-      <c r="A131" s="1" t="s">
+      <c r="F130" s="12"/>
+    </row>
+    <row r="132" spans="1:43" ht="21" customHeight="1">
+      <c r="A132" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="1:43" ht="21" customHeight="1">
-      <c r="A132" s="11" t="s">
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:43" ht="21" customHeight="1">
+      <c r="A133" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B133" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C133" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D133" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E133" s="11" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:43" ht="21" customHeight="1">
-      <c r="A133" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:43" ht="21" customHeight="1">
       <c r="A134" s="13" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="B134" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D134" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="E134" s="13" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:43" ht="21" customHeight="1">
       <c r="A135" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>8</v>
@@ -3468,75 +3482,37 @@
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:43" ht="21" customHeight="1">
       <c r="A136" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F136" s="10"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-      <c r="S136" s="1"/>
-      <c r="T136" s="1"/>
-      <c r="U136" s="1"/>
-      <c r="V136" s="1"/>
-      <c r="W136" s="1"/>
-      <c r="X136" s="1"/>
-      <c r="Y136" s="1"/>
-      <c r="Z136" s="1"/>
-      <c r="AA136" s="1"/>
-      <c r="AB136" s="1"/>
-      <c r="AC136" s="1"/>
-      <c r="AD136" s="1"/>
-      <c r="AE136" s="1"/>
-      <c r="AF136" s="1"/>
-      <c r="AG136" s="1"/>
-      <c r="AH136" s="1"/>
-      <c r="AI136" s="1"/>
-      <c r="AJ136" s="1"/>
-      <c r="AK136" s="1"/>
-      <c r="AL136" s="1"/>
-      <c r="AM136" s="1"/>
-      <c r="AN136" s="1"/>
-      <c r="AO136" s="1"/>
-      <c r="AP136" s="1"/>
-      <c r="AQ136" s="1"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="137" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A137" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D137" s="13"/>
       <c r="E137" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="1"/>
@@ -3577,116 +3553,114 @@
       <c r="AP137" s="1"/>
       <c r="AQ137" s="1"/>
     </row>
-    <row r="138" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="2"/>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
-      <c r="U138" s="2"/>
-      <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
-      <c r="X138" s="2"/>
-      <c r="Y138" s="2"/>
-      <c r="Z138" s="2"/>
-      <c r="AA138" s="2"/>
-      <c r="AB138" s="2"/>
-      <c r="AC138" s="2"/>
-      <c r="AD138" s="2"/>
-      <c r="AE138" s="2"/>
-      <c r="AF138" s="2"/>
-      <c r="AG138" s="2"/>
-      <c r="AH138" s="2"/>
-      <c r="AI138" s="2"/>
-      <c r="AJ138" s="2"/>
-      <c r="AK138" s="2"/>
-      <c r="AL138" s="2"/>
-      <c r="AM138" s="2"/>
-      <c r="AN138" s="2"/>
-      <c r="AO138" s="2"/>
-      <c r="AP138" s="2"/>
-      <c r="AQ138" s="2"/>
-    </row>
-    <row r="139" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A139" s="1" t="s">
+    <row r="138" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A138" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1"/>
+      <c r="AA138" s="1"/>
+      <c r="AB138" s="1"/>
+      <c r="AC138" s="1"/>
+      <c r="AD138" s="1"/>
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1"/>
+      <c r="AG138" s="1"/>
+      <c r="AH138" s="1"/>
+      <c r="AI138" s="1"/>
+      <c r="AJ138" s="1"/>
+      <c r="AK138" s="1"/>
+      <c r="AL138" s="1"/>
+      <c r="AM138" s="1"/>
+      <c r="AN138" s="1"/>
+      <c r="AO138" s="1"/>
+      <c r="AP138" s="1"/>
+      <c r="AQ138" s="1"/>
+    </row>
+    <row r="139" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2"/>
+      <c r="V139" s="2"/>
+      <c r="W139" s="2"/>
+      <c r="X139" s="2"/>
+      <c r="Y139" s="2"/>
+      <c r="Z139" s="2"/>
+      <c r="AA139" s="2"/>
+      <c r="AB139" s="2"/>
+      <c r="AC139" s="2"/>
+      <c r="AD139" s="2"/>
+      <c r="AE139" s="2"/>
+      <c r="AF139" s="2"/>
+      <c r="AG139" s="2"/>
+      <c r="AH139" s="2"/>
+      <c r="AI139" s="2"/>
+      <c r="AJ139" s="2"/>
+      <c r="AK139" s="2"/>
+      <c r="AL139" s="2"/>
+      <c r="AM139" s="2"/>
+      <c r="AN139" s="2"/>
+      <c r="AO139" s="2"/>
+      <c r="AP139" s="2"/>
+      <c r="AQ139" s="2"/>
+    </row>
+    <row r="140" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A140" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="3"/>
-      <c r="N139" s="3"/>
-      <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
-      <c r="Q139" s="3"/>
-      <c r="R139" s="3"/>
-      <c r="S139" s="3"/>
-      <c r="T139" s="3"/>
-      <c r="U139" s="3"/>
-      <c r="V139" s="3"/>
-      <c r="W139" s="3"/>
-      <c r="X139" s="3"/>
-      <c r="Y139" s="3"/>
-      <c r="Z139" s="3"/>
-      <c r="AA139" s="3"/>
-      <c r="AB139" s="3"/>
-      <c r="AC139" s="3"/>
-      <c r="AD139" s="3"/>
-      <c r="AE139" s="3"/>
-      <c r="AF139" s="3"/>
-      <c r="AG139" s="3"/>
-      <c r="AH139" s="3"/>
-      <c r="AI139" s="3"/>
-      <c r="AJ139" s="3"/>
-      <c r="AK139" s="3"/>
-      <c r="AL139" s="3"/>
-      <c r="AM139" s="3"/>
-      <c r="AN139" s="3"/>
-      <c r="AO139" s="3"/>
-      <c r="AP139" s="3"/>
-      <c r="AQ139" s="3"/>
-    </row>
-    <row r="140" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A140" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
       <c r="F140" s="27"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -3727,20 +3701,20 @@
       <c r="AQ140" s="3"/>
     </row>
     <row r="141" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A141" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>11</v>
+      <c r="A141" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="F141" s="27"/>
       <c r="G141" s="3"/>
@@ -3783,19 +3757,19 @@
     </row>
     <row r="142" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="13" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="F142" s="27"/>
       <c r="G142" s="3"/>
@@ -3838,17 +3812,19 @@
     </row>
     <row r="143" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="13" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E143" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F143" s="27"/>
       <c r="G143" s="3"/>
@@ -3891,17 +3867,17 @@
     </row>
     <row r="144" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A144" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B144" s="32" t="s">
-        <v>165</v>
+        <v>131</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="13"/>
       <c r="E144" s="13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F144" s="27"/>
       <c r="G144" s="3"/>
@@ -3944,17 +3920,17 @@
     </row>
     <row r="145" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A145" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>13</v>
+        <v>133</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>165</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="13"/>
       <c r="E145" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F145" s="27"/>
       <c r="G145" s="3"/>
@@ -3996,11 +3972,19 @@
       <c r="AQ145" s="3"/>
     </row>
     <row r="146" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A146" s="17"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
+      <c r="A146" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="F146" s="27"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -4041,15 +4025,11 @@
       <c r="AQ146" s="3"/>
     </row>
     <row r="147" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A147" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B147" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
+      <c r="A147" s="17"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
       <c r="F147" s="27"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -4090,21 +4070,15 @@
       <c r="AQ147" s="3"/>
     </row>
     <row r="148" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A148" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" s="18" t="s">
-        <v>6</v>
-      </c>
+      <c r="A148" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B148" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
       <c r="F148" s="27"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -4145,20 +4119,20 @@
       <c r="AQ148" s="3"/>
     </row>
     <row r="149" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A149" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" s="31" t="s">
-        <v>11</v>
+      <c r="A149" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="F149" s="27"/>
       <c r="G149" s="3"/>
@@ -4201,19 +4175,19 @@
     </row>
     <row r="150" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A150" s="31" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="C150" s="31" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="F150" s="27"/>
       <c r="G150" s="3"/>
@@ -4256,10 +4230,10 @@
     </row>
     <row r="151" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A151" s="31" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="C151" s="31" t="s">
         <v>21</v>
@@ -4268,7 +4242,7 @@
         <v>15</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F151" s="27"/>
       <c r="G151" s="3"/>
@@ -4311,17 +4285,19 @@
     </row>
     <row r="152" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A152" s="31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C152" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D152" s="31"/>
+      <c r="D152" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="E152" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F152" s="27"/>
       <c r="G152" s="3"/>
@@ -4364,19 +4340,17 @@
     </row>
     <row r="153" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A153" s="31" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C153" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D153" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="D153" s="31"/>
       <c r="E153" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F153" s="27"/>
       <c r="G153" s="3"/>
@@ -4419,17 +4393,19 @@
     </row>
     <row r="154" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A154" s="31" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="C154" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D154" s="31"/>
+      <c r="D154" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="E154" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F154" s="27"/>
       <c r="G154" s="3"/>
@@ -4472,17 +4448,17 @@
     </row>
     <row r="155" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A155" s="31" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="C155" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D155" s="31"/>
       <c r="E155" s="31" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="F155" s="27"/>
       <c r="G155" s="3"/>
@@ -4525,17 +4501,17 @@
     </row>
     <row r="156" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A156" s="31" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C156" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D156" s="31"/>
       <c r="E156" s="31" t="s">
-        <v>233</v>
+        <v>48</v>
       </c>
       <c r="F156" s="27"/>
       <c r="G156" s="3"/>
@@ -4578,17 +4554,17 @@
     </row>
     <row r="157" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A157" s="31" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="C157" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D157" s="31"/>
       <c r="E157" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F157" s="27"/>
       <c r="G157" s="3"/>
@@ -4630,11 +4606,19 @@
       <c r="AQ157" s="3"/>
     </row>
     <row r="158" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A158" s="17"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
+      <c r="A158" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B158" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C158" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31" t="s">
+        <v>234</v>
+      </c>
       <c r="F158" s="27"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -4675,18 +4659,12 @@
       <c r="AQ158" s="3"/>
     </row>
     <row r="159" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A159" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="B159" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="38" t="s">
-        <v>252</v>
-      </c>
+      <c r="A159" s="17"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="27"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
@@ -4725,184 +4703,182 @@
       <c r="AP159" s="3"/>
       <c r="AQ159" s="3"/>
     </row>
-    <row r="160" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A160" s="36" t="s">
+    <row r="160" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A160" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B160" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C160" s="35"/>
+      <c r="D160" s="35"/>
+      <c r="E160" s="35"/>
+      <c r="F160" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
+      <c r="Y160" s="3"/>
+      <c r="Z160" s="3"/>
+      <c r="AA160" s="3"/>
+      <c r="AB160" s="3"/>
+      <c r="AC160" s="3"/>
+      <c r="AD160" s="3"/>
+      <c r="AE160" s="3"/>
+      <c r="AF160" s="3"/>
+      <c r="AG160" s="3"/>
+      <c r="AH160" s="3"/>
+      <c r="AI160" s="3"/>
+      <c r="AJ160" s="3"/>
+      <c r="AK160" s="3"/>
+      <c r="AL160" s="3"/>
+      <c r="AM160" s="3"/>
+      <c r="AN160" s="3"/>
+      <c r="AO160" s="3"/>
+      <c r="AP160" s="3"/>
+      <c r="AQ160" s="3"/>
+    </row>
+    <row r="161" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A161" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="36" t="s">
+      <c r="B161" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C160" s="36" t="s">
+      <c r="C161" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="36" t="s">
+      <c r="D161" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E160" s="36" t="s">
+      <c r="E161" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F160" s="10"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
-      <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
-      <c r="W160" s="1"/>
-      <c r="X160" s="1"/>
-      <c r="Y160" s="1"/>
-      <c r="Z160" s="1"/>
-      <c r="AA160" s="1"/>
-      <c r="AB160" s="1"/>
-      <c r="AC160" s="1"/>
-      <c r="AD160" s="1"/>
-      <c r="AE160" s="1"/>
-      <c r="AF160" s="1"/>
-      <c r="AG160" s="1"/>
-      <c r="AH160" s="1"/>
-      <c r="AI160" s="1"/>
-      <c r="AJ160" s="1"/>
-      <c r="AK160" s="1"/>
-      <c r="AL160" s="1"/>
-      <c r="AM160" s="1"/>
-      <c r="AN160" s="1"/>
-      <c r="AO160" s="1"/>
-      <c r="AP160" s="1"/>
-      <c r="AQ160" s="1"/>
-    </row>
-    <row r="161" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A161" s="37" t="s">
+      <c r="F161" s="10"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1"/>
+      <c r="W161" s="1"/>
+      <c r="X161" s="1"/>
+      <c r="Y161" s="1"/>
+      <c r="Z161" s="1"/>
+      <c r="AA161" s="1"/>
+      <c r="AB161" s="1"/>
+      <c r="AC161" s="1"/>
+      <c r="AD161" s="1"/>
+      <c r="AE161" s="1"/>
+      <c r="AF161" s="1"/>
+      <c r="AG161" s="1"/>
+      <c r="AH161" s="1"/>
+      <c r="AI161" s="1"/>
+      <c r="AJ161" s="1"/>
+      <c r="AK161" s="1"/>
+      <c r="AL161" s="1"/>
+      <c r="AM161" s="1"/>
+      <c r="AN161" s="1"/>
+      <c r="AO161" s="1"/>
+      <c r="AP161" s="1"/>
+      <c r="AQ161" s="1"/>
+    </row>
+    <row r="162" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A162" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="B161" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="12"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="2"/>
-      <c r="R161" s="2"/>
-      <c r="S161" s="2"/>
-      <c r="T161" s="2"/>
-      <c r="U161" s="2"/>
-      <c r="V161" s="2"/>
-      <c r="W161" s="2"/>
-      <c r="X161" s="2"/>
-      <c r="Y161" s="2"/>
-      <c r="Z161" s="2"/>
-      <c r="AA161" s="2"/>
-      <c r="AB161" s="2"/>
-      <c r="AC161" s="2"/>
-      <c r="AD161" s="2"/>
-      <c r="AE161" s="2"/>
-      <c r="AF161" s="2"/>
-      <c r="AG161" s="2"/>
-      <c r="AH161" s="2"/>
-      <c r="AI161" s="2"/>
-      <c r="AJ161" s="2"/>
-      <c r="AK161" s="2"/>
-      <c r="AL161" s="2"/>
-      <c r="AM161" s="2"/>
-      <c r="AN161" s="2"/>
-      <c r="AO161" s="2"/>
-      <c r="AP161" s="2"/>
-      <c r="AQ161" s="2"/>
-    </row>
-    <row r="162" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A162" s="37" t="s">
-        <v>246</v>
       </c>
       <c r="B162" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D162" s="37" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E162" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="F162" s="27"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
-      <c r="L162" s="3"/>
-      <c r="M162" s="3"/>
-      <c r="N162" s="3"/>
-      <c r="O162" s="3"/>
-      <c r="P162" s="3"/>
-      <c r="Q162" s="3"/>
-      <c r="R162" s="3"/>
-      <c r="S162" s="3"/>
-      <c r="T162" s="3"/>
-      <c r="U162" s="3"/>
-      <c r="V162" s="3"/>
-      <c r="W162" s="3"/>
-      <c r="X162" s="3"/>
-      <c r="Y162" s="3"/>
-      <c r="Z162" s="3"/>
-      <c r="AA162" s="3"/>
-      <c r="AB162" s="3"/>
-      <c r="AC162" s="3"/>
-      <c r="AD162" s="3"/>
-      <c r="AE162" s="3"/>
-      <c r="AF162" s="3"/>
-      <c r="AG162" s="3"/>
-      <c r="AH162" s="3"/>
-      <c r="AI162" s="3"/>
-      <c r="AJ162" s="3"/>
-      <c r="AK162" s="3"/>
-      <c r="AL162" s="3"/>
-      <c r="AM162" s="3"/>
-      <c r="AN162" s="3"/>
-      <c r="AO162" s="3"/>
-      <c r="AP162" s="3"/>
-      <c r="AQ162" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="F162" s="12"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="2"/>
+      <c r="X162" s="2"/>
+      <c r="Y162" s="2"/>
+      <c r="Z162" s="2"/>
+      <c r="AA162" s="2"/>
+      <c r="AB162" s="2"/>
+      <c r="AC162" s="2"/>
+      <c r="AD162" s="2"/>
+      <c r="AE162" s="2"/>
+      <c r="AF162" s="2"/>
+      <c r="AG162" s="2"/>
+      <c r="AH162" s="2"/>
+      <c r="AI162" s="2"/>
+      <c r="AJ162" s="2"/>
+      <c r="AK162" s="2"/>
+      <c r="AL162" s="2"/>
+      <c r="AM162" s="2"/>
+      <c r="AN162" s="2"/>
+      <c r="AO162" s="2"/>
+      <c r="AP162" s="2"/>
+      <c r="AQ162" s="2"/>
     </row>
     <row r="163" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A163" s="37" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="B163" s="37" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="D163" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="E163" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F163" s="27"/>
       <c r="G163" s="3"/>
@@ -4945,17 +4921,17 @@
     </row>
     <row r="164" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A164" s="37" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="B164" s="37" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="C164" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="37"/>
       <c r="E164" s="37" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F164" s="27"/>
       <c r="G164" s="3"/>
@@ -4997,11 +4973,19 @@
       <c r="AQ164" s="3"/>
     </row>
     <row r="165" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A165" s="17"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
+      <c r="A165" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B165" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="37"/>
+      <c r="E165" s="37" t="s">
+        <v>251</v>
+      </c>
       <c r="F165" s="27"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
@@ -5041,184 +5025,174 @@
       <c r="AP165" s="3"/>
       <c r="AQ165" s="3"/>
     </row>
-    <row r="166" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A166" s="41" t="s">
+    <row r="166" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A166" s="17"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+      <c r="Y166" s="3"/>
+      <c r="Z166" s="3"/>
+      <c r="AA166" s="3"/>
+      <c r="AB166" s="3"/>
+      <c r="AC166" s="3"/>
+      <c r="AD166" s="3"/>
+      <c r="AE166" s="3"/>
+      <c r="AF166" s="3"/>
+      <c r="AG166" s="3"/>
+      <c r="AH166" s="3"/>
+      <c r="AI166" s="3"/>
+      <c r="AJ166" s="3"/>
+      <c r="AK166" s="3"/>
+      <c r="AL166" s="3"/>
+      <c r="AM166" s="3"/>
+      <c r="AN166" s="3"/>
+      <c r="AO166" s="3"/>
+      <c r="AP166" s="3"/>
+      <c r="AQ166" s="3"/>
+    </row>
+    <row r="167" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A167" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="B166" s="41" t="s">
+      <c r="B167" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="C166" s="41"/>
-      <c r="D166" s="41"/>
-      <c r="E166" s="42"/>
-      <c r="F166" s="40" t="s">
+      <c r="C167" s="40"/>
+      <c r="D167" s="40"/>
+      <c r="E167" s="41"/>
+      <c r="F167" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-      <c r="S166" s="1"/>
-      <c r="T166" s="1"/>
-      <c r="U166" s="1"/>
-      <c r="V166" s="1"/>
-      <c r="W166" s="1"/>
-      <c r="X166" s="1"/>
-      <c r="Y166" s="1"/>
-      <c r="Z166" s="1"/>
-      <c r="AA166" s="1"/>
-      <c r="AB166" s="1"/>
-      <c r="AC166" s="1"/>
-      <c r="AD166" s="1"/>
-      <c r="AE166" s="1"/>
-      <c r="AF166" s="1"/>
-      <c r="AG166" s="1"/>
-      <c r="AH166" s="1"/>
-      <c r="AI166" s="1"/>
-      <c r="AJ166" s="1"/>
-      <c r="AK166" s="1"/>
-      <c r="AL166" s="1"/>
-      <c r="AM166" s="1"/>
-      <c r="AN166" s="1"/>
-      <c r="AO166" s="1"/>
-      <c r="AP166" s="1"/>
-      <c r="AQ166" s="1"/>
-    </row>
-    <row r="167" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A167" s="36" t="s">
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="1"/>
+      <c r="W167" s="1"/>
+      <c r="X167" s="1"/>
+      <c r="Y167" s="1"/>
+      <c r="Z167" s="1"/>
+      <c r="AA167" s="1"/>
+      <c r="AB167" s="1"/>
+      <c r="AC167" s="1"/>
+      <c r="AD167" s="1"/>
+      <c r="AE167" s="1"/>
+      <c r="AF167" s="1"/>
+      <c r="AG167" s="1"/>
+      <c r="AH167" s="1"/>
+      <c r="AI167" s="1"/>
+      <c r="AJ167" s="1"/>
+      <c r="AK167" s="1"/>
+      <c r="AL167" s="1"/>
+      <c r="AM167" s="1"/>
+      <c r="AN167" s="1"/>
+      <c r="AO167" s="1"/>
+      <c r="AP167" s="1"/>
+      <c r="AQ167" s="1"/>
+    </row>
+    <row r="168" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A168" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B167" s="36" t="s">
+      <c r="B168" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C167" s="36" t="s">
+      <c r="C168" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="36" t="s">
+      <c r="D168" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E167" s="43" t="s">
+      <c r="E168" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F167" s="45"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="2"/>
-      <c r="S167" s="2"/>
-      <c r="T167" s="2"/>
-      <c r="U167" s="2"/>
-      <c r="V167" s="2"/>
-      <c r="W167" s="2"/>
-      <c r="X167" s="2"/>
-      <c r="Y167" s="2"/>
-      <c r="Z167" s="2"/>
-      <c r="AA167" s="2"/>
-      <c r="AB167" s="2"/>
-      <c r="AC167" s="2"/>
-      <c r="AD167" s="2"/>
-      <c r="AE167" s="2"/>
-      <c r="AF167" s="2"/>
-      <c r="AG167" s="2"/>
-      <c r="AH167" s="2"/>
-      <c r="AI167" s="2"/>
-      <c r="AJ167" s="2"/>
-      <c r="AK167" s="2"/>
-      <c r="AL167" s="2"/>
-      <c r="AM167" s="2"/>
-      <c r="AN167" s="2"/>
-      <c r="AO167" s="2"/>
-      <c r="AP167" s="2"/>
-      <c r="AQ167" s="2"/>
-    </row>
-    <row r="168" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A168" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B168" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="46"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
-      <c r="L168" s="3"/>
-      <c r="M168" s="3"/>
-      <c r="N168" s="3"/>
-      <c r="O168" s="3"/>
-      <c r="P168" s="3"/>
-      <c r="Q168" s="3"/>
-      <c r="R168" s="3"/>
-      <c r="S168" s="3"/>
-      <c r="T168" s="3"/>
-      <c r="U168" s="3"/>
-      <c r="V168" s="3"/>
-      <c r="W168" s="3"/>
-      <c r="X168" s="3"/>
-      <c r="Y168" s="3"/>
-      <c r="Z168" s="3"/>
-      <c r="AA168" s="3"/>
-      <c r="AB168" s="3"/>
-      <c r="AC168" s="3"/>
-      <c r="AD168" s="3"/>
-      <c r="AE168" s="3"/>
-      <c r="AF168" s="3"/>
-      <c r="AG168" s="3"/>
-      <c r="AH168" s="3"/>
-      <c r="AI168" s="3"/>
-      <c r="AJ168" s="3"/>
-      <c r="AK168" s="3"/>
-      <c r="AL168" s="3"/>
-      <c r="AM168" s="3"/>
-      <c r="AN168" s="3"/>
-      <c r="AO168" s="3"/>
-      <c r="AP168" s="3"/>
-      <c r="AQ168" s="3"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="2"/>
+      <c r="X168" s="2"/>
+      <c r="Y168" s="2"/>
+      <c r="Z168" s="2"/>
+      <c r="AA168" s="2"/>
+      <c r="AB168" s="2"/>
+      <c r="AC168" s="2"/>
+      <c r="AD168" s="2"/>
+      <c r="AE168" s="2"/>
+      <c r="AF168" s="2"/>
+      <c r="AG168" s="2"/>
+      <c r="AH168" s="2"/>
+      <c r="AI168" s="2"/>
+      <c r="AJ168" s="2"/>
+      <c r="AK168" s="2"/>
+      <c r="AL168" s="2"/>
+      <c r="AM168" s="2"/>
+      <c r="AN168" s="2"/>
+      <c r="AO168" s="2"/>
+      <c r="AP168" s="2"/>
+      <c r="AQ168" s="2"/>
     </row>
     <row r="169" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A169" s="37" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="B169" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D169" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E169" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="F169" s="47"/>
+        <v>10</v>
+      </c>
+      <c r="E169" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="45"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -5257,57 +5231,96 @@
       <c r="AP169" s="3"/>
       <c r="AQ169" s="3"/>
     </row>
-    <row r="170" spans="1:43" ht="21" customHeight="1">
+    <row r="170" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A170" s="37" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="B170" s="37" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" s="37"/>
-      <c r="E170" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="F170" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="D170" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="F170" s="46"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+      <c r="Y170" s="3"/>
+      <c r="Z170" s="3"/>
+      <c r="AA170" s="3"/>
+      <c r="AB170" s="3"/>
+      <c r="AC170" s="3"/>
+      <c r="AD170" s="3"/>
+      <c r="AE170" s="3"/>
+      <c r="AF170" s="3"/>
+      <c r="AG170" s="3"/>
+      <c r="AH170" s="3"/>
+      <c r="AI170" s="3"/>
+      <c r="AJ170" s="3"/>
+      <c r="AK170" s="3"/>
+      <c r="AL170" s="3"/>
+      <c r="AM170" s="3"/>
+      <c r="AN170" s="3"/>
+      <c r="AO170" s="3"/>
+      <c r="AP170" s="3"/>
+      <c r="AQ170" s="3"/>
     </row>
     <row r="171" spans="1:43" ht="21" customHeight="1">
       <c r="A171" s="37" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B171" s="37" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="C171" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="37"/>
-      <c r="E171" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="F171" s="47"/>
+      <c r="E171" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="F171" s="46"/>
     </row>
     <row r="172" spans="1:43" ht="21" customHeight="1">
       <c r="A172" s="37" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C172" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="37"/>
-      <c r="E172" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="F172" s="47"/>
+      <c r="E172" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="F172" s="46"/>
     </row>
     <row r="173" spans="1:43" ht="21" customHeight="1">
       <c r="A173" s="37" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="B173" s="37" t="s">
         <v>255</v>
@@ -5316,14 +5329,14 @@
         <v>14</v>
       </c>
       <c r="D173" s="37"/>
-      <c r="E173" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="F173" s="47"/>
+      <c r="E173" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="F173" s="46"/>
     </row>
     <row r="174" spans="1:43" ht="21" customHeight="1">
       <c r="A174" s="37" t="s">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="B174" s="37" t="s">
         <v>255</v>
@@ -5332,318 +5345,319 @@
         <v>14</v>
       </c>
       <c r="D174" s="37"/>
-      <c r="E174" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="F174" s="47"/>
+      <c r="E174" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="F174" s="46"/>
     </row>
     <row r="175" spans="1:43" ht="21" customHeight="1">
       <c r="A175" s="37" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="B175" s="37" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C175" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D175" s="37"/>
-      <c r="E175" s="44" t="s">
+      <c r="E175" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F175" s="46"/>
+    </row>
+    <row r="176" spans="1:43" ht="21" customHeight="1">
+      <c r="A176" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B176" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C176" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="37"/>
+      <c r="E176" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="F175" s="47"/>
-    </row>
-    <row r="176" spans="1:43" ht="21" customHeight="1">
-      <c r="A176" s="40"/>
-      <c r="B176" s="40"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="30"/>
+      <c r="F176" s="46"/>
     </row>
     <row r="177" spans="1:6" ht="21" customHeight="1">
-      <c r="F177" s="10"/>
+      <c r="A177" s="39"/>
+      <c r="B177" s="39"/>
+      <c r="C177" s="39"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="39"/>
+      <c r="F177" s="30"/>
     </row>
     <row r="178" spans="1:6" ht="21" customHeight="1">
-      <c r="A178" s="39" t="s">
+      <c r="F178" s="10"/>
+    </row>
+    <row r="179" spans="1:6" ht="21" customHeight="1">
+      <c r="A179" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B178" s="39"/>
-      <c r="C178" s="39"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="39"/>
-      <c r="F178" s="12"/>
-    </row>
-    <row r="179" spans="1:6" ht="21" customHeight="1">
-      <c r="A179" s="6" t="s">
+      <c r="B179" s="47"/>
+      <c r="C179" s="47"/>
+      <c r="D179" s="47"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="12"/>
+    </row>
+    <row r="180" spans="1:6" ht="21" customHeight="1">
+      <c r="A180" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B180" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="27"/>
-    </row>
-    <row r="180" spans="1:6" ht="21" customHeight="1">
-      <c r="A180" s="15" t="s">
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="27"/>
+    </row>
+    <row r="181" spans="1:6" ht="21" customHeight="1">
+      <c r="A181" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="B181" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C180" s="15" t="s">
+      <c r="C181" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="15" t="s">
+      <c r="D181" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E180" s="15" t="s">
+      <c r="E181" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F180" s="27"/>
-    </row>
-    <row r="181" spans="1:6" ht="21" customHeight="1">
-      <c r="A181" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B181" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="F181" s="27"/>
     </row>
     <row r="182" spans="1:6" ht="21" customHeight="1">
       <c r="A182" s="16" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="B182" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D182" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="E182" s="16" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="21" customHeight="1">
       <c r="A183" s="16" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D183" s="16"/>
       <c r="E183" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="21" customHeight="1">
       <c r="A184" s="16" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="C184" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D184" s="16"/>
       <c r="E184" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="21" customHeight="1">
       <c r="A185" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C185" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D185" s="16"/>
       <c r="E185" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="21" customHeight="1">
       <c r="A186" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C186" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="D186" s="16"/>
       <c r="E186" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="21" customHeight="1">
+      <c r="A187" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="21" customHeight="1">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-    </row>
     <row r="188" spans="1:6" ht="21" customHeight="1">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+    </row>
+    <row r="189" spans="1:6" ht="21" customHeight="1">
+      <c r="A189" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B189" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-    </row>
-    <row r="189" spans="1:6" ht="21" customHeight="1">
-      <c r="A189" s="15" t="s">
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="190" spans="1:6" ht="21" customHeight="1">
+      <c r="A190" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B189" s="15" t="s">
+      <c r="B190" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C189" s="15" t="s">
+      <c r="C190" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D189" s="15" t="s">
+      <c r="D190" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E189" s="15" t="s">
+      <c r="E190" s="15" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="21" customHeight="1">
-      <c r="A190" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B190" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="21" customHeight="1">
       <c r="A191" s="16" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D191" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="D191" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="E191" s="16" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="21" customHeight="1">
       <c r="A192" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D192" s="16"/>
       <c r="E192" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="21" customHeight="1">
       <c r="A193" s="16" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D193" s="16"/>
       <c r="E193" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="21" customHeight="1">
+      <c r="A194" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="21" customHeight="1">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-    </row>
     <row r="195" spans="1:5" ht="21" customHeight="1">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8"/>
+    </row>
+    <row r="196" spans="1:5" ht="21" customHeight="1">
+      <c r="A196" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B196" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-    </row>
-    <row r="196" spans="1:5" ht="21" customHeight="1">
-      <c r="A196" s="15" t="s">
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+    </row>
+    <row r="197" spans="1:5" ht="21" customHeight="1">
+      <c r="A197" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B196" s="15" t="s">
+      <c r="B197" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C196" s="15" t="s">
+      <c r="C197" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D196" s="15" t="s">
+      <c r="D197" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E196" s="15" t="s">
+      <c r="E197" s="15" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="21" customHeight="1">
-      <c r="A197" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B197" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D197" s="16"/>
-      <c r="E197" s="16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="21" customHeight="1">
       <c r="A198" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B198" s="16" t="s">
         <v>8</v>
@@ -5653,12 +5667,27 @@
       </c>
       <c r="D198" s="16"/>
       <c r="E198" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="21" customHeight="1">
+      <c r="A199" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:E179"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/doc/支持文件/公版数据字典.xlsx
+++ b/doc/支持文件/公版数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12720" tabRatio="586"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="279">
   <si>
     <t>用户表</t>
   </si>
@@ -646,9 +646,6 @@
   </si>
   <si>
     <t>flowlife</t>
-  </si>
-  <si>
-    <t>流量寿命（升）</t>
   </si>
   <si>
     <t>balancetime</t>
@@ -951,6 +948,62 @@
   </si>
   <si>
     <t>新增字段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量寿命（升）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值套餐</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_setmeal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(25)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号、非空、自增</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号、非空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐金额</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐流量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐描述</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1584,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ199"/>
+  <dimension ref="A1:AQ207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -1692,7 +1745,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
@@ -1738,7 +1791,7 @@
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>165</v>
@@ -1746,7 +1799,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="27"/>
     </row>
@@ -2029,7 +2082,7 @@
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>165</v>
@@ -2037,7 +2090,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21" customHeight="1">
@@ -2058,15 +2111,15 @@
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1">
       <c r="A34" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F34" s="27"/>
     </row>
@@ -2308,7 +2361,7 @@
         <v>78</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -2384,18 +2437,18 @@
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A57" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="37" t="s">
         <v>262</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>263</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
       <c r="E57" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="F57" s="35" t="s">
         <v>264</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
@@ -2425,41 +2478,41 @@
         <v>21</v>
       </c>
       <c r="D59" s="26"/>
-      <c r="E59" s="26" t="s">
-        <v>204</v>
+      <c r="E59" s="29" t="s">
+        <v>265</v>
       </c>
       <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A60" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>206</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="21" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
       <c r="E61" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="21" customHeight="1">
       <c r="A62" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>41</v>
@@ -2469,12 +2522,12 @@
       </c>
       <c r="D62" s="26"/>
       <c r="E62" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="21" customHeight="1">
       <c r="A63" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>41</v>
@@ -2482,7 +2535,7 @@
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="21" customHeight="1">
@@ -2500,15 +2553,15 @@
     </row>
     <row r="65" spans="1:6" ht="21" customHeight="1">
       <c r="A65" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>242</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F65" s="30"/>
     </row>
@@ -3104,7 +3157,7 @@
     </row>
     <row r="109" spans="1:6" ht="21" customHeight="1">
       <c r="A109" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B109" s="32" t="s">
         <v>165</v>
@@ -3114,23 +3167,23 @@
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F109" s="30"/>
     </row>
     <row r="110" spans="1:6" ht="21" customHeight="1">
       <c r="A110" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B110" s="32" t="s">
         <v>239</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>240</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="21" customHeight="1">
@@ -4071,10 +4124,10 @@
     </row>
     <row r="148" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -4230,7 +4283,7 @@
     </row>
     <row r="151" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A151" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B151" s="31" t="s">
         <v>178</v>
@@ -4242,7 +4295,7 @@
         <v>15</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F151" s="27"/>
       <c r="G151" s="3"/>
@@ -4297,7 +4350,7 @@
         <v>15</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F152" s="27"/>
       <c r="G152" s="3"/>
@@ -4350,7 +4403,7 @@
       </c>
       <c r="D153" s="31"/>
       <c r="E153" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F153" s="27"/>
       <c r="G153" s="3"/>
@@ -4393,7 +4446,7 @@
     </row>
     <row r="154" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A154" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B154" s="31" t="s">
         <v>24</v>
@@ -4405,7 +4458,7 @@
         <v>15</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F154" s="27"/>
       <c r="G154" s="3"/>
@@ -4451,14 +4504,14 @@
         <v>131</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C155" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D155" s="31"/>
       <c r="E155" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F155" s="27"/>
       <c r="G155" s="3"/>
@@ -4554,7 +4607,7 @@
     </row>
     <row r="157" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A157" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B157" s="31" t="s">
         <v>24</v>
@@ -4564,7 +4617,7 @@
       </c>
       <c r="D157" s="31"/>
       <c r="E157" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F157" s="27"/>
       <c r="G157" s="3"/>
@@ -4617,7 +4670,7 @@
       </c>
       <c r="D158" s="31"/>
       <c r="E158" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F158" s="27"/>
       <c r="G158" s="3"/>
@@ -4705,16 +4758,16 @@
     </row>
     <row r="160" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A160" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B160" s="35" t="s">
         <v>244</v>
-      </c>
-      <c r="B160" s="35" t="s">
-        <v>245</v>
       </c>
       <c r="C160" s="35"/>
       <c r="D160" s="35"/>
       <c r="E160" s="35"/>
       <c r="F160" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
@@ -4866,7 +4919,7 @@
     </row>
     <row r="163" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A163" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B163" s="37" t="s">
         <v>8</v>
@@ -4878,7 +4931,7 @@
         <v>15</v>
       </c>
       <c r="E163" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F163" s="27"/>
       <c r="G163" s="3"/>
@@ -4931,7 +4984,7 @@
       </c>
       <c r="D164" s="37"/>
       <c r="E164" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F164" s="27"/>
       <c r="G164" s="3"/>
@@ -4974,17 +5027,17 @@
     </row>
     <row r="165" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A165" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="B165" s="37" t="s">
         <v>249</v>
-      </c>
-      <c r="B165" s="37" t="s">
-        <v>250</v>
       </c>
       <c r="C165" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D165" s="37"/>
       <c r="E165" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="3"/>
@@ -5072,16 +5125,16 @@
     </row>
     <row r="167" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A167" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B167" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C167" s="40"/>
       <c r="D167" s="40"/>
       <c r="E167" s="41"/>
       <c r="F167" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -5245,7 +5298,7 @@
         <v>15</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F170" s="46"/>
       <c r="G170" s="3"/>
@@ -5298,7 +5351,7 @@
       </c>
       <c r="D171" s="37"/>
       <c r="E171" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F171" s="46"/>
     </row>
@@ -5307,14 +5360,14 @@
         <v>173</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C172" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="37"/>
       <c r="E172" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F172" s="46"/>
     </row>
@@ -5323,30 +5376,30 @@
         <v>73</v>
       </c>
       <c r="B173" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C173" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="37"/>
       <c r="E173" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F173" s="46"/>
     </row>
     <row r="174" spans="1:43" ht="21" customHeight="1">
       <c r="A174" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B174" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C174" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="37"/>
       <c r="E174" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F174" s="46"/>
     </row>
@@ -5355,14 +5408,14 @@
         <v>47</v>
       </c>
       <c r="B175" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C175" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D175" s="37"/>
       <c r="E175" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F175" s="46"/>
     </row>
@@ -5371,14 +5424,14 @@
         <v>145</v>
       </c>
       <c r="B176" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C176" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D176" s="37"/>
       <c r="E176" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F176" s="46"/>
     </row>
@@ -5590,7 +5643,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="21" customHeight="1">
+    <row r="193" spans="1:6" ht="21" customHeight="1">
       <c r="A193" s="16" t="s">
         <v>145</v>
       </c>
@@ -5605,7 +5658,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="21" customHeight="1">
+    <row r="194" spans="1:6" ht="21" customHeight="1">
       <c r="A194" s="16" t="s">
         <v>153</v>
       </c>
@@ -5620,14 +5673,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="21" customHeight="1">
+    <row r="195" spans="1:6" ht="21" customHeight="1">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
     </row>
-    <row r="196" spans="1:5" ht="21" customHeight="1">
+    <row r="196" spans="1:6" ht="21" customHeight="1">
       <c r="A196" s="6" t="s">
         <v>155</v>
       </c>
@@ -5638,7 +5691,7 @@
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="1:5" ht="21" customHeight="1">
+    <row r="197" spans="1:6" ht="21" customHeight="1">
       <c r="A197" s="15" t="s">
         <v>2</v>
       </c>
@@ -5655,7 +5708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="21" customHeight="1">
+    <row r="198" spans="1:6" ht="21" customHeight="1">
       <c r="A198" s="16" t="s">
         <v>157</v>
       </c>
@@ -5670,7 +5723,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="21" customHeight="1">
+    <row r="199" spans="1:6" ht="21" customHeight="1">
       <c r="A199" s="16" t="s">
         <v>158</v>
       </c>
@@ -5684,6 +5737,106 @@
       <c r="E199" s="16" t="s">
         <v>159</v>
       </c>
+    </row>
+    <row r="201" spans="1:6" ht="21" customHeight="1">
+      <c r="A201" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="B201" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C201" s="40"/>
+      <c r="D201" s="40"/>
+      <c r="E201" s="40"/>
+      <c r="F201" s="39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="21" customHeight="1">
+      <c r="A202" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B202" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="21" customHeight="1">
+      <c r="A203" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D203" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="21" customHeight="1">
+      <c r="A204" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B204" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C204" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D204" s="37"/>
+      <c r="E204" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="21" customHeight="1">
+      <c r="A205" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="B205" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D205" s="37"/>
+      <c r="E205" s="37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="21" customHeight="1">
+      <c r="A206" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="B206" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C206" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D206" s="37"/>
+      <c r="E206" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="21" customHeight="1">
+      <c r="A207" s="13"/>
+      <c r="B207" s="13"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/支持文件/公版数据字典.xlsx
+++ b/doc/支持文件/公版数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="281">
   <si>
     <t>用户表</t>
   </si>
@@ -963,19 +963,47 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>decimal(25)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号、非空、自增</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号、非空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐流量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐描述</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>money</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>decimal(25)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>无符号、非空、自增</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>无符号、非空</t>
+    <t>flow</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -983,27 +1011,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>flow</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐流量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐描述</t>
+    <t>dtid</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1637,9 +1645,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ207"/>
+  <dimension ref="A1:AQ208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
       <selection activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
@@ -5777,66 +5785,84 @@
         <v>8</v>
       </c>
       <c r="C203" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D203" s="37" t="s">
         <v>10</v>
       </c>
       <c r="E203" s="37" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="21" customHeight="1">
       <c r="A204" s="37" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B204" s="37" t="s">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="C204" s="37" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="D204" s="37"/>
       <c r="E204" s="37" t="s">
-        <v>272</v>
+        <v>166</v>
+      </c>
+      <c r="F204" s="39" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="21" customHeight="1">
       <c r="A205" s="37" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B205" s="37" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="C205" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D205" s="37"/>
       <c r="E205" s="37" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="21" customHeight="1">
       <c r="A206" s="37" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B206" s="37" t="s">
-        <v>276</v>
+        <v>8</v>
       </c>
       <c r="C206" s="37" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D206" s="37"/>
       <c r="E206" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="21" customHeight="1">
+      <c r="A207" s="37" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="21" customHeight="1">
-      <c r="A207" s="13"/>
-      <c r="B207" s="13"/>
-      <c r="C207" s="13"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
+      <c r="B207" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C207" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="D207" s="37"/>
+      <c r="E207" s="37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="21" customHeight="1">
+      <c r="A208" s="13"/>
+      <c r="B208" s="13"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/支持文件/公版数据字典.xlsx
+++ b/doc/支持文件/公版数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="289">
   <si>
     <t>用户表</t>
   </si>
@@ -975,10 +975,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>套餐流量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(255)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1011,7 +1007,43 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>dtid</t>
+    <t>tid</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类型ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>remodel</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值模式(0：流量1：时间)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增字段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐流量/时长</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtime</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1645,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ208"/>
+  <dimension ref="A1:AQ209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="F209" sqref="F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -5791,12 +5823,12 @@
         <v>10</v>
       </c>
       <c r="E203" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="21" customHeight="1">
       <c r="A204" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B204" s="37" t="s">
         <v>165</v>
@@ -5806,7 +5838,7 @@
       </c>
       <c r="D204" s="37"/>
       <c r="E204" s="37" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="F204" s="39" t="s">
         <v>264</v>
@@ -5814,55 +5846,82 @@
     </row>
     <row r="205" spans="1:6" ht="21" customHeight="1">
       <c r="A205" s="37" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B205" s="37" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C205" s="37" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="D205" s="37"/>
       <c r="E205" s="37" t="s">
-        <v>279</v>
+        <v>283</v>
+      </c>
+      <c r="F205" s="39" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="21" customHeight="1">
       <c r="A206" s="37" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B206" s="37" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="C206" s="37" t="s">
         <v>270</v>
       </c>
       <c r="D206" s="37"/>
       <c r="E206" s="37" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="21" customHeight="1">
       <c r="A207" s="37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B207" s="37" t="s">
-        <v>272</v>
+        <v>8</v>
       </c>
       <c r="C207" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D207" s="37"/>
       <c r="E207" s="37" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="21" customHeight="1">
-      <c r="A208" s="13"/>
-      <c r="B208" s="13"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
+      <c r="A208" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="B208" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="C208" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D208" s="37"/>
+      <c r="E208" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="21" customHeight="1">
+      <c r="A209" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B209" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C209" s="37"/>
+      <c r="D209" s="37"/>
+      <c r="E209" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="F209" s="39" t="s">
+        <v>284</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/支持文件/公版数据字典.xlsx
+++ b/doc/支持文件/公版数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="301">
   <si>
     <t>用户表</t>
   </si>
@@ -229,12 +229,6 @@
     <t>供销商的层级关系</t>
   </si>
   <si>
-    <t>设备表</t>
-  </si>
-  <si>
-    <t>pub_devices</t>
-  </si>
-  <si>
     <t>device_code</t>
   </si>
   <si>
@@ -508,14 +502,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>设备配置表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>dtid</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>int(11)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -555,9 +541,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>设备类型</t>
-  </si>
-  <si>
     <t>typename</t>
   </si>
   <si>
@@ -601,10 +584,6 @@
   </si>
   <si>
     <t>创建时间</t>
-  </si>
-  <si>
-    <t>pub_device_type</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>设备状态(0:已入库1：待激活2：已激活)</t>
@@ -1045,6 +1024,77 @@
   <si>
     <t>添加时间</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备配置表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_devices</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtid</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_device_type</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>did</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前设备</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户当前设备表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_current_devices</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号、非空、自增</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通索引</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,6 +1458,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1677,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ209"/>
+  <dimension ref="A1:AQ216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="F209" sqref="F209"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -1785,7 +1838,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
@@ -1793,7 +1846,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1819,7 +1872,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>14</v>
@@ -1831,15 +1884,15 @@
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F10" s="27"/>
     </row>
@@ -2122,44 +2175,44 @@
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F34" s="27"/>
     </row>
@@ -2267,10 +2320,10 @@
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>289</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2284,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>5</v>
@@ -2296,13 +2349,13 @@
     </row>
     <row r="45" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>9</v>
+      <c r="C45" s="32" t="s">
+        <v>297</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>10</v>
@@ -2314,10 +2367,10 @@
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>21</v>
@@ -2326,13 +2379,13 @@
         <v>15</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1">
       <c r="A47" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>24</v>
@@ -2342,15 +2395,15 @@
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="21" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>21</v>
@@ -2362,30 +2415,30 @@
     </row>
     <row r="49" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A49" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="21" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="21" customHeight="1">
@@ -2394,322 +2447,319 @@
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="23"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="21" customHeight="1">
-      <c r="A52" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="23"/>
+      <c r="A52" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="38"/>
     </row>
     <row r="53" spans="1:6" ht="21" customHeight="1">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="21" customHeight="1">
+      <c r="A54" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="1:6" ht="21" customHeight="1">
+      <c r="A55" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="37"/>
+      <c r="D55" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F55" s="30"/>
+    </row>
+    <row r="56" spans="1:6" ht="21" customHeight="1">
+      <c r="A56" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="F56" s="30"/>
+    </row>
+    <row r="57" spans="1:6" ht="21" customHeight="1">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" ht="21" customHeight="1">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="23"/>
+    </row>
+    <row r="59" spans="1:6" ht="21" customHeight="1">
+      <c r="A59" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="1:6" ht="21" customHeight="1">
+      <c r="A60" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D60" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E60" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="23"/>
-    </row>
-    <row r="54" spans="1:6" ht="21" customHeight="1">
-      <c r="A54" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A55" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A56" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A57" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A58" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A59" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A60" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="F60" s="12"/>
+      <c r="F60" s="23"/>
     </row>
     <row r="61" spans="1:6" ht="21" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="E61" s="26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="21" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A62" s="26" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="26"/>
+      <c r="D62" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E62" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="21" customHeight="1">
+        <v>192</v>
+      </c>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A63" s="26" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="21" customHeight="1">
-      <c r="A64" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A64" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A65" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29" t="s">
+      <c r="C65" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A66" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="26"/>
+      <c r="E66" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A67" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="1:6" ht="21" customHeight="1">
+      <c r="A68" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="21" customHeight="1">
+      <c r="A69" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="21" customHeight="1">
+      <c r="A70" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="21" customHeight="1">
+      <c r="A71" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="21" customHeight="1">
-      <c r="A65" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="F65" s="30"/>
-    </row>
-    <row r="67" spans="1:6" ht="21" customHeight="1">
-      <c r="A67" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" ht="21" customHeight="1">
-      <c r="A68" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="21" customHeight="1">
-      <c r="A69" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A70" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A71" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" s="12"/>
-    </row>
     <row r="72" spans="1:6" ht="21" customHeight="1">
-      <c r="A72" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="21" customHeight="1">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
+      <c r="A72" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F72" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="21" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2740,7 +2790,7 @@
         <v>8</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>10</v>
@@ -2749,9 +2799,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="21" customHeight="1">
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A77" s="13" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>8</v>
@@ -2763,690 +2813,691 @@
         <v>15</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A78" s="13" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="1:6" ht="21" customHeight="1">
       <c r="A79" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>21</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="21" customHeight="1">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="1:6" ht="21" customHeight="1">
+      <c r="A81" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" ht="21" customHeight="1">
+      <c r="A82" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="21" customHeight="1">
+      <c r="A83" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="21" customHeight="1">
+      <c r="A84" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A85" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A86" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="1:6" ht="21" customHeight="1">
+      <c r="A87" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="21" customHeight="1">
+      <c r="A88" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="1:6" ht="21" customHeight="1">
-      <c r="A80" s="13" t="s">
+      <c r="B88" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="21" customHeight="1">
-      <c r="A81" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="21" customHeight="1">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-    </row>
-    <row r="83" spans="1:6" ht="21" customHeight="1">
-      <c r="A83" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-    </row>
-    <row r="84" spans="1:6" ht="21" customHeight="1">
-      <c r="A84" s="21" t="s">
+    </row>
+    <row r="89" spans="1:6" ht="21" customHeight="1">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="1:6" ht="21" customHeight="1">
+      <c r="A90" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+    </row>
+    <row r="91" spans="1:6" ht="21" customHeight="1">
+      <c r="A91" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B91" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C91" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D91" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E91" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="21" customHeight="1">
-      <c r="A85" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="22" t="s">
+    <row r="92" spans="1:6" ht="21" customHeight="1">
+      <c r="A92" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C92" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D92" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E92" s="22" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="21" customHeight="1">
-      <c r="A86" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F86" s="19"/>
-    </row>
-    <row r="87" spans="1:6" ht="21" customHeight="1">
-      <c r="A87" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F87" s="19"/>
-    </row>
-    <row r="88" spans="1:6" ht="21" customHeight="1">
-      <c r="A88" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F88" s="19"/>
-    </row>
-    <row r="89" spans="1:6" ht="21" customHeight="1">
-      <c r="A89" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F89" s="19"/>
-    </row>
-    <row r="90" spans="1:6" ht="21" customHeight="1">
-      <c r="A90" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="F90" s="19"/>
-    </row>
-    <row r="91" spans="1:6" ht="21" customHeight="1">
-      <c r="A91" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="21" customHeight="1">
-      <c r="A92" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="21" customHeight="1">
       <c r="A93" s="22" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="D93" s="22"/>
       <c r="E93" s="22" t="s">
-        <v>187</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:6" ht="21" customHeight="1">
       <c r="A94" s="22" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
       <c r="E94" s="22" t="s">
-        <v>189</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F94" s="19"/>
     </row>
     <row r="95" spans="1:6" ht="21" customHeight="1">
       <c r="A95" s="22" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
       <c r="E95" s="22" t="s">
-        <v>190</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F95" s="19"/>
     </row>
     <row r="96" spans="1:6" ht="21" customHeight="1">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
+      <c r="A96" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F96" s="19"/>
+    </row>
+    <row r="97" spans="1:6" ht="21" customHeight="1">
+      <c r="A97" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F97" s="19"/>
     </row>
     <row r="98" spans="1:6" ht="21" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A99" s="11" t="s">
+      <c r="A98" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="21" customHeight="1">
+      <c r="A99" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="21" customHeight="1">
+      <c r="A100" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="21" customHeight="1">
+      <c r="A101" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="21" customHeight="1">
+      <c r="A102" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="21" customHeight="1">
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+    </row>
+    <row r="105" spans="1:6" ht="21" customHeight="1">
+      <c r="A105" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A106" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B106" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C106" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D106" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E106" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A100" s="13" t="s">
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A107" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B107" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C107" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D107" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="E107" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="12"/>
-    </row>
-    <row r="101" spans="1:6" ht="21" customHeight="1">
-      <c r="A101" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="21" customHeight="1">
-      <c r="A102" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="21" customHeight="1">
-      <c r="A103" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="21" customHeight="1">
-      <c r="A104" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="21" customHeight="1">
-      <c r="A105" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="21" customHeight="1">
-      <c r="A106" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="21" customHeight="1">
-      <c r="A107" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B107" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="F107" s="12"/>
     </row>
     <row r="108" spans="1:6" ht="21" customHeight="1">
       <c r="A108" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B108" s="32" t="s">
-        <v>165</v>
+        <v>88</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D108" s="13"/>
+      <c r="D108" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E108" s="13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="21" customHeight="1">
-      <c r="A109" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>165</v>
+      <c r="A109" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D109" s="13"/>
-      <c r="E109" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="F109" s="30"/>
+      <c r="D109" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="110" spans="1:6" ht="21" customHeight="1">
-      <c r="A110" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>239</v>
+      <c r="A110" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D110" s="13"/>
+      <c r="D110" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E110" s="13" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="21" customHeight="1">
-      <c r="A111" s="34"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="17"/>
-      <c r="F111" s="30"/>
-    </row>
-    <row r="112" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A112" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F112" s="10"/>
-    </row>
-    <row r="113" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A113" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" s="12"/>
+      <c r="A111" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="21" customHeight="1">
+      <c r="A112" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="21" customHeight="1">
+      <c r="A113" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="114" spans="1:6" ht="21" customHeight="1">
       <c r="A114" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>161</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D114" s="13"/>
       <c r="E114" s="13" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="21" customHeight="1">
       <c r="A115" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>8</v>
+        <v>84</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>161</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D115" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="D115" s="13"/>
       <c r="E115" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="21" customHeight="1">
-      <c r="A116" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>8</v>
+      <c r="A116" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>161</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D116" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="D116" s="13"/>
+      <c r="E116" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" s="30"/>
     </row>
     <row r="117" spans="1:6" ht="21" customHeight="1">
-      <c r="A117" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>8</v>
+      <c r="A117" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D117" s="13" t="s">
+      <c r="D117" s="13"/>
+      <c r="E117" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="21" customHeight="1">
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="17"/>
+      <c r="F118" s="30"/>
+    </row>
+    <row r="119" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A119" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A120" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" s="12"/>
+    </row>
+    <row r="121" spans="1:6" ht="21" customHeight="1">
+      <c r="A121" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="21" customHeight="1">
+      <c r="A122" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E117" s="13" t="s">
+      <c r="E122" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="21" customHeight="1">
+      <c r="A123" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="21" customHeight="1">
+      <c r="A124" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="13" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="21" customHeight="1">
-      <c r="A118" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="21" customHeight="1">
-      <c r="A119" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A120" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B120" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F120" s="9"/>
-    </row>
-    <row r="121" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A121" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B121" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F121" s="10"/>
-    </row>
-    <row r="122" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="12"/>
-    </row>
-    <row r="123" spans="1:6" ht="21" customHeight="1">
-      <c r="A123" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="1:6" ht="21" customHeight="1">
-      <c r="A124" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="21" customHeight="1">
       <c r="A125" s="13" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="21" customHeight="1">
       <c r="A126" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B126" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="13" t="s">
@@ -3456,456 +3507,229 @@
         <v>15</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="21" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A127" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>21</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
+        <v>106</v>
+      </c>
+      <c r="F127" s="9"/>
+    </row>
+    <row r="128" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A128" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>21</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F128" s="9"/>
-    </row>
-    <row r="129" spans="1:43" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A129" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B129" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F129" s="10"/>
-    </row>
-    <row r="130" spans="1:43" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A130" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F128" s="10"/>
+    </row>
+    <row r="129" spans="1:43" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="12"/>
+    </row>
+    <row r="130" spans="1:43" ht="21" customHeight="1">
+      <c r="A130" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B130" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F130" s="12"/>
+      <c r="B130" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:43" ht="21" customHeight="1">
+      <c r="A131" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="132" spans="1:43" ht="21" customHeight="1">
-      <c r="A132" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="A132" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="133" spans="1:43" ht="21" customHeight="1">
-      <c r="A133" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>6</v>
+      <c r="A133" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:43" ht="21" customHeight="1">
       <c r="A134" s="13" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D134" s="13"/>
       <c r="E134" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:43" ht="21" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="1:43" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A135" s="13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="136" spans="1:43" ht="21" customHeight="1">
+        <v>114</v>
+      </c>
+      <c r="F135" s="9"/>
+    </row>
+    <row r="136" spans="1:43" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A136" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>21</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="137" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>115</v>
+      </c>
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="1:43" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A137" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>21</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F137" s="10"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1"/>
-      <c r="T137" s="1"/>
-      <c r="U137" s="1"/>
-      <c r="V137" s="1"/>
-      <c r="W137" s="1"/>
-      <c r="X137" s="1"/>
-      <c r="Y137" s="1"/>
-      <c r="Z137" s="1"/>
-      <c r="AA137" s="1"/>
-      <c r="AB137" s="1"/>
-      <c r="AC137" s="1"/>
-      <c r="AD137" s="1"/>
-      <c r="AE137" s="1"/>
-      <c r="AF137" s="1"/>
-      <c r="AG137" s="1"/>
-      <c r="AH137" s="1"/>
-      <c r="AI137" s="1"/>
-      <c r="AJ137" s="1"/>
-      <c r="AK137" s="1"/>
-      <c r="AL137" s="1"/>
-      <c r="AM137" s="1"/>
-      <c r="AN137" s="1"/>
-      <c r="AO137" s="1"/>
-      <c r="AP137" s="1"/>
-      <c r="AQ137" s="1"/>
-    </row>
-    <row r="138" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A138" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B138" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F137" s="12"/>
+    </row>
+    <row r="139" spans="1:43" ht="21" customHeight="1">
+      <c r="A139" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:43" ht="21" customHeight="1">
+      <c r="A140" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:43" ht="21" customHeight="1">
+      <c r="A141" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F138" s="10"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
-      <c r="R138" s="1"/>
-      <c r="S138" s="1"/>
-      <c r="T138" s="1"/>
-      <c r="U138" s="1"/>
-      <c r="V138" s="1"/>
-      <c r="W138" s="1"/>
-      <c r="X138" s="1"/>
-      <c r="Y138" s="1"/>
-      <c r="Z138" s="1"/>
-      <c r="AA138" s="1"/>
-      <c r="AB138" s="1"/>
-      <c r="AC138" s="1"/>
-      <c r="AD138" s="1"/>
-      <c r="AE138" s="1"/>
-      <c r="AF138" s="1"/>
-      <c r="AG138" s="1"/>
-      <c r="AH138" s="1"/>
-      <c r="AI138" s="1"/>
-      <c r="AJ138" s="1"/>
-      <c r="AK138" s="1"/>
-      <c r="AL138" s="1"/>
-      <c r="AM138" s="1"/>
-      <c r="AN138" s="1"/>
-      <c r="AO138" s="1"/>
-      <c r="AP138" s="1"/>
-      <c r="AQ138" s="1"/>
-    </row>
-    <row r="139" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2"/>
-      <c r="V139" s="2"/>
-      <c r="W139" s="2"/>
-      <c r="X139" s="2"/>
-      <c r="Y139" s="2"/>
-      <c r="Z139" s="2"/>
-      <c r="AA139" s="2"/>
-      <c r="AB139" s="2"/>
-      <c r="AC139" s="2"/>
-      <c r="AD139" s="2"/>
-      <c r="AE139" s="2"/>
-      <c r="AF139" s="2"/>
-      <c r="AG139" s="2"/>
-      <c r="AH139" s="2"/>
-      <c r="AI139" s="2"/>
-      <c r="AJ139" s="2"/>
-      <c r="AK139" s="2"/>
-      <c r="AL139" s="2"/>
-      <c r="AM139" s="2"/>
-      <c r="AN139" s="2"/>
-      <c r="AO139" s="2"/>
-      <c r="AP139" s="2"/>
-      <c r="AQ139" s="2"/>
-    </row>
-    <row r="140" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A140" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
-      <c r="M140" s="3"/>
-      <c r="N140" s="3"/>
-      <c r="O140" s="3"/>
-      <c r="P140" s="3"/>
-      <c r="Q140" s="3"/>
-      <c r="R140" s="3"/>
-      <c r="S140" s="3"/>
-      <c r="T140" s="3"/>
-      <c r="U140" s="3"/>
-      <c r="V140" s="3"/>
-      <c r="W140" s="3"/>
-      <c r="X140" s="3"/>
-      <c r="Y140" s="3"/>
-      <c r="Z140" s="3"/>
-      <c r="AA140" s="3"/>
-      <c r="AB140" s="3"/>
-      <c r="AC140" s="3"/>
-      <c r="AD140" s="3"/>
-      <c r="AE140" s="3"/>
-      <c r="AF140" s="3"/>
-      <c r="AG140" s="3"/>
-      <c r="AH140" s="3"/>
-      <c r="AI140" s="3"/>
-      <c r="AJ140" s="3"/>
-      <c r="AK140" s="3"/>
-      <c r="AL140" s="3"/>
-      <c r="AM140" s="3"/>
-      <c r="AN140" s="3"/>
-      <c r="AO140" s="3"/>
-      <c r="AP140" s="3"/>
-      <c r="AQ140" s="3"/>
-    </row>
-    <row r="141" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A141" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F141" s="27"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
-      <c r="M141" s="3"/>
-      <c r="N141" s="3"/>
-      <c r="O141" s="3"/>
-      <c r="P141" s="3"/>
-      <c r="Q141" s="3"/>
-      <c r="R141" s="3"/>
-      <c r="S141" s="3"/>
-      <c r="T141" s="3"/>
-      <c r="U141" s="3"/>
-      <c r="V141" s="3"/>
-      <c r="W141" s="3"/>
-      <c r="X141" s="3"/>
-      <c r="Y141" s="3"/>
-      <c r="Z141" s="3"/>
-      <c r="AA141" s="3"/>
-      <c r="AB141" s="3"/>
-      <c r="AC141" s="3"/>
-      <c r="AD141" s="3"/>
-      <c r="AE141" s="3"/>
-      <c r="AF141" s="3"/>
-      <c r="AG141" s="3"/>
-      <c r="AH141" s="3"/>
-      <c r="AI141" s="3"/>
-      <c r="AJ141" s="3"/>
-      <c r="AK141" s="3"/>
-      <c r="AL141" s="3"/>
-      <c r="AM141" s="3"/>
-      <c r="AN141" s="3"/>
-      <c r="AO141" s="3"/>
-      <c r="AP141" s="3"/>
-      <c r="AQ141" s="3"/>
-    </row>
-    <row r="142" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="C141" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:43" ht="21" customHeight="1">
       <c r="A142" s="13" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D142" s="13"/>
       <c r="E142" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="27"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3"/>
-      <c r="M142" s="3"/>
-      <c r="N142" s="3"/>
-      <c r="O142" s="3"/>
-      <c r="P142" s="3"/>
-      <c r="Q142" s="3"/>
-      <c r="R142" s="3"/>
-      <c r="S142" s="3"/>
-      <c r="T142" s="3"/>
-      <c r="U142" s="3"/>
-      <c r="V142" s="3"/>
-      <c r="W142" s="3"/>
-      <c r="X142" s="3"/>
-      <c r="Y142" s="3"/>
-      <c r="Z142" s="3"/>
-      <c r="AA142" s="3"/>
-      <c r="AB142" s="3"/>
-      <c r="AC142" s="3"/>
-      <c r="AD142" s="3"/>
-      <c r="AE142" s="3"/>
-      <c r="AF142" s="3"/>
-      <c r="AG142" s="3"/>
-      <c r="AH142" s="3"/>
-      <c r="AI142" s="3"/>
-      <c r="AJ142" s="3"/>
-      <c r="AK142" s="3"/>
-      <c r="AL142" s="3"/>
-      <c r="AM142" s="3"/>
-      <c r="AN142" s="3"/>
-      <c r="AO142" s="3"/>
-      <c r="AP142" s="3"/>
-      <c r="AQ142" s="3"/>
-    </row>
-    <row r="143" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:43" ht="21" customHeight="1">
       <c r="A143" s="13" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>8</v>
@@ -3913,216 +3737,172 @@
       <c r="C143" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D143" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="D143" s="13"/>
       <c r="E143" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F143" s="27"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
-      <c r="L143" s="3"/>
-      <c r="M143" s="3"/>
-      <c r="N143" s="3"/>
-      <c r="O143" s="3"/>
-      <c r="P143" s="3"/>
-      <c r="Q143" s="3"/>
-      <c r="R143" s="3"/>
-      <c r="S143" s="3"/>
-      <c r="T143" s="3"/>
-      <c r="U143" s="3"/>
-      <c r="V143" s="3"/>
-      <c r="W143" s="3"/>
-      <c r="X143" s="3"/>
-      <c r="Y143" s="3"/>
-      <c r="Z143" s="3"/>
-      <c r="AA143" s="3"/>
-      <c r="AB143" s="3"/>
-      <c r="AC143" s="3"/>
-      <c r="AD143" s="3"/>
-      <c r="AE143" s="3"/>
-      <c r="AF143" s="3"/>
-      <c r="AG143" s="3"/>
-      <c r="AH143" s="3"/>
-      <c r="AI143" s="3"/>
-      <c r="AJ143" s="3"/>
-      <c r="AK143" s="3"/>
-      <c r="AL143" s="3"/>
-      <c r="AM143" s="3"/>
-      <c r="AN143" s="3"/>
-      <c r="AO143" s="3"/>
-      <c r="AP143" s="3"/>
-      <c r="AQ143" s="3"/>
-    </row>
-    <row r="144" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A144" s="13" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D144" s="13"/>
       <c r="E144" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F144" s="27"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
-      <c r="M144" s="3"/>
-      <c r="N144" s="3"/>
-      <c r="O144" s="3"/>
-      <c r="P144" s="3"/>
-      <c r="Q144" s="3"/>
-      <c r="R144" s="3"/>
-      <c r="S144" s="3"/>
-      <c r="T144" s="3"/>
-      <c r="U144" s="3"/>
-      <c r="V144" s="3"/>
-      <c r="W144" s="3"/>
-      <c r="X144" s="3"/>
-      <c r="Y144" s="3"/>
-      <c r="Z144" s="3"/>
-      <c r="AA144" s="3"/>
-      <c r="AB144" s="3"/>
-      <c r="AC144" s="3"/>
-      <c r="AD144" s="3"/>
-      <c r="AE144" s="3"/>
-      <c r="AF144" s="3"/>
-      <c r="AG144" s="3"/>
-      <c r="AH144" s="3"/>
-      <c r="AI144" s="3"/>
-      <c r="AJ144" s="3"/>
-      <c r="AK144" s="3"/>
-      <c r="AL144" s="3"/>
-      <c r="AM144" s="3"/>
-      <c r="AN144" s="3"/>
-      <c r="AO144" s="3"/>
-      <c r="AP144" s="3"/>
-      <c r="AQ144" s="3"/>
-    </row>
-    <row r="145" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+        <v>123</v>
+      </c>
+      <c r="F144" s="10"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+      <c r="Y144" s="1"/>
+      <c r="Z144" s="1"/>
+      <c r="AA144" s="1"/>
+      <c r="AB144" s="1"/>
+      <c r="AC144" s="1"/>
+      <c r="AD144" s="1"/>
+      <c r="AE144" s="1"/>
+      <c r="AF144" s="1"/>
+      <c r="AG144" s="1"/>
+      <c r="AH144" s="1"/>
+      <c r="AI144" s="1"/>
+      <c r="AJ144" s="1"/>
+      <c r="AK144" s="1"/>
+      <c r="AL144" s="1"/>
+      <c r="AM144" s="1"/>
+      <c r="AN144" s="1"/>
+      <c r="AO144" s="1"/>
+      <c r="AP144" s="1"/>
+      <c r="AQ144" s="1"/>
+    </row>
+    <row r="145" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A145" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B145" s="32" t="s">
-        <v>165</v>
+        <v>124</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D145" s="13"/>
       <c r="E145" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F145" s="10"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+      <c r="Y145" s="1"/>
+      <c r="Z145" s="1"/>
+      <c r="AA145" s="1"/>
+      <c r="AB145" s="1"/>
+      <c r="AC145" s="1"/>
+      <c r="AD145" s="1"/>
+      <c r="AE145" s="1"/>
+      <c r="AF145" s="1"/>
+      <c r="AG145" s="1"/>
+      <c r="AH145" s="1"/>
+      <c r="AI145" s="1"/>
+      <c r="AJ145" s="1"/>
+      <c r="AK145" s="1"/>
+      <c r="AL145" s="1"/>
+      <c r="AM145" s="1"/>
+      <c r="AN145" s="1"/>
+      <c r="AO145" s="1"/>
+      <c r="AP145" s="1"/>
+      <c r="AQ145" s="1"/>
+    </row>
+    <row r="146" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2"/>
+      <c r="V146" s="2"/>
+      <c r="W146" s="2"/>
+      <c r="X146" s="2"/>
+      <c r="Y146" s="2"/>
+      <c r="Z146" s="2"/>
+      <c r="AA146" s="2"/>
+      <c r="AB146" s="2"/>
+      <c r="AC146" s="2"/>
+      <c r="AD146" s="2"/>
+      <c r="AE146" s="2"/>
+      <c r="AF146" s="2"/>
+      <c r="AG146" s="2"/>
+      <c r="AH146" s="2"/>
+      <c r="AI146" s="2"/>
+      <c r="AJ146" s="2"/>
+      <c r="AK146" s="2"/>
+      <c r="AL146" s="2"/>
+      <c r="AM146" s="2"/>
+      <c r="AN146" s="2"/>
+      <c r="AO146" s="2"/>
+      <c r="AP146" s="2"/>
+      <c r="AQ146" s="2"/>
+    </row>
+    <row r="147" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A147" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F145" s="27"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
-      <c r="N145" s="3"/>
-      <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
-      <c r="Q145" s="3"/>
-      <c r="R145" s="3"/>
-      <c r="S145" s="3"/>
-      <c r="T145" s="3"/>
-      <c r="U145" s="3"/>
-      <c r="V145" s="3"/>
-      <c r="W145" s="3"/>
-      <c r="X145" s="3"/>
-      <c r="Y145" s="3"/>
-      <c r="Z145" s="3"/>
-      <c r="AA145" s="3"/>
-      <c r="AB145" s="3"/>
-      <c r="AC145" s="3"/>
-      <c r="AD145" s="3"/>
-      <c r="AE145" s="3"/>
-      <c r="AF145" s="3"/>
-      <c r="AG145" s="3"/>
-      <c r="AH145" s="3"/>
-      <c r="AI145" s="3"/>
-      <c r="AJ145" s="3"/>
-      <c r="AK145" s="3"/>
-      <c r="AL145" s="3"/>
-      <c r="AM145" s="3"/>
-      <c r="AN145" s="3"/>
-      <c r="AO145" s="3"/>
-      <c r="AP145" s="3"/>
-      <c r="AQ145" s="3"/>
-    </row>
-    <row r="146" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A146" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F146" s="27"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
-      <c r="M146" s="3"/>
-      <c r="N146" s="3"/>
-      <c r="O146" s="3"/>
-      <c r="P146" s="3"/>
-      <c r="Q146" s="3"/>
-      <c r="R146" s="3"/>
-      <c r="S146" s="3"/>
-      <c r="T146" s="3"/>
-      <c r="U146" s="3"/>
-      <c r="V146" s="3"/>
-      <c r="W146" s="3"/>
-      <c r="X146" s="3"/>
-      <c r="Y146" s="3"/>
-      <c r="Z146" s="3"/>
-      <c r="AA146" s="3"/>
-      <c r="AB146" s="3"/>
-      <c r="AC146" s="3"/>
-      <c r="AD146" s="3"/>
-      <c r="AE146" s="3"/>
-      <c r="AF146" s="3"/>
-      <c r="AG146" s="3"/>
-      <c r="AH146" s="3"/>
-      <c r="AI146" s="3"/>
-      <c r="AJ146" s="3"/>
-      <c r="AK146" s="3"/>
-      <c r="AL146" s="3"/>
-      <c r="AM146" s="3"/>
-      <c r="AN146" s="3"/>
-      <c r="AO146" s="3"/>
-      <c r="AP146" s="3"/>
-      <c r="AQ146" s="3"/>
-    </row>
-    <row r="147" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A147" s="17"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
       <c r="F147" s="27"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -4163,15 +3943,21 @@
       <c r="AQ147" s="3"/>
     </row>
     <row r="148" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A148" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B148" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
+      <c r="A148" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="F148" s="27"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -4212,20 +3998,20 @@
       <c r="AQ148" s="3"/>
     </row>
     <row r="149" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A149" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" s="18" t="s">
-        <v>6</v>
+      <c r="A149" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="F149" s="27"/>
       <c r="G149" s="3"/>
@@ -4267,20 +4053,20 @@
       <c r="AQ149" s="3"/>
     </row>
     <row r="150" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A150" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B150" s="31" t="s">
+      <c r="A150" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="31" t="s">
-        <v>11</v>
+      <c r="C150" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="F150" s="27"/>
       <c r="G150" s="3"/>
@@ -4322,20 +4108,18 @@
       <c r="AQ150" s="3"/>
     </row>
     <row r="151" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A151" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="B151" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C151" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D151" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151" s="31" t="s">
-        <v>224</v>
+      <c r="A151" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="F151" s="27"/>
       <c r="G151" s="3"/>
@@ -4377,20 +4161,18 @@
       <c r="AQ151" s="3"/>
     </row>
     <row r="152" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A152" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B152" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C152" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152" s="31" t="s">
-        <v>225</v>
+      <c r="A152" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="F152" s="27"/>
       <c r="G152" s="3"/>
@@ -4432,18 +4214,18 @@
       <c r="AQ152" s="3"/>
     </row>
     <row r="153" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A153" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B153" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C153" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31" t="s">
-        <v>226</v>
+      <c r="A153" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="F153" s="27"/>
       <c r="G153" s="3"/>
@@ -4485,21 +4267,11 @@
       <c r="AQ153" s="3"/>
     </row>
     <row r="154" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A154" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="B154" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C154" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D154" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154" s="31" t="s">
-        <v>228</v>
-      </c>
+      <c r="A154" s="17"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
       <c r="F154" s="27"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -4540,19 +4312,15 @@
       <c r="AQ154" s="3"/>
     </row>
     <row r="155" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A155" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B155" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C155" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D155" s="31"/>
-      <c r="E155" s="31" t="s">
-        <v>230</v>
-      </c>
+      <c r="A155" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B155" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
       <c r="F155" s="27"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -4593,18 +4361,20 @@
       <c r="AQ155" s="3"/>
     </row>
     <row r="156" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A156" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B156" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C156" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D156" s="31"/>
-      <c r="E156" s="31" t="s">
-        <v>48</v>
+      <c r="A156" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="F156" s="27"/>
       <c r="G156" s="3"/>
@@ -4647,17 +4417,19 @@
     </row>
     <row r="157" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A157" s="31" t="s">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D157" s="31"/>
+        <v>9</v>
+      </c>
+      <c r="D157" s="31" t="s">
+        <v>10</v>
+      </c>
       <c r="E157" s="31" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="F157" s="27"/>
       <c r="G157" s="3"/>
@@ -4700,17 +4472,19 @@
     </row>
     <row r="158" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A158" s="31" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C158" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D158" s="31"/>
+      <c r="D158" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="E158" s="31" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F158" s="27"/>
       <c r="G158" s="3"/>
@@ -4752,11 +4526,21 @@
       <c r="AQ158" s="3"/>
     </row>
     <row r="159" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
+      <c r="A159" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" s="31" t="s">
+        <v>219</v>
+      </c>
       <c r="F159" s="27"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -4797,18 +4581,20 @@
       <c r="AQ159" s="3"/>
     </row>
     <row r="160" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A160" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="B160" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C160" s="35"/>
-      <c r="D160" s="35"/>
-      <c r="E160" s="35"/>
-      <c r="F160" s="38" t="s">
-        <v>251</v>
-      </c>
+      <c r="A160" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="F160" s="27"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -4847,131 +4633,127 @@
       <c r="AP160" s="3"/>
       <c r="AQ160" s="3"/>
     </row>
-    <row r="161" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A161" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E161" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F161" s="10"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1"/>
-      <c r="T161" s="1"/>
-      <c r="U161" s="1"/>
-      <c r="V161" s="1"/>
-      <c r="W161" s="1"/>
-      <c r="X161" s="1"/>
-      <c r="Y161" s="1"/>
-      <c r="Z161" s="1"/>
-      <c r="AA161" s="1"/>
-      <c r="AB161" s="1"/>
-      <c r="AC161" s="1"/>
-      <c r="AD161" s="1"/>
-      <c r="AE161" s="1"/>
-      <c r="AF161" s="1"/>
-      <c r="AG161" s="1"/>
-      <c r="AH161" s="1"/>
-      <c r="AI161" s="1"/>
-      <c r="AJ161" s="1"/>
-      <c r="AK161" s="1"/>
-      <c r="AL161" s="1"/>
-      <c r="AM161" s="1"/>
-      <c r="AN161" s="1"/>
-      <c r="AO161" s="1"/>
-      <c r="AP161" s="1"/>
-      <c r="AQ161" s="1"/>
-    </row>
-    <row r="162" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A162" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="12"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2"/>
-      <c r="V162" s="2"/>
-      <c r="W162" s="2"/>
-      <c r="X162" s="2"/>
-      <c r="Y162" s="2"/>
-      <c r="Z162" s="2"/>
-      <c r="AA162" s="2"/>
-      <c r="AB162" s="2"/>
-      <c r="AC162" s="2"/>
-      <c r="AD162" s="2"/>
-      <c r="AE162" s="2"/>
-      <c r="AF162" s="2"/>
-      <c r="AG162" s="2"/>
-      <c r="AH162" s="2"/>
-      <c r="AI162" s="2"/>
-      <c r="AJ162" s="2"/>
-      <c r="AK162" s="2"/>
-      <c r="AL162" s="2"/>
-      <c r="AM162" s="2"/>
-      <c r="AN162" s="2"/>
-      <c r="AO162" s="2"/>
-      <c r="AP162" s="2"/>
-      <c r="AQ162" s="2"/>
+    <row r="161" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A161" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F161" s="27"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="3"/>
+      <c r="Z161" s="3"/>
+      <c r="AA161" s="3"/>
+      <c r="AB161" s="3"/>
+      <c r="AC161" s="3"/>
+      <c r="AD161" s="3"/>
+      <c r="AE161" s="3"/>
+      <c r="AF161" s="3"/>
+      <c r="AG161" s="3"/>
+      <c r="AH161" s="3"/>
+      <c r="AI161" s="3"/>
+      <c r="AJ161" s="3"/>
+      <c r="AK161" s="3"/>
+      <c r="AL161" s="3"/>
+      <c r="AM161" s="3"/>
+      <c r="AN161" s="3"/>
+      <c r="AO161" s="3"/>
+      <c r="AP161" s="3"/>
+      <c r="AQ161" s="3"/>
+    </row>
+    <row r="162" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A162" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C162" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="31"/>
+      <c r="E162" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F162" s="27"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3"/>
+      <c r="U162" s="3"/>
+      <c r="V162" s="3"/>
+      <c r="W162" s="3"/>
+      <c r="X162" s="3"/>
+      <c r="Y162" s="3"/>
+      <c r="Z162" s="3"/>
+      <c r="AA162" s="3"/>
+      <c r="AB162" s="3"/>
+      <c r="AC162" s="3"/>
+      <c r="AD162" s="3"/>
+      <c r="AE162" s="3"/>
+      <c r="AF162" s="3"/>
+      <c r="AG162" s="3"/>
+      <c r="AH162" s="3"/>
+      <c r="AI162" s="3"/>
+      <c r="AJ162" s="3"/>
+      <c r="AK162" s="3"/>
+      <c r="AL162" s="3"/>
+      <c r="AM162" s="3"/>
+      <c r="AN162" s="3"/>
+      <c r="AO162" s="3"/>
+      <c r="AP162" s="3"/>
+      <c r="AQ162" s="3"/>
     </row>
     <row r="163" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A163" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B163" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="37" t="s">
+      <c r="A163" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B163" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D163" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" s="37" t="s">
-        <v>246</v>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="F163" s="27"/>
       <c r="G163" s="3"/>
@@ -5013,18 +4795,18 @@
       <c r="AQ163" s="3"/>
     </row>
     <row r="164" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A164" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B164" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C164" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37" t="s">
-        <v>247</v>
+      <c r="A164" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C164" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31" t="s">
+        <v>226</v>
       </c>
       <c r="F164" s="27"/>
       <c r="G164" s="3"/>
@@ -5066,18 +4848,18 @@
       <c r="AQ164" s="3"/>
     </row>
     <row r="165" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A165" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="B165" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C165" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" s="37"/>
-      <c r="E165" s="37" t="s">
-        <v>250</v>
+      <c r="A165" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B165" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C165" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31" t="s">
+        <v>227</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="3"/>
@@ -5163,58 +4945,58 @@
       <c r="AP166" s="3"/>
       <c r="AQ166" s="3"/>
     </row>
-    <row r="167" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A167" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="B167" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C167" s="40"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="41"/>
-      <c r="F167" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
-      <c r="T167" s="1"/>
-      <c r="U167" s="1"/>
-      <c r="V167" s="1"/>
-      <c r="W167" s="1"/>
-      <c r="X167" s="1"/>
-      <c r="Y167" s="1"/>
-      <c r="Z167" s="1"/>
-      <c r="AA167" s="1"/>
-      <c r="AB167" s="1"/>
-      <c r="AC167" s="1"/>
-      <c r="AD167" s="1"/>
-      <c r="AE167" s="1"/>
-      <c r="AF167" s="1"/>
-      <c r="AG167" s="1"/>
-      <c r="AH167" s="1"/>
-      <c r="AI167" s="1"/>
-      <c r="AJ167" s="1"/>
-      <c r="AK167" s="1"/>
-      <c r="AL167" s="1"/>
-      <c r="AM167" s="1"/>
-      <c r="AN167" s="1"/>
-      <c r="AO167" s="1"/>
-      <c r="AP167" s="1"/>
-      <c r="AQ167" s="1"/>
-    </row>
-    <row r="168" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
+    <row r="167" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A167" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B167" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C167" s="35"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
+      <c r="Y167" s="3"/>
+      <c r="Z167" s="3"/>
+      <c r="AA167" s="3"/>
+      <c r="AB167" s="3"/>
+      <c r="AC167" s="3"/>
+      <c r="AD167" s="3"/>
+      <c r="AE167" s="3"/>
+      <c r="AF167" s="3"/>
+      <c r="AG167" s="3"/>
+      <c r="AH167" s="3"/>
+      <c r="AI167" s="3"/>
+      <c r="AJ167" s="3"/>
+      <c r="AK167" s="3"/>
+      <c r="AL167" s="3"/>
+      <c r="AM167" s="3"/>
+      <c r="AN167" s="3"/>
+      <c r="AO167" s="3"/>
+      <c r="AP167" s="3"/>
+      <c r="AQ167" s="3"/>
+    </row>
+    <row r="168" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A168" s="36" t="s">
         <v>2</v>
       </c>
@@ -5227,49 +5009,49 @@
       <c r="D168" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E168" s="42" t="s">
+      <c r="E168" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F168" s="44"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2"/>
-      <c r="V168" s="2"/>
-      <c r="W168" s="2"/>
-      <c r="X168" s="2"/>
-      <c r="Y168" s="2"/>
-      <c r="Z168" s="2"/>
-      <c r="AA168" s="2"/>
-      <c r="AB168" s="2"/>
-      <c r="AC168" s="2"/>
-      <c r="AD168" s="2"/>
-      <c r="AE168" s="2"/>
-      <c r="AF168" s="2"/>
-      <c r="AG168" s="2"/>
-      <c r="AH168" s="2"/>
-      <c r="AI168" s="2"/>
-      <c r="AJ168" s="2"/>
-      <c r="AK168" s="2"/>
-      <c r="AL168" s="2"/>
-      <c r="AM168" s="2"/>
-      <c r="AN168" s="2"/>
-      <c r="AO168" s="2"/>
-      <c r="AP168" s="2"/>
-      <c r="AQ168" s="2"/>
-    </row>
-    <row r="169" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="F168" s="10"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="1"/>
+      <c r="W168" s="1"/>
+      <c r="X168" s="1"/>
+      <c r="Y168" s="1"/>
+      <c r="Z168" s="1"/>
+      <c r="AA168" s="1"/>
+      <c r="AB168" s="1"/>
+      <c r="AC168" s="1"/>
+      <c r="AD168" s="1"/>
+      <c r="AE168" s="1"/>
+      <c r="AF168" s="1"/>
+      <c r="AG168" s="1"/>
+      <c r="AH168" s="1"/>
+      <c r="AI168" s="1"/>
+      <c r="AJ168" s="1"/>
+      <c r="AK168" s="1"/>
+      <c r="AL168" s="1"/>
+      <c r="AM168" s="1"/>
+      <c r="AN168" s="1"/>
+      <c r="AO168" s="1"/>
+      <c r="AP168" s="1"/>
+      <c r="AQ168" s="1"/>
+    </row>
+    <row r="169" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
       <c r="A169" s="37" t="s">
         <v>7</v>
       </c>
@@ -5282,51 +5064,51 @@
       <c r="D169" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E169" s="43" t="s">
+      <c r="E169" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F169" s="45"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
-      <c r="L169" s="3"/>
-      <c r="M169" s="3"/>
-      <c r="N169" s="3"/>
-      <c r="O169" s="3"/>
-      <c r="P169" s="3"/>
-      <c r="Q169" s="3"/>
-      <c r="R169" s="3"/>
-      <c r="S169" s="3"/>
-      <c r="T169" s="3"/>
-      <c r="U169" s="3"/>
-      <c r="V169" s="3"/>
-      <c r="W169" s="3"/>
-      <c r="X169" s="3"/>
-      <c r="Y169" s="3"/>
-      <c r="Z169" s="3"/>
-      <c r="AA169" s="3"/>
-      <c r="AB169" s="3"/>
-      <c r="AC169" s="3"/>
-      <c r="AD169" s="3"/>
-      <c r="AE169" s="3"/>
-      <c r="AF169" s="3"/>
-      <c r="AG169" s="3"/>
-      <c r="AH169" s="3"/>
-      <c r="AI169" s="3"/>
-      <c r="AJ169" s="3"/>
-      <c r="AK169" s="3"/>
-      <c r="AL169" s="3"/>
-      <c r="AM169" s="3"/>
-      <c r="AN169" s="3"/>
-      <c r="AO169" s="3"/>
-      <c r="AP169" s="3"/>
-      <c r="AQ169" s="3"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="2"/>
+      <c r="X169" s="2"/>
+      <c r="Y169" s="2"/>
+      <c r="Z169" s="2"/>
+      <c r="AA169" s="2"/>
+      <c r="AB169" s="2"/>
+      <c r="AC169" s="2"/>
+      <c r="AD169" s="2"/>
+      <c r="AE169" s="2"/>
+      <c r="AF169" s="2"/>
+      <c r="AG169" s="2"/>
+      <c r="AH169" s="2"/>
+      <c r="AI169" s="2"/>
+      <c r="AJ169" s="2"/>
+      <c r="AK169" s="2"/>
+      <c r="AL169" s="2"/>
+      <c r="AM169" s="2"/>
+      <c r="AN169" s="2"/>
+      <c r="AO169" s="2"/>
+      <c r="AP169" s="2"/>
+      <c r="AQ169" s="2"/>
     </row>
     <row r="170" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A170" s="37" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="B170" s="37" t="s">
         <v>8</v>
@@ -5337,10 +5119,10 @@
       <c r="D170" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E170" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="F170" s="46"/>
+      <c r="E170" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="F170" s="27"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
@@ -5379,9 +5161,9 @@
       <c r="AP170" s="3"/>
       <c r="AQ170" s="3"/>
     </row>
-    <row r="171" spans="1:43" ht="21" customHeight="1">
+    <row r="171" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A171" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B171" s="37" t="s">
         <v>41</v>
@@ -5390,327 +5172,597 @@
         <v>14</v>
       </c>
       <c r="D171" s="37"/>
-      <c r="E171" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="F171" s="46"/>
-    </row>
-    <row r="172" spans="1:43" ht="21" customHeight="1">
+      <c r="E171" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="F171" s="27"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
+      <c r="Y171" s="3"/>
+      <c r="Z171" s="3"/>
+      <c r="AA171" s="3"/>
+      <c r="AB171" s="3"/>
+      <c r="AC171" s="3"/>
+      <c r="AD171" s="3"/>
+      <c r="AE171" s="3"/>
+      <c r="AF171" s="3"/>
+      <c r="AG171" s="3"/>
+      <c r="AH171" s="3"/>
+      <c r="AI171" s="3"/>
+      <c r="AJ171" s="3"/>
+      <c r="AK171" s="3"/>
+      <c r="AL171" s="3"/>
+      <c r="AM171" s="3"/>
+      <c r="AN171" s="3"/>
+      <c r="AO171" s="3"/>
+      <c r="AP171" s="3"/>
+      <c r="AQ171" s="3"/>
+    </row>
+    <row r="172" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A172" s="37" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C172" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="37"/>
-      <c r="E172" s="43" t="s">
+      <c r="E172" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="F172" s="27"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3"/>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3"/>
+      <c r="U172" s="3"/>
+      <c r="V172" s="3"/>
+      <c r="W172" s="3"/>
+      <c r="X172" s="3"/>
+      <c r="Y172" s="3"/>
+      <c r="Z172" s="3"/>
+      <c r="AA172" s="3"/>
+      <c r="AB172" s="3"/>
+      <c r="AC172" s="3"/>
+      <c r="AD172" s="3"/>
+      <c r="AE172" s="3"/>
+      <c r="AF172" s="3"/>
+      <c r="AG172" s="3"/>
+      <c r="AH172" s="3"/>
+      <c r="AI172" s="3"/>
+      <c r="AJ172" s="3"/>
+      <c r="AK172" s="3"/>
+      <c r="AL172" s="3"/>
+      <c r="AM172" s="3"/>
+      <c r="AN172" s="3"/>
+      <c r="AO172" s="3"/>
+      <c r="AP172" s="3"/>
+      <c r="AQ172" s="3"/>
+    </row>
+    <row r="173" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A173" s="17"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="3"/>
+      <c r="R173" s="3"/>
+      <c r="S173" s="3"/>
+      <c r="T173" s="3"/>
+      <c r="U173" s="3"/>
+      <c r="V173" s="3"/>
+      <c r="W173" s="3"/>
+      <c r="X173" s="3"/>
+      <c r="Y173" s="3"/>
+      <c r="Z173" s="3"/>
+      <c r="AA173" s="3"/>
+      <c r="AB173" s="3"/>
+      <c r="AC173" s="3"/>
+      <c r="AD173" s="3"/>
+      <c r="AE173" s="3"/>
+      <c r="AF173" s="3"/>
+      <c r="AG173" s="3"/>
+      <c r="AH173" s="3"/>
+      <c r="AI173" s="3"/>
+      <c r="AJ173" s="3"/>
+      <c r="AK173" s="3"/>
+      <c r="AL173" s="3"/>
+      <c r="AM173" s="3"/>
+      <c r="AN173" s="3"/>
+      <c r="AO173" s="3"/>
+      <c r="AP173" s="3"/>
+      <c r="AQ173" s="3"/>
+    </row>
+    <row r="174" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A174" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="B174" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C174" s="40"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="41"/>
+      <c r="F174" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174" s="1"/>
+      <c r="U174" s="1"/>
+      <c r="V174" s="1"/>
+      <c r="W174" s="1"/>
+      <c r="X174" s="1"/>
+      <c r="Y174" s="1"/>
+      <c r="Z174" s="1"/>
+      <c r="AA174" s="1"/>
+      <c r="AB174" s="1"/>
+      <c r="AC174" s="1"/>
+      <c r="AD174" s="1"/>
+      <c r="AE174" s="1"/>
+      <c r="AF174" s="1"/>
+      <c r="AG174" s="1"/>
+      <c r="AH174" s="1"/>
+      <c r="AI174" s="1"/>
+      <c r="AJ174" s="1"/>
+      <c r="AK174" s="1"/>
+      <c r="AL174" s="1"/>
+      <c r="AM174" s="1"/>
+      <c r="AN174" s="1"/>
+      <c r="AO174" s="1"/>
+      <c r="AP174" s="1"/>
+      <c r="AQ174" s="1"/>
+    </row>
+    <row r="175" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A175" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" s="44"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2"/>
+      <c r="V175" s="2"/>
+      <c r="W175" s="2"/>
+      <c r="X175" s="2"/>
+      <c r="Y175" s="2"/>
+      <c r="Z175" s="2"/>
+      <c r="AA175" s="2"/>
+      <c r="AB175" s="2"/>
+      <c r="AC175" s="2"/>
+      <c r="AD175" s="2"/>
+      <c r="AE175" s="2"/>
+      <c r="AF175" s="2"/>
+      <c r="AG175" s="2"/>
+      <c r="AH175" s="2"/>
+      <c r="AI175" s="2"/>
+      <c r="AJ175" s="2"/>
+      <c r="AK175" s="2"/>
+      <c r="AL175" s="2"/>
+      <c r="AM175" s="2"/>
+      <c r="AN175" s="2"/>
+      <c r="AO175" s="2"/>
+      <c r="AP175" s="2"/>
+      <c r="AQ175" s="2"/>
+    </row>
+    <row r="176" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A176" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="45"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="3"/>
+      <c r="R176" s="3"/>
+      <c r="S176" s="3"/>
+      <c r="T176" s="3"/>
+      <c r="U176" s="3"/>
+      <c r="V176" s="3"/>
+      <c r="W176" s="3"/>
+      <c r="X176" s="3"/>
+      <c r="Y176" s="3"/>
+      <c r="Z176" s="3"/>
+      <c r="AA176" s="3"/>
+      <c r="AB176" s="3"/>
+      <c r="AC176" s="3"/>
+      <c r="AD176" s="3"/>
+      <c r="AE176" s="3"/>
+      <c r="AF176" s="3"/>
+      <c r="AG176" s="3"/>
+      <c r="AH176" s="3"/>
+      <c r="AI176" s="3"/>
+      <c r="AJ176" s="3"/>
+      <c r="AK176" s="3"/>
+      <c r="AL176" s="3"/>
+      <c r="AM176" s="3"/>
+      <c r="AN176" s="3"/>
+      <c r="AO176" s="3"/>
+      <c r="AP176" s="3"/>
+      <c r="AQ176" s="3"/>
+    </row>
+    <row r="177" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A177" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="F177" s="46"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3"/>
+      <c r="R177" s="3"/>
+      <c r="S177" s="3"/>
+      <c r="T177" s="3"/>
+      <c r="U177" s="3"/>
+      <c r="V177" s="3"/>
+      <c r="W177" s="3"/>
+      <c r="X177" s="3"/>
+      <c r="Y177" s="3"/>
+      <c r="Z177" s="3"/>
+      <c r="AA177" s="3"/>
+      <c r="AB177" s="3"/>
+      <c r="AC177" s="3"/>
+      <c r="AD177" s="3"/>
+      <c r="AE177" s="3"/>
+      <c r="AF177" s="3"/>
+      <c r="AG177" s="3"/>
+      <c r="AH177" s="3"/>
+      <c r="AI177" s="3"/>
+      <c r="AJ177" s="3"/>
+      <c r="AK177" s="3"/>
+      <c r="AL177" s="3"/>
+      <c r="AM177" s="3"/>
+      <c r="AN177" s="3"/>
+      <c r="AO177" s="3"/>
+      <c r="AP177" s="3"/>
+      <c r="AQ177" s="3"/>
+    </row>
+    <row r="178" spans="1:43" ht="21" customHeight="1">
+      <c r="A178" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B178" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C178" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" s="37"/>
+      <c r="E178" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="F178" s="46"/>
+    </row>
+    <row r="179" spans="1:43" ht="21" customHeight="1">
+      <c r="A179" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B179" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C179" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="37"/>
+      <c r="E179" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="F179" s="46"/>
+    </row>
+    <row r="180" spans="1:43" ht="21" customHeight="1">
+      <c r="A180" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B180" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C180" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="37"/>
+      <c r="E180" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F180" s="46"/>
+    </row>
+    <row r="181" spans="1:43" ht="21" customHeight="1">
+      <c r="A181" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="F172" s="46"/>
-    </row>
-    <row r="173" spans="1:43" ht="21" customHeight="1">
-      <c r="A173" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B173" s="37" t="s">
+      <c r="B181" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C181" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" s="37"/>
+      <c r="E181" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="F181" s="46"/>
+    </row>
+    <row r="182" spans="1:43" ht="21" customHeight="1">
+      <c r="A182" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B182" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C182" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="37"/>
+      <c r="E182" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="F182" s="46"/>
+    </row>
+    <row r="183" spans="1:43" ht="21" customHeight="1">
+      <c r="A183" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B183" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C183" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="37"/>
+      <c r="E183" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="C173" s="37" t="s">
+      <c r="F183" s="46"/>
+    </row>
+    <row r="184" spans="1:43" ht="21" customHeight="1">
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
+      <c r="C184" s="39"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="39"/>
+      <c r="F184" s="30"/>
+    </row>
+    <row r="185" spans="1:43" ht="21" customHeight="1">
+      <c r="F185" s="10"/>
+    </row>
+    <row r="186" spans="1:43" ht="21" customHeight="1">
+      <c r="A186" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B186" s="47"/>
+      <c r="C186" s="47"/>
+      <c r="D186" s="47"/>
+      <c r="E186" s="47"/>
+      <c r="F186" s="12"/>
+    </row>
+    <row r="187" spans="1:43" ht="21" customHeight="1">
+      <c r="A187" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="27"/>
+    </row>
+    <row r="188" spans="1:43" ht="21" customHeight="1">
+      <c r="A188" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" s="27"/>
+    </row>
+    <row r="189" spans="1:43" ht="21" customHeight="1">
+      <c r="A189" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:43" ht="21" customHeight="1">
+      <c r="A190" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D173" s="37"/>
-      <c r="E173" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="F173" s="46"/>
-    </row>
-    <row r="174" spans="1:43" ht="21" customHeight="1">
-      <c r="A174" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="B174" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="C174" s="37" t="s">
+      <c r="D190" s="16"/>
+      <c r="E190" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:43" ht="21" customHeight="1">
+      <c r="A191" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C191" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D174" s="37"/>
-      <c r="E174" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="F174" s="46"/>
-    </row>
-    <row r="175" spans="1:43" ht="21" customHeight="1">
-      <c r="A175" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B175" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="C175" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175" s="37"/>
-      <c r="E175" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="F175" s="46"/>
-    </row>
-    <row r="176" spans="1:43" ht="21" customHeight="1">
-      <c r="A176" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="B176" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="C176" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" s="37"/>
-      <c r="E176" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="F176" s="46"/>
-    </row>
-    <row r="177" spans="1:6" ht="21" customHeight="1">
-      <c r="A177" s="39"/>
-      <c r="B177" s="39"/>
-      <c r="C177" s="39"/>
-      <c r="D177" s="39"/>
-      <c r="E177" s="39"/>
-      <c r="F177" s="30"/>
-    </row>
-    <row r="178" spans="1:6" ht="21" customHeight="1">
-      <c r="F178" s="10"/>
-    </row>
-    <row r="179" spans="1:6" ht="21" customHeight="1">
-      <c r="A179" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B179" s="47"/>
-      <c r="C179" s="47"/>
-      <c r="D179" s="47"/>
-      <c r="E179" s="47"/>
-      <c r="F179" s="12"/>
-    </row>
-    <row r="180" spans="1:6" ht="21" customHeight="1">
-      <c r="A180" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="27"/>
-    </row>
-    <row r="181" spans="1:6" ht="21" customHeight="1">
-      <c r="A181" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D181" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E181" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F181" s="27"/>
-    </row>
-    <row r="182" spans="1:6" ht="21" customHeight="1">
-      <c r="A182" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B182" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="21" customHeight="1">
-      <c r="A183" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B183" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D183" s="16"/>
-      <c r="E183" s="16" t="s">
+      <c r="D191" s="16"/>
+      <c r="E191" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="21" customHeight="1">
-      <c r="A184" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B184" s="16" t="s">
+    <row r="192" spans="1:43" ht="21" customHeight="1">
+      <c r="A192" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C184" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D184" s="16"/>
-      <c r="E184" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="21" customHeight="1">
-      <c r="A185" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B185" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D185" s="16"/>
-      <c r="E185" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="21" customHeight="1">
-      <c r="A186" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B186" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D186" s="16"/>
-      <c r="E186" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="21" customHeight="1">
-      <c r="A187" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B187" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C187" s="16"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="21" customHeight="1">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-    </row>
-    <row r="189" spans="1:6" ht="21" customHeight="1">
-      <c r="A189" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-    </row>
-    <row r="190" spans="1:6" ht="21" customHeight="1">
-      <c r="A190" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B190" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D190" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E190" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="21" customHeight="1">
-      <c r="A191" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B191" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="21" customHeight="1">
-      <c r="A192" s="16" t="s">
-        <v>143</v>
-      </c>
       <c r="B192" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C192" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="16"/>
       <c r="E192" s="16" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="21" customHeight="1">
       <c r="A193" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B193" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D193" s="16"/>
       <c r="E193" s="16" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="21" customHeight="1">
       <c r="A194" s="16" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>14</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C194" s="16"/>
       <c r="D194" s="16"/>
       <c r="E194" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="21" customHeight="1">
@@ -5722,10 +5774,10 @@
     </row>
     <row r="196" spans="1:6" ht="21" customHeight="1">
       <c r="A196" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -5750,182 +5802,279 @@
     </row>
     <row r="198" spans="1:6" ht="21" customHeight="1">
       <c r="A198" s="16" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="B198" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D198" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="D198" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="E198" s="16" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="21" customHeight="1">
       <c r="A199" s="16" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D199" s="16"/>
       <c r="E199" s="16" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="21" customHeight="1">
+      <c r="A200" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="21" customHeight="1">
-      <c r="A201" s="40" t="s">
+      <c r="A201" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="16"/>
+      <c r="E201" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="21" customHeight="1">
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8"/>
+    </row>
+    <row r="203" spans="1:6" ht="21" customHeight="1">
+      <c r="A203" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+    </row>
+    <row r="204" spans="1:6" ht="21" customHeight="1">
+      <c r="A204" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="21" customHeight="1">
+      <c r="A205" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D205" s="16"/>
+      <c r="E205" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="21" customHeight="1">
+      <c r="A206" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="21" customHeight="1">
+      <c r="A208" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="B208" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C208" s="40"/>
+      <c r="D208" s="40"/>
+      <c r="E208" s="40"/>
+      <c r="F208" s="39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="21" customHeight="1">
+      <c r="A209" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="21" customHeight="1">
+      <c r="A210" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D210" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="21" customHeight="1">
+      <c r="A211" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="B211" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C211" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D211" s="37"/>
+      <c r="E211" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="F211" s="39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="21" customHeight="1">
+      <c r="A212" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="B212" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C212" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D212" s="37"/>
+      <c r="E212" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="F212" s="39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="21" customHeight="1">
+      <c r="A213" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B213" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C213" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="D213" s="37"/>
+      <c r="E213" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="21" customHeight="1">
+      <c r="A214" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="B214" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="D214" s="37"/>
+      <c r="E214" s="37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="21" customHeight="1">
+      <c r="A215" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B215" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C215" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="B201" s="40" t="s">
+      <c r="D215" s="37"/>
+      <c r="E215" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="C201" s="40"/>
-      <c r="D201" s="40"/>
-      <c r="E201" s="40"/>
-      <c r="F201" s="39" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="21" customHeight="1">
-      <c r="A202" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B202" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C202" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D202" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E202" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="21" customHeight="1">
-      <c r="A203" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B203" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D203" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E203" s="37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="21" customHeight="1">
-      <c r="A204" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="B204" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="C204" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D204" s="37"/>
-      <c r="E204" s="37" t="s">
+    </row>
+    <row r="216" spans="1:6" ht="21" customHeight="1">
+      <c r="A216" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="F204" s="39" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="21" customHeight="1">
-      <c r="A205" s="37" t="s">
+      <c r="B216" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="B205" s="37" t="s">
+      <c r="C216" s="37"/>
+      <c r="D216" s="37"/>
+      <c r="E216" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="C205" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D205" s="37"/>
-      <c r="E205" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="F205" s="39" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="21" customHeight="1">
-      <c r="A206" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="B206" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="C206" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D206" s="37"/>
-      <c r="E206" s="37" t="s">
+      <c r="F216" s="39" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="21" customHeight="1">
-      <c r="A207" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="B207" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D207" s="37"/>
-      <c r="E207" s="37" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="21" customHeight="1">
-      <c r="A208" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="B208" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="C208" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="D208" s="37"/>
-      <c r="E208" s="37" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="21" customHeight="1">
-      <c r="A209" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B209" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="C209" s="37"/>
-      <c r="D209" s="37"/>
-      <c r="E209" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="F209" s="39" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A186:E186"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/doc/支持文件/公版数据字典.xlsx
+++ b/doc/支持文件/公版数据字典.xlsx
@@ -1101,7 +1101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,6 +1258,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1315,7 +1324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1461,6 +1470,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1732,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -2854,7 +2866,7 @@
       <c r="E80" s="17"/>
     </row>
     <row r="81" spans="1:6" ht="21" customHeight="1">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="49" t="s">
         <v>283</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -2916,7 +2928,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="32" t="s">
         <v>287</v>
       </c>
       <c r="B85" s="13" t="s">

--- a/doc/支持文件/公版数据字典.xlsx
+++ b/doc/支持文件/公版数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="306">
   <si>
     <t>用户表</t>
   </si>
@@ -1095,6 +1095,26 @@
   </si>
   <si>
     <t>新增表</t>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类型ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号、非空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_statu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1466,13 +1486,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1742,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ216"/>
+  <dimension ref="A1:AQ217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -2385,7 +2405,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>15</v>
@@ -2396,8 +2416,8 @@
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1">
-      <c r="A47" s="22" t="s">
-        <v>74</v>
+      <c r="A47" s="29" t="s">
+        <v>305</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>24</v>
@@ -2412,7 +2432,7 @@
     </row>
     <row r="48" spans="1:6" ht="21" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>161</v>
@@ -2454,99 +2474,105 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="21" customHeight="1">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
+      <c r="A51" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>302</v>
+      </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="E51" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="21" customHeight="1">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" spans="1:6" ht="21" customHeight="1">
+      <c r="A53" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B53" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="38"/>
-    </row>
-    <row r="53" spans="1:6" ht="21" customHeight="1">
-      <c r="A53" s="36" t="s">
+      <c r="C53" s="47"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="38"/>
+    </row>
+    <row r="54" spans="1:6" ht="21" customHeight="1">
+      <c r="A54" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B54" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C54" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D54" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E54" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F54" s="35" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="21" customHeight="1">
-      <c r="A54" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="21" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B55" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="32" t="s">
-        <v>298</v>
+      <c r="C55" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="21" customHeight="1">
       <c r="A56" s="37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B56" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
+      <c r="D56" s="32" t="s">
+        <v>298</v>
+      </c>
       <c r="E56" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F56" s="30"/>
+    </row>
+    <row r="57" spans="1:6" ht="21" customHeight="1">
+      <c r="A57" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="F56" s="30"/>
-    </row>
-    <row r="57" spans="1:6" ht="21" customHeight="1">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
       <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" ht="21" customHeight="1">
@@ -2555,122 +2581,114 @@
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
-      <c r="F58" s="23"/>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" ht="21" customHeight="1">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="1:6" ht="21" customHeight="1">
+      <c r="A60" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B60" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="23"/>
-    </row>
-    <row r="60" spans="1:6" ht="21" customHeight="1">
-      <c r="A60" s="25" t="s">
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" spans="1:6" ht="21" customHeight="1">
+      <c r="A61" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B61" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D61" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E61" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="23"/>
-    </row>
-    <row r="61" spans="1:6" ht="21" customHeight="1">
-      <c r="A61" s="26" t="s">
+      <c r="F61" s="23"/>
+    </row>
+    <row r="62" spans="1:6" ht="21" customHeight="1">
+      <c r="A62" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B62" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C62" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D62" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E62" s="26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A62" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A63" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
+      <c r="C63" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E63" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A64" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A64" s="37" t="s">
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A65" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="B64" s="37" t="s">
+      <c r="B65" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37" t="s">
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="F64" s="35" t="s">
+      <c r="F65" s="35" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A65" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A66" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>8</v>
@@ -2679,28 +2697,30 @@
         <v>21</v>
       </c>
       <c r="D66" s="26"/>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A67" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="26"/>
+      <c r="E67" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A67" s="26" t="s">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A68" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" spans="1:6" ht="21" customHeight="1">
-      <c r="A68" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="B68" s="26" t="s">
         <v>199</v>
@@ -2708,244 +2728,242 @@
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1">
       <c r="A69" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>21</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="21" customHeight="1">
       <c r="A70" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="26"/>
+      <c r="C70" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="21" customHeight="1">
+      <c r="A71" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="21" customHeight="1">
-      <c r="A71" s="29" t="s">
+    <row r="72" spans="1:6" ht="21" customHeight="1">
+      <c r="A72" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B72" s="29" t="s">
         <v>8</v>
-      </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="21" customHeight="1">
-      <c r="A72" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>235</v>
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
-      <c r="E72" s="31" t="s">
+      <c r="E72" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="21" customHeight="1">
+      <c r="A73" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="30"/>
-    </row>
-    <row r="74" spans="1:6" ht="21" customHeight="1">
-      <c r="A74" s="1" t="s">
+      <c r="F73" s="30"/>
+    </row>
+    <row r="75" spans="1:6" ht="21" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" ht="21" customHeight="1">
-      <c r="A75" s="11" t="s">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="21" customHeight="1">
+      <c r="A76" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B76" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D76" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E76" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="21" customHeight="1">
-      <c r="A76" s="13" t="s">
+    <row r="77" spans="1:6" ht="21" customHeight="1">
+      <c r="A77" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A77" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A78" s="13" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="13"/>
+      <c r="D78" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E78" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F78" s="12"/>
-    </row>
-    <row r="79" spans="1:6" ht="21" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A79" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:6" ht="21" customHeight="1">
+      <c r="A80" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="21" customHeight="1">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-    </row>
     <row r="81" spans="1:6" ht="21" customHeight="1">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="1:6" ht="21" customHeight="1">
+      <c r="A82" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" ht="21" customHeight="1">
-      <c r="A82" s="11" t="s">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" ht="21" customHeight="1">
+      <c r="A83" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B83" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D83" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E83" s="11" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="21" customHeight="1">
-      <c r="A83" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="21" customHeight="1">
       <c r="A84" s="13" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A85" s="32" t="s">
-        <v>287</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="21" customHeight="1">
+      <c r="A85" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="13"/>
+      <c r="D85" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E85" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A86" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A86" s="32" t="s">
+        <v>287</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>161</v>
@@ -2955,123 +2973,125 @@
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F86" s="12"/>
-    </row>
-    <row r="87" spans="1:6" ht="21" customHeight="1">
+        <v>162</v>
+      </c>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A87" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="s">
-        <v>168</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F87" s="12"/>
     </row>
     <row r="88" spans="1:6" ht="21" customHeight="1">
       <c r="A88" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C88" s="13"/>
+        <v>167</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="21" customHeight="1">
+      <c r="A89" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="21" customHeight="1">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-    </row>
     <row r="90" spans="1:6" ht="21" customHeight="1">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+    </row>
+    <row r="91" spans="1:6" ht="21" customHeight="1">
+      <c r="A91" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="B91" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-    </row>
-    <row r="91" spans="1:6" ht="21" customHeight="1">
-      <c r="A91" s="21" t="s">
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+    </row>
+    <row r="92" spans="1:6" ht="21" customHeight="1">
+      <c r="A92" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B92" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C92" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D92" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E92" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="21" customHeight="1">
-      <c r="A92" s="29" t="s">
+    <row r="93" spans="1:6" ht="21" customHeight="1">
+      <c r="A93" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B93" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C93" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D93" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="E93" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="21" customHeight="1">
-      <c r="A93" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B93" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:6" ht="21" customHeight="1">
       <c r="A94" s="22" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C94" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="D94" s="22"/>
       <c r="E94" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F94" s="19"/>
     </row>
     <row r="95" spans="1:6" ht="21" customHeight="1">
       <c r="A95" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" s="22" t="s">
         <v>173</v>
@@ -3079,13 +3099,13 @@
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
       <c r="E95" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F95" s="19"/>
     </row>
     <row r="96" spans="1:6" ht="21" customHeight="1">
       <c r="A96" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B96" s="22" t="s">
         <v>173</v>
@@ -3093,13 +3113,13 @@
       <c r="C96" s="22"/>
       <c r="D96" s="22"/>
       <c r="E96" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F96" s="19"/>
     </row>
     <row r="97" spans="1:6" ht="21" customHeight="1">
       <c r="A97" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97" s="22" t="s">
         <v>173</v>
@@ -3107,13 +3127,13 @@
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
       <c r="E97" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F97" s="19"/>
     </row>
     <row r="98" spans="1:6" ht="21" customHeight="1">
       <c r="A98" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B98" s="22" t="s">
         <v>173</v>
@@ -3121,12 +3141,13 @@
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
       <c r="E98" s="22" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F98" s="19"/>
     </row>
     <row r="99" spans="1:6" ht="21" customHeight="1">
       <c r="A99" s="22" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="B99" s="22" t="s">
         <v>173</v>
@@ -3134,12 +3155,12 @@
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="21" customHeight="1">
       <c r="A100" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B100" s="22" t="s">
         <v>173</v>
@@ -3147,12 +3168,12 @@
       <c r="C100" s="22"/>
       <c r="D100" s="22"/>
       <c r="E100" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="21" customHeight="1">
       <c r="A101" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B101" s="22" t="s">
         <v>173</v>
@@ -3160,96 +3181,92 @@
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
       <c r="E101" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="21" customHeight="1">
       <c r="A102" s="22" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="22"/>
       <c r="E102" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="21" customHeight="1">
+      <c r="A103" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="21" customHeight="1">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-    </row>
-    <row r="105" spans="1:6" ht="21" customHeight="1">
-      <c r="A105" s="1" t="s">
+    <row r="104" spans="1:6" ht="21" customHeight="1">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+    </row>
+    <row r="106" spans="1:6" ht="21" customHeight="1">
+      <c r="A106" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A106" s="11" t="s">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A107" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B107" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C107" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D107" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E107" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F106" s="10"/>
-    </row>
-    <row r="107" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A107" s="13" t="s">
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A108" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="12"/>
-    </row>
-    <row r="108" spans="1:6" ht="21" customHeight="1">
-      <c r="A108" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>89</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F108" s="12"/>
     </row>
     <row r="109" spans="1:6" ht="21" customHeight="1">
       <c r="A109" s="13" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>8</v>
@@ -3261,12 +3278,12 @@
         <v>15</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="21" customHeight="1">
       <c r="A110" s="13" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>8</v>
@@ -3278,12 +3295,12 @@
         <v>15</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="21" customHeight="1">
       <c r="A111" s="13" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>8</v>
@@ -3291,29 +3308,31 @@
       <c r="C111" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D111" s="13"/>
+      <c r="D111" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E111" s="13" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="21" customHeight="1">
       <c r="A112" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="21" customHeight="1">
       <c r="A113" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>93</v>
@@ -3323,27 +3342,27 @@
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="21" customHeight="1">
       <c r="A114" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B114" s="32" t="s">
-        <v>161</v>
+        <v>95</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="21" customHeight="1">
       <c r="A115" s="13" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="B115" s="32" t="s">
         <v>161</v>
@@ -3353,12 +3372,12 @@
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="21" customHeight="1">
-      <c r="A116" s="32" t="s">
-        <v>229</v>
+      <c r="A116" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="B116" s="32" t="s">
         <v>161</v>
@@ -3367,96 +3386,94 @@
         <v>21</v>
       </c>
       <c r="D116" s="13"/>
-      <c r="E116" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F116" s="30"/>
+      <c r="E116" s="13" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="117" spans="1:6" ht="21" customHeight="1">
       <c r="A117" s="32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D117" s="13"/>
-      <c r="E117" s="13" t="s">
+      <c r="E117" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" s="30"/>
+    </row>
+    <row r="118" spans="1:6" ht="21" customHeight="1">
+      <c r="A118" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="21" customHeight="1">
-      <c r="A118" s="34"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="17"/>
-      <c r="F118" s="30"/>
-    </row>
-    <row r="119" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:6" ht="21" customHeight="1">
+      <c r="A119" s="34"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="17"/>
+      <c r="F119" s="30"/>
+    </row>
+    <row r="120" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A120" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F119" s="10"/>
-    </row>
-    <row r="120" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A120" s="11" t="s">
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A121" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B121" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C121" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D121" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E121" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F120" s="12"/>
-    </row>
-    <row r="121" spans="1:6" ht="21" customHeight="1">
-      <c r="A121" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>11</v>
-      </c>
+      <c r="F121" s="12"/>
     </row>
     <row r="122" spans="1:6" ht="21" customHeight="1">
       <c r="A122" s="13" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="21" customHeight="1">
       <c r="A123" s="13" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>8</v>
@@ -3468,12 +3485,12 @@
         <v>15</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="21" customHeight="1">
       <c r="A124" s="13" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>8</v>
@@ -3485,12 +3502,12 @@
         <v>15</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="21" customHeight="1">
       <c r="A125" s="13" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>8</v>
@@ -3502,14 +3519,14 @@
         <v>15</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="21" customHeight="1">
       <c r="A126" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B126" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="13" t="s">
@@ -3519,26 +3536,29 @@
         <v>15</v>
       </c>
       <c r="E126" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="21" customHeight="1">
+      <c r="A127" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A127" s="13" t="s">
+    <row r="128" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
+      <c r="A128" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="B127" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F127" s="9"/>
-    </row>
-    <row r="128" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A128" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="B128" s="32" t="s">
         <v>161</v>
@@ -3546,128 +3566,128 @@
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A129" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F128" s="10"/>
-    </row>
-    <row r="129" spans="1:43" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="12"/>
-    </row>
-    <row r="130" spans="1:43" ht="21" customHeight="1">
-      <c r="A130" s="1" t="s">
+      <c r="F129" s="10"/>
+    </row>
+    <row r="130" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="12"/>
+    </row>
+    <row r="131" spans="1:6" ht="21" customHeight="1">
+      <c r="A131" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="1:43" ht="21" customHeight="1">
-      <c r="A131" s="11" t="s">
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" ht="21" customHeight="1">
+      <c r="A132" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B132" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C132" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D132" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E132" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:43" ht="21" customHeight="1">
-      <c r="A132" s="13" t="s">
+    <row r="133" spans="1:6" ht="21" customHeight="1">
+      <c r="A133" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:43" ht="21" customHeight="1">
-      <c r="A133" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="134" spans="1:43" ht="21" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="21" customHeight="1">
       <c r="A134" s="13" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D134" s="13"/>
+      <c r="D134" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E134" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="135" spans="1:43" s="5" customFormat="1" ht="21" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="21" customHeight="1">
       <c r="A135" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F135" s="9"/>
-    </row>
-    <row r="136" spans="1:43" s="1" customFormat="1" ht="21" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A136" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B136" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C136" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F136" s="10"/>
-    </row>
-    <row r="137" spans="1:43" s="2" customFormat="1" ht="21" customHeight="1">
+        <v>114</v>
+      </c>
+      <c r="F136" s="9"/>
+    </row>
+    <row r="137" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A137" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B137" s="32" t="s">
         <v>161</v>
@@ -3675,73 +3695,72 @@
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F137" s="10"/>
+    </row>
+    <row r="138" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A138" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F137" s="12"/>
-    </row>
-    <row r="139" spans="1:43" ht="21" customHeight="1">
-      <c r="A139" s="1" t="s">
+      <c r="F138" s="12"/>
+    </row>
+    <row r="140" spans="1:6" ht="21" customHeight="1">
+      <c r="A140" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="1:43" ht="21" customHeight="1">
-      <c r="A140" s="11" t="s">
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:6" ht="21" customHeight="1">
+      <c r="A141" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B141" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C141" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D141" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E141" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:43" ht="21" customHeight="1">
-      <c r="A141" s="13" t="s">
+    <row r="142" spans="1:6" ht="21" customHeight="1">
+      <c r="A142" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:43" ht="21" customHeight="1">
-      <c r="A142" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D142" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="E142" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="143" spans="1:43" ht="21" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="21" customHeight="1">
       <c r="A143" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>8</v>
@@ -3751,75 +3770,37 @@
       </c>
       <c r="D143" s="13"/>
       <c r="E143" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="21" customHeight="1">
       <c r="A144" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D144" s="13"/>
       <c r="E144" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F144" s="10"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
-      <c r="T144" s="1"/>
-      <c r="U144" s="1"/>
-      <c r="V144" s="1"/>
-      <c r="W144" s="1"/>
-      <c r="X144" s="1"/>
-      <c r="Y144" s="1"/>
-      <c r="Z144" s="1"/>
-      <c r="AA144" s="1"/>
-      <c r="AB144" s="1"/>
-      <c r="AC144" s="1"/>
-      <c r="AD144" s="1"/>
-      <c r="AE144" s="1"/>
-      <c r="AF144" s="1"/>
-      <c r="AG144" s="1"/>
-      <c r="AH144" s="1"/>
-      <c r="AI144" s="1"/>
-      <c r="AJ144" s="1"/>
-      <c r="AK144" s="1"/>
-      <c r="AL144" s="1"/>
-      <c r="AM144" s="1"/>
-      <c r="AN144" s="1"/>
-      <c r="AO144" s="1"/>
-      <c r="AP144" s="1"/>
-      <c r="AQ144" s="1"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="145" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A145" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D145" s="13"/>
       <c r="E145" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="1"/>
@@ -3860,116 +3841,114 @@
       <c r="AP145" s="1"/>
       <c r="AQ145" s="1"/>
     </row>
-    <row r="146" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
-      <c r="T146" s="2"/>
-      <c r="U146" s="2"/>
-      <c r="V146" s="2"/>
-      <c r="W146" s="2"/>
-      <c r="X146" s="2"/>
-      <c r="Y146" s="2"/>
-      <c r="Z146" s="2"/>
-      <c r="AA146" s="2"/>
-      <c r="AB146" s="2"/>
-      <c r="AC146" s="2"/>
-      <c r="AD146" s="2"/>
-      <c r="AE146" s="2"/>
-      <c r="AF146" s="2"/>
-      <c r="AG146" s="2"/>
-      <c r="AH146" s="2"/>
-      <c r="AI146" s="2"/>
-      <c r="AJ146" s="2"/>
-      <c r="AK146" s="2"/>
-      <c r="AL146" s="2"/>
-      <c r="AM146" s="2"/>
-      <c r="AN146" s="2"/>
-      <c r="AO146" s="2"/>
-      <c r="AP146" s="2"/>
-      <c r="AQ146" s="2"/>
-    </row>
-    <row r="147" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A147" s="1" t="s">
+    <row r="146" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A146" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F146" s="10"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+      <c r="Y146" s="1"/>
+      <c r="Z146" s="1"/>
+      <c r="AA146" s="1"/>
+      <c r="AB146" s="1"/>
+      <c r="AC146" s="1"/>
+      <c r="AD146" s="1"/>
+      <c r="AE146" s="1"/>
+      <c r="AF146" s="1"/>
+      <c r="AG146" s="1"/>
+      <c r="AH146" s="1"/>
+      <c r="AI146" s="1"/>
+      <c r="AJ146" s="1"/>
+      <c r="AK146" s="1"/>
+      <c r="AL146" s="1"/>
+      <c r="AM146" s="1"/>
+      <c r="AN146" s="1"/>
+      <c r="AO146" s="1"/>
+      <c r="AP146" s="1"/>
+      <c r="AQ146" s="1"/>
+    </row>
+    <row r="147" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2"/>
+      <c r="V147" s="2"/>
+      <c r="W147" s="2"/>
+      <c r="X147" s="2"/>
+      <c r="Y147" s="2"/>
+      <c r="Z147" s="2"/>
+      <c r="AA147" s="2"/>
+      <c r="AB147" s="2"/>
+      <c r="AC147" s="2"/>
+      <c r="AD147" s="2"/>
+      <c r="AE147" s="2"/>
+      <c r="AF147" s="2"/>
+      <c r="AG147" s="2"/>
+      <c r="AH147" s="2"/>
+      <c r="AI147" s="2"/>
+      <c r="AJ147" s="2"/>
+      <c r="AK147" s="2"/>
+      <c r="AL147" s="2"/>
+      <c r="AM147" s="2"/>
+      <c r="AN147" s="2"/>
+      <c r="AO147" s="2"/>
+      <c r="AP147" s="2"/>
+      <c r="AQ147" s="2"/>
+    </row>
+    <row r="148" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A148" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
-      <c r="L147" s="3"/>
-      <c r="M147" s="3"/>
-      <c r="N147" s="3"/>
-      <c r="O147" s="3"/>
-      <c r="P147" s="3"/>
-      <c r="Q147" s="3"/>
-      <c r="R147" s="3"/>
-      <c r="S147" s="3"/>
-      <c r="T147" s="3"/>
-      <c r="U147" s="3"/>
-      <c r="V147" s="3"/>
-      <c r="W147" s="3"/>
-      <c r="X147" s="3"/>
-      <c r="Y147" s="3"/>
-      <c r="Z147" s="3"/>
-      <c r="AA147" s="3"/>
-      <c r="AB147" s="3"/>
-      <c r="AC147" s="3"/>
-      <c r="AD147" s="3"/>
-      <c r="AE147" s="3"/>
-      <c r="AF147" s="3"/>
-      <c r="AG147" s="3"/>
-      <c r="AH147" s="3"/>
-      <c r="AI147" s="3"/>
-      <c r="AJ147" s="3"/>
-      <c r="AK147" s="3"/>
-      <c r="AL147" s="3"/>
-      <c r="AM147" s="3"/>
-      <c r="AN147" s="3"/>
-      <c r="AO147" s="3"/>
-      <c r="AP147" s="3"/>
-      <c r="AQ147" s="3"/>
-    </row>
-    <row r="148" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A148" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
       <c r="F148" s="27"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -4010,20 +3989,20 @@
       <c r="AQ148" s="3"/>
     </row>
     <row r="149" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A149" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" s="13" t="s">
-        <v>11</v>
+      <c r="A149" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="F149" s="27"/>
       <c r="G149" s="3"/>
@@ -4066,19 +4045,19 @@
     </row>
     <row r="150" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A150" s="13" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="F150" s="27"/>
       <c r="G150" s="3"/>
@@ -4121,17 +4100,19 @@
     </row>
     <row r="151" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A151" s="13" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E151" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F151" s="27"/>
       <c r="G151" s="3"/>
@@ -4174,17 +4155,17 @@
     </row>
     <row r="152" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A152" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B152" s="32" t="s">
-        <v>161</v>
+        <v>129</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="13"/>
       <c r="E152" s="13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F152" s="27"/>
       <c r="G152" s="3"/>
@@ -4227,17 +4208,17 @@
     </row>
     <row r="153" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A153" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>13</v>
+        <v>131</v>
+      </c>
+      <c r="B153" s="32" t="s">
+        <v>161</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="13"/>
       <c r="E153" s="13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F153" s="27"/>
       <c r="G153" s="3"/>
@@ -4279,11 +4260,19 @@
       <c r="AQ153" s="3"/>
     </row>
     <row r="154" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
+      <c r="A154" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="F154" s="27"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -4324,15 +4313,11 @@
       <c r="AQ154" s="3"/>
     </row>
     <row r="155" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A155" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B155" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
       <c r="F155" s="27"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -4373,21 +4358,15 @@
       <c r="AQ155" s="3"/>
     </row>
     <row r="156" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A156" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D156" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E156" s="18" t="s">
-        <v>6</v>
-      </c>
+      <c r="A156" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B156" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
       <c r="F156" s="27"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
@@ -4428,20 +4407,20 @@
       <c r="AQ156" s="3"/>
     </row>
     <row r="157" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A157" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E157" s="31" t="s">
-        <v>11</v>
+      <c r="A157" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="F157" s="27"/>
       <c r="G157" s="3"/>
@@ -4484,19 +4463,19 @@
     </row>
     <row r="158" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A158" s="31" t="s">
-        <v>217</v>
+        <v>7</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="F158" s="27"/>
       <c r="G158" s="3"/>
@@ -4539,10 +4518,10 @@
     </row>
     <row r="159" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A159" s="31" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="C159" s="31" t="s">
         <v>21</v>
@@ -4551,7 +4530,7 @@
         <v>15</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F159" s="27"/>
       <c r="G159" s="3"/>
@@ -4594,17 +4573,19 @@
     </row>
     <row r="160" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A160" s="31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C160" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D160" s="31"/>
+      <c r="D160" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="E160" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F160" s="27"/>
       <c r="G160" s="3"/>
@@ -4647,19 +4628,17 @@
     </row>
     <row r="161" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A161" s="31" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C161" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D161" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="D161" s="31"/>
       <c r="E161" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F161" s="27"/>
       <c r="G161" s="3"/>
@@ -4702,17 +4681,19 @@
     </row>
     <row r="162" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A162" s="31" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="C162" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="31"/>
+      <c r="D162" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="E162" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F162" s="27"/>
       <c r="G162" s="3"/>
@@ -4755,17 +4736,17 @@
     </row>
     <row r="163" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A163" s="31" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="C163" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D163" s="31"/>
       <c r="E163" s="31" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="F163" s="27"/>
       <c r="G163" s="3"/>
@@ -4808,17 +4789,17 @@
     </row>
     <row r="164" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A164" s="31" t="s">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C164" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D164" s="31"/>
       <c r="E164" s="31" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c r="F164" s="27"/>
       <c r="G164" s="3"/>
@@ -4861,17 +4842,17 @@
     </row>
     <row r="165" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A165" s="31" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="C165" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D165" s="31"/>
       <c r="E165" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="3"/>
@@ -4913,11 +4894,19 @@
       <c r="AQ165" s="3"/>
     </row>
     <row r="166" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A166" s="17"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
+      <c r="A166" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C166" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31" t="s">
+        <v>227</v>
+      </c>
       <c r="F166" s="27"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -4958,18 +4947,12 @@
       <c r="AQ166" s="3"/>
     </row>
     <row r="167" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A167" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B167" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="38" t="s">
-        <v>245</v>
-      </c>
+      <c r="A167" s="17"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="27"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -5008,184 +4991,182 @@
       <c r="AP167" s="3"/>
       <c r="AQ167" s="3"/>
     </row>
-    <row r="168" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A168" s="36" t="s">
+    <row r="168" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A168" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B168" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C168" s="35"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
+      <c r="Y168" s="3"/>
+      <c r="Z168" s="3"/>
+      <c r="AA168" s="3"/>
+      <c r="AB168" s="3"/>
+      <c r="AC168" s="3"/>
+      <c r="AD168" s="3"/>
+      <c r="AE168" s="3"/>
+      <c r="AF168" s="3"/>
+      <c r="AG168" s="3"/>
+      <c r="AH168" s="3"/>
+      <c r="AI168" s="3"/>
+      <c r="AJ168" s="3"/>
+      <c r="AK168" s="3"/>
+      <c r="AL168" s="3"/>
+      <c r="AM168" s="3"/>
+      <c r="AN168" s="3"/>
+      <c r="AO168" s="3"/>
+      <c r="AP168" s="3"/>
+      <c r="AQ168" s="3"/>
+    </row>
+    <row r="169" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A169" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="36" t="s">
+      <c r="B169" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C168" s="36" t="s">
+      <c r="C169" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="36" t="s">
+      <c r="D169" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E168" s="36" t="s">
+      <c r="E169" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F168" s="10"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
-      <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
-      <c r="V168" s="1"/>
-      <c r="W168" s="1"/>
-      <c r="X168" s="1"/>
-      <c r="Y168" s="1"/>
-      <c r="Z168" s="1"/>
-      <c r="AA168" s="1"/>
-      <c r="AB168" s="1"/>
-      <c r="AC168" s="1"/>
-      <c r="AD168" s="1"/>
-      <c r="AE168" s="1"/>
-      <c r="AF168" s="1"/>
-      <c r="AG168" s="1"/>
-      <c r="AH168" s="1"/>
-      <c r="AI168" s="1"/>
-      <c r="AJ168" s="1"/>
-      <c r="AK168" s="1"/>
-      <c r="AL168" s="1"/>
-      <c r="AM168" s="1"/>
-      <c r="AN168" s="1"/>
-      <c r="AO168" s="1"/>
-      <c r="AP168" s="1"/>
-      <c r="AQ168" s="1"/>
-    </row>
-    <row r="169" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A169" s="37" t="s">
+      <c r="F169" s="10"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
+      <c r="U169" s="1"/>
+      <c r="V169" s="1"/>
+      <c r="W169" s="1"/>
+      <c r="X169" s="1"/>
+      <c r="Y169" s="1"/>
+      <c r="Z169" s="1"/>
+      <c r="AA169" s="1"/>
+      <c r="AB169" s="1"/>
+      <c r="AC169" s="1"/>
+      <c r="AD169" s="1"/>
+      <c r="AE169" s="1"/>
+      <c r="AF169" s="1"/>
+      <c r="AG169" s="1"/>
+      <c r="AH169" s="1"/>
+      <c r="AI169" s="1"/>
+      <c r="AJ169" s="1"/>
+      <c r="AK169" s="1"/>
+      <c r="AL169" s="1"/>
+      <c r="AM169" s="1"/>
+      <c r="AN169" s="1"/>
+      <c r="AO169" s="1"/>
+      <c r="AP169" s="1"/>
+      <c r="AQ169" s="1"/>
+    </row>
+    <row r="170" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A170" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="B169" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E169" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="12"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
-      <c r="R169" s="2"/>
-      <c r="S169" s="2"/>
-      <c r="T169" s="2"/>
-      <c r="U169" s="2"/>
-      <c r="V169" s="2"/>
-      <c r="W169" s="2"/>
-      <c r="X169" s="2"/>
-      <c r="Y169" s="2"/>
-      <c r="Z169" s="2"/>
-      <c r="AA169" s="2"/>
-      <c r="AB169" s="2"/>
-      <c r="AC169" s="2"/>
-      <c r="AD169" s="2"/>
-      <c r="AE169" s="2"/>
-      <c r="AF169" s="2"/>
-      <c r="AG169" s="2"/>
-      <c r="AH169" s="2"/>
-      <c r="AI169" s="2"/>
-      <c r="AJ169" s="2"/>
-      <c r="AK169" s="2"/>
-      <c r="AL169" s="2"/>
-      <c r="AM169" s="2"/>
-      <c r="AN169" s="2"/>
-      <c r="AO169" s="2"/>
-      <c r="AP169" s="2"/>
-      <c r="AQ169" s="2"/>
-    </row>
-    <row r="170" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A170" s="37" t="s">
-        <v>239</v>
       </c>
       <c r="B170" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D170" s="37" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E170" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="F170" s="27"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
-      <c r="L170" s="3"/>
-      <c r="M170" s="3"/>
-      <c r="N170" s="3"/>
-      <c r="O170" s="3"/>
-      <c r="P170" s="3"/>
-      <c r="Q170" s="3"/>
-      <c r="R170" s="3"/>
-      <c r="S170" s="3"/>
-      <c r="T170" s="3"/>
-      <c r="U170" s="3"/>
-      <c r="V170" s="3"/>
-      <c r="W170" s="3"/>
-      <c r="X170" s="3"/>
-      <c r="Y170" s="3"/>
-      <c r="Z170" s="3"/>
-      <c r="AA170" s="3"/>
-      <c r="AB170" s="3"/>
-      <c r="AC170" s="3"/>
-      <c r="AD170" s="3"/>
-      <c r="AE170" s="3"/>
-      <c r="AF170" s="3"/>
-      <c r="AG170" s="3"/>
-      <c r="AH170" s="3"/>
-      <c r="AI170" s="3"/>
-      <c r="AJ170" s="3"/>
-      <c r="AK170" s="3"/>
-      <c r="AL170" s="3"/>
-      <c r="AM170" s="3"/>
-      <c r="AN170" s="3"/>
-      <c r="AO170" s="3"/>
-      <c r="AP170" s="3"/>
-      <c r="AQ170" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="F170" s="12"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2"/>
+      <c r="V170" s="2"/>
+      <c r="W170" s="2"/>
+      <c r="X170" s="2"/>
+      <c r="Y170" s="2"/>
+      <c r="Z170" s="2"/>
+      <c r="AA170" s="2"/>
+      <c r="AB170" s="2"/>
+      <c r="AC170" s="2"/>
+      <c r="AD170" s="2"/>
+      <c r="AE170" s="2"/>
+      <c r="AF170" s="2"/>
+      <c r="AG170" s="2"/>
+      <c r="AH170" s="2"/>
+      <c r="AI170" s="2"/>
+      <c r="AJ170" s="2"/>
+      <c r="AK170" s="2"/>
+      <c r="AL170" s="2"/>
+      <c r="AM170" s="2"/>
+      <c r="AN170" s="2"/>
+      <c r="AO170" s="2"/>
+      <c r="AP170" s="2"/>
+      <c r="AQ170" s="2"/>
     </row>
     <row r="171" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A171" s="37" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="B171" s="37" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D171" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="D171" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="E171" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F171" s="27"/>
       <c r="G171" s="3"/>
@@ -5228,17 +5209,17 @@
     </row>
     <row r="172" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A172" s="37" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="C172" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="37"/>
       <c r="E172" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F172" s="27"/>
       <c r="G172" s="3"/>
@@ -5280,11 +5261,19 @@
       <c r="AQ172" s="3"/>
     </row>
     <row r="173" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A173" s="17"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
+      <c r="A173" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B173" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C173" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="37"/>
+      <c r="E173" s="37" t="s">
+        <v>244</v>
+      </c>
       <c r="F173" s="27"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -5324,184 +5313,174 @@
       <c r="AP173" s="3"/>
       <c r="AQ173" s="3"/>
     </row>
-    <row r="174" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A174" s="40" t="s">
+    <row r="174" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A174" s="17"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+      <c r="U174" s="3"/>
+      <c r="V174" s="3"/>
+      <c r="W174" s="3"/>
+      <c r="X174" s="3"/>
+      <c r="Y174" s="3"/>
+      <c r="Z174" s="3"/>
+      <c r="AA174" s="3"/>
+      <c r="AB174" s="3"/>
+      <c r="AC174" s="3"/>
+      <c r="AD174" s="3"/>
+      <c r="AE174" s="3"/>
+      <c r="AF174" s="3"/>
+      <c r="AG174" s="3"/>
+      <c r="AH174" s="3"/>
+      <c r="AI174" s="3"/>
+      <c r="AJ174" s="3"/>
+      <c r="AK174" s="3"/>
+      <c r="AL174" s="3"/>
+      <c r="AM174" s="3"/>
+      <c r="AN174" s="3"/>
+      <c r="AO174" s="3"/>
+      <c r="AP174" s="3"/>
+      <c r="AQ174" s="3"/>
+    </row>
+    <row r="175" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A175" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="B174" s="40" t="s">
+      <c r="B175" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="C174" s="40"/>
-      <c r="D174" s="40"/>
-      <c r="E174" s="41"/>
-      <c r="F174" s="39" t="s">
+      <c r="C175" s="40"/>
+      <c r="D175" s="40"/>
+      <c r="E175" s="41"/>
+      <c r="F175" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
-      <c r="V174" s="1"/>
-      <c r="W174" s="1"/>
-      <c r="X174" s="1"/>
-      <c r="Y174" s="1"/>
-      <c r="Z174" s="1"/>
-      <c r="AA174" s="1"/>
-      <c r="AB174" s="1"/>
-      <c r="AC174" s="1"/>
-      <c r="AD174" s="1"/>
-      <c r="AE174" s="1"/>
-      <c r="AF174" s="1"/>
-      <c r="AG174" s="1"/>
-      <c r="AH174" s="1"/>
-      <c r="AI174" s="1"/>
-      <c r="AJ174" s="1"/>
-      <c r="AK174" s="1"/>
-      <c r="AL174" s="1"/>
-      <c r="AM174" s="1"/>
-      <c r="AN174" s="1"/>
-      <c r="AO174" s="1"/>
-      <c r="AP174" s="1"/>
-      <c r="AQ174" s="1"/>
-    </row>
-    <row r="175" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A175" s="36" t="s">
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
+      <c r="X175" s="1"/>
+      <c r="Y175" s="1"/>
+      <c r="Z175" s="1"/>
+      <c r="AA175" s="1"/>
+      <c r="AB175" s="1"/>
+      <c r="AC175" s="1"/>
+      <c r="AD175" s="1"/>
+      <c r="AE175" s="1"/>
+      <c r="AF175" s="1"/>
+      <c r="AG175" s="1"/>
+      <c r="AH175" s="1"/>
+      <c r="AI175" s="1"/>
+      <c r="AJ175" s="1"/>
+      <c r="AK175" s="1"/>
+      <c r="AL175" s="1"/>
+      <c r="AM175" s="1"/>
+      <c r="AN175" s="1"/>
+      <c r="AO175" s="1"/>
+      <c r="AP175" s="1"/>
+      <c r="AQ175" s="1"/>
+    </row>
+    <row r="176" spans="1:43" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A176" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B175" s="36" t="s">
+      <c r="B176" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C175" s="36" t="s">
+      <c r="C176" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="36" t="s">
+      <c r="D176" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E175" s="42" t="s">
+      <c r="E176" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F175" s="44"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="2"/>
-      <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2"/>
-      <c r="V175" s="2"/>
-      <c r="W175" s="2"/>
-      <c r="X175" s="2"/>
-      <c r="Y175" s="2"/>
-      <c r="Z175" s="2"/>
-      <c r="AA175" s="2"/>
-      <c r="AB175" s="2"/>
-      <c r="AC175" s="2"/>
-      <c r="AD175" s="2"/>
-      <c r="AE175" s="2"/>
-      <c r="AF175" s="2"/>
-      <c r="AG175" s="2"/>
-      <c r="AH175" s="2"/>
-      <c r="AI175" s="2"/>
-      <c r="AJ175" s="2"/>
-      <c r="AK175" s="2"/>
-      <c r="AL175" s="2"/>
-      <c r="AM175" s="2"/>
-      <c r="AN175" s="2"/>
-      <c r="AO175" s="2"/>
-      <c r="AP175" s="2"/>
-      <c r="AQ175" s="2"/>
-    </row>
-    <row r="176" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A176" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B176" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" s="45"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
-      <c r="L176" s="3"/>
-      <c r="M176" s="3"/>
-      <c r="N176" s="3"/>
-      <c r="O176" s="3"/>
-      <c r="P176" s="3"/>
-      <c r="Q176" s="3"/>
-      <c r="R176" s="3"/>
-      <c r="S176" s="3"/>
-      <c r="T176" s="3"/>
-      <c r="U176" s="3"/>
-      <c r="V176" s="3"/>
-      <c r="W176" s="3"/>
-      <c r="X176" s="3"/>
-      <c r="Y176" s="3"/>
-      <c r="Z176" s="3"/>
-      <c r="AA176" s="3"/>
-      <c r="AB176" s="3"/>
-      <c r="AC176" s="3"/>
-      <c r="AD176" s="3"/>
-      <c r="AE176" s="3"/>
-      <c r="AF176" s="3"/>
-      <c r="AG176" s="3"/>
-      <c r="AH176" s="3"/>
-      <c r="AI176" s="3"/>
-      <c r="AJ176" s="3"/>
-      <c r="AK176" s="3"/>
-      <c r="AL176" s="3"/>
-      <c r="AM176" s="3"/>
-      <c r="AN176" s="3"/>
-      <c r="AO176" s="3"/>
-      <c r="AP176" s="3"/>
-      <c r="AQ176" s="3"/>
+      <c r="F176" s="44"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+      <c r="U176" s="2"/>
+      <c r="V176" s="2"/>
+      <c r="W176" s="2"/>
+      <c r="X176" s="2"/>
+      <c r="Y176" s="2"/>
+      <c r="Z176" s="2"/>
+      <c r="AA176" s="2"/>
+      <c r="AB176" s="2"/>
+      <c r="AC176" s="2"/>
+      <c r="AD176" s="2"/>
+      <c r="AE176" s="2"/>
+      <c r="AF176" s="2"/>
+      <c r="AG176" s="2"/>
+      <c r="AH176" s="2"/>
+      <c r="AI176" s="2"/>
+      <c r="AJ176" s="2"/>
+      <c r="AK176" s="2"/>
+      <c r="AL176" s="2"/>
+      <c r="AM176" s="2"/>
+      <c r="AN176" s="2"/>
+      <c r="AO176" s="2"/>
+      <c r="AP176" s="2"/>
+      <c r="AQ176" s="2"/>
     </row>
     <row r="177" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A177" s="37" t="s">
-        <v>188</v>
+        <v>7</v>
       </c>
       <c r="B177" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D177" s="37" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="F177" s="46"/>
+        <v>11</v>
+      </c>
+      <c r="F177" s="45"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
@@ -5540,57 +5519,96 @@
       <c r="AP177" s="3"/>
       <c r="AQ177" s="3"/>
     </row>
-    <row r="178" spans="1:43" ht="21" customHeight="1">
+    <row r="178" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A178" s="37" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="B178" s="37" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D178" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="D178" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="E178" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F178" s="46"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3"/>
+      <c r="R178" s="3"/>
+      <c r="S178" s="3"/>
+      <c r="T178" s="3"/>
+      <c r="U178" s="3"/>
+      <c r="V178" s="3"/>
+      <c r="W178" s="3"/>
+      <c r="X178" s="3"/>
+      <c r="Y178" s="3"/>
+      <c r="Z178" s="3"/>
+      <c r="AA178" s="3"/>
+      <c r="AB178" s="3"/>
+      <c r="AC178" s="3"/>
+      <c r="AD178" s="3"/>
+      <c r="AE178" s="3"/>
+      <c r="AF178" s="3"/>
+      <c r="AG178" s="3"/>
+      <c r="AH178" s="3"/>
+      <c r="AI178" s="3"/>
+      <c r="AJ178" s="3"/>
+      <c r="AK178" s="3"/>
+      <c r="AL178" s="3"/>
+      <c r="AM178" s="3"/>
+      <c r="AN178" s="3"/>
+      <c r="AO178" s="3"/>
+      <c r="AP178" s="3"/>
+      <c r="AQ178" s="3"/>
     </row>
     <row r="179" spans="1:43" ht="21" customHeight="1">
       <c r="A179" s="37" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B179" s="37" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="C179" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D179" s="37"/>
       <c r="E179" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F179" s="46"/>
     </row>
     <row r="180" spans="1:43" ht="21" customHeight="1">
       <c r="A180" s="37" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="B180" s="37" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C180" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D180" s="37"/>
       <c r="E180" s="43" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F180" s="46"/>
     </row>
     <row r="181" spans="1:43" ht="21" customHeight="1">
       <c r="A181" s="37" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="B181" s="37" t="s">
         <v>248</v>
@@ -5600,13 +5618,13 @@
       </c>
       <c r="D181" s="37"/>
       <c r="E181" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F181" s="46"/>
     </row>
     <row r="182" spans="1:43" ht="21" customHeight="1">
       <c r="A182" s="37" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="B182" s="37" t="s">
         <v>248</v>
@@ -5616,317 +5634,318 @@
       </c>
       <c r="D182" s="37"/>
       <c r="E182" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F182" s="46"/>
     </row>
     <row r="183" spans="1:43" ht="21" customHeight="1">
       <c r="A183" s="37" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="B183" s="37" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C183" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D183" s="37"/>
       <c r="E183" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="F183" s="46"/>
+    </row>
+    <row r="184" spans="1:43" ht="21" customHeight="1">
+      <c r="A184" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B184" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="37"/>
+      <c r="E184" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="F183" s="46"/>
-    </row>
-    <row r="184" spans="1:43" ht="21" customHeight="1">
-      <c r="A184" s="39"/>
-      <c r="B184" s="39"/>
-      <c r="C184" s="39"/>
-      <c r="D184" s="39"/>
-      <c r="E184" s="39"/>
-      <c r="F184" s="30"/>
+      <c r="F184" s="46"/>
     </row>
     <row r="185" spans="1:43" ht="21" customHeight="1">
-      <c r="F185" s="10"/>
+      <c r="A185" s="39"/>
+      <c r="B185" s="39"/>
+      <c r="C185" s="39"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="39"/>
+      <c r="F185" s="30"/>
     </row>
     <row r="186" spans="1:43" ht="21" customHeight="1">
-      <c r="A186" s="47" t="s">
+      <c r="F186" s="10"/>
+    </row>
+    <row r="187" spans="1:43" ht="21" customHeight="1">
+      <c r="A187" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B186" s="47"/>
-      <c r="C186" s="47"/>
-      <c r="D186" s="47"/>
-      <c r="E186" s="47"/>
-      <c r="F186" s="12"/>
-    </row>
-    <row r="187" spans="1:43" ht="21" customHeight="1">
-      <c r="A187" s="6" t="s">
+      <c r="B187" s="49"/>
+      <c r="C187" s="49"/>
+      <c r="D187" s="49"/>
+      <c r="E187" s="49"/>
+      <c r="F187" s="12"/>
+    </row>
+    <row r="188" spans="1:43" ht="21" customHeight="1">
+      <c r="A188" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B188" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="27"/>
-    </row>
-    <row r="188" spans="1:43" ht="21" customHeight="1">
-      <c r="A188" s="15" t="s">
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="27"/>
+    </row>
+    <row r="189" spans="1:43" ht="21" customHeight="1">
+      <c r="A189" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="B189" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C188" s="15" t="s">
+      <c r="C189" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D188" s="15" t="s">
+      <c r="D189" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E188" s="15" t="s">
+      <c r="E189" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F188" s="27"/>
-    </row>
-    <row r="189" spans="1:43" ht="21" customHeight="1">
-      <c r="A189" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B189" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="F189" s="27"/>
     </row>
     <row r="190" spans="1:43" ht="21" customHeight="1">
       <c r="A190" s="16" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="B190" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D190" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="E190" s="16" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:43" ht="21" customHeight="1">
       <c r="A191" s="16" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D191" s="16"/>
       <c r="E191" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="192" spans="1:43" ht="21" customHeight="1">
       <c r="A192" s="16" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C192" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="16"/>
       <c r="E192" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="21" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="21" customHeight="1">
       <c r="A193" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C193" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D193" s="16"/>
       <c r="E193" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="21" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="21" customHeight="1">
       <c r="A194" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C194" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="D194" s="16"/>
       <c r="E194" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="21" customHeight="1">
+      <c r="A195" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C195" s="16"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="21" customHeight="1">
-      <c r="A195" s="8"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-    </row>
-    <row r="196" spans="1:6" ht="21" customHeight="1">
-      <c r="A196" s="6" t="s">
+    <row r="196" spans="1:5" ht="21" customHeight="1">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+    </row>
+    <row r="197" spans="1:5" ht="21" customHeight="1">
+      <c r="A197" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B197" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-    </row>
-    <row r="197" spans="1:6" ht="21" customHeight="1">
-      <c r="A197" s="15" t="s">
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+    </row>
+    <row r="198" spans="1:5" ht="21" customHeight="1">
+      <c r="A198" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="B198" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C197" s="15" t="s">
+      <c r="C198" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D197" s="15" t="s">
+      <c r="D198" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E197" s="15" t="s">
+      <c r="E198" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="21" customHeight="1">
-      <c r="A198" s="16" t="s">
+    <row r="199" spans="1:5" ht="21" customHeight="1">
+      <c r="A199" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B198" s="16" t="s">
+      <c r="B199" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C198" s="16" t="s">
+      <c r="C199" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D198" s="16" t="s">
+      <c r="D199" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E198" s="16" t="s">
+      <c r="E199" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="21" customHeight="1">
-      <c r="A199" s="16" t="s">
+    <row r="200" spans="1:5" ht="21" customHeight="1">
+      <c r="A200" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B199" s="16" t="s">
+      <c r="B200" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C199" s="16" t="s">
+      <c r="C200" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D199" s="16"/>
-      <c r="E199" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="21" customHeight="1">
-      <c r="A200" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C200" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="D200" s="16"/>
       <c r="E200" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="21" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="21" customHeight="1">
       <c r="A201" s="16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D201" s="16"/>
       <c r="E201" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="21" customHeight="1">
+      <c r="A202" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="16"/>
+      <c r="E202" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="21" customHeight="1">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-    </row>
-    <row r="203" spans="1:6" ht="21" customHeight="1">
-      <c r="A203" s="6" t="s">
+    <row r="203" spans="1:5" ht="21" customHeight="1">
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="8"/>
+    </row>
+    <row r="204" spans="1:5" ht="21" customHeight="1">
+      <c r="A204" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B204" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
-    </row>
-    <row r="204" spans="1:6" ht="21" customHeight="1">
-      <c r="A204" s="15" t="s">
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+    </row>
+    <row r="205" spans="1:5" ht="21" customHeight="1">
+      <c r="A205" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B204" s="15" t="s">
+      <c r="B205" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C204" s="15" t="s">
+      <c r="C205" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D204" s="15" t="s">
+      <c r="D205" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E204" s="15" t="s">
+      <c r="E205" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="21" customHeight="1">
-      <c r="A205" s="16" t="s">
+    <row r="206" spans="1:5" ht="21" customHeight="1">
+      <c r="A206" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B205" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D205" s="16"/>
-      <c r="E205" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="21" customHeight="1">
-      <c r="A206" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="B206" s="16" t="s">
         <v>8</v>
@@ -5936,157 +5955,172 @@
       </c>
       <c r="D206" s="16"/>
       <c r="E206" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="21" customHeight="1">
+      <c r="A207" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D207" s="16"/>
+      <c r="E207" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="21" customHeight="1">
-      <c r="A208" s="40" t="s">
+    <row r="209" spans="1:6" ht="21" customHeight="1">
+      <c r="A209" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="B208" s="40" t="s">
+      <c r="B209" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="C208" s="40"/>
-      <c r="D208" s="40"/>
-      <c r="E208" s="40"/>
-      <c r="F208" s="39" t="s">
+      <c r="C209" s="40"/>
+      <c r="D209" s="40"/>
+      <c r="E209" s="40"/>
+      <c r="F209" s="39" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="21" customHeight="1">
-      <c r="A209" s="36" t="s">
+    <row r="210" spans="1:6" ht="21" customHeight="1">
+      <c r="A210" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B209" s="36" t="s">
+      <c r="B210" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C209" s="36" t="s">
+      <c r="C210" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D209" s="36" t="s">
+      <c r="D210" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E209" s="36" t="s">
+      <c r="E210" s="36" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="21" customHeight="1">
-      <c r="A210" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B210" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="D210" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E210" s="37" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="21" customHeight="1">
       <c r="A211" s="37" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="B211" s="37" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="C211" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D211" s="37"/>
+        <v>263</v>
+      </c>
+      <c r="D211" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="E211" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="F211" s="39" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="21" customHeight="1">
       <c r="A212" s="37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B212" s="37" t="s">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="C212" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D212" s="37"/>
       <c r="E212" s="37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F212" s="39" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="21" customHeight="1">
       <c r="A213" s="37" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B213" s="37" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C213" s="37" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="D213" s="37"/>
       <c r="E213" s="37" t="s">
-        <v>272</v>
+        <v>277</v>
+      </c>
+      <c r="F213" s="39" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="21" customHeight="1">
       <c r="A214" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B214" s="37" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="C214" s="37" t="s">
         <v>264</v>
       </c>
       <c r="D214" s="37"/>
       <c r="E214" s="37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="21" customHeight="1">
       <c r="A215" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B215" s="37" t="s">
-        <v>265</v>
+        <v>8</v>
       </c>
       <c r="C215" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D215" s="37"/>
       <c r="E215" s="37" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="21" customHeight="1">
       <c r="A216" s="37" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B216" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="C216" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="C216" s="37" t="s">
+        <v>266</v>
+      </c>
       <c r="D216" s="37"/>
       <c r="E216" s="37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="21" customHeight="1">
+      <c r="A217" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="B217" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C217" s="37"/>
+      <c r="D217" s="37"/>
+      <c r="E217" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="F216" s="39" t="s">
+      <c r="F217" s="39" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A187:E187"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/doc/支持文件/公版数据字典.xlsx
+++ b/doc/支持文件/公版数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="307">
   <si>
     <t>用户表</t>
   </si>
@@ -1114,6 +1114,10 @@
   </si>
   <si>
     <t>device_statu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1764,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -1918,8 +1922,8 @@
       <c r="A10" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>161</v>
+      <c r="B10" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>

--- a/doc/支持文件/公版数据字典.xlsx
+++ b/doc/支持文件/公版数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="322">
   <si>
     <t>用户表</t>
   </si>
@@ -244,9 +244,6 @@
     <t>设备状态</t>
   </si>
   <si>
-    <t>滤芯表</t>
-  </si>
-  <si>
     <t>filter1</t>
   </si>
   <si>
@@ -609,13 +606,7 @@
     <t>filtername</t>
   </si>
   <si>
-    <t>滤芯名称</t>
-  </si>
-  <si>
     <t>alias</t>
-  </si>
-  <si>
-    <t>滤芯别名</t>
   </si>
   <si>
     <t>timelife</t>
@@ -1118,6 +1109,78 @@
   </si>
   <si>
     <t>varchar(50)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物数量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户购物车(套餐)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户购物车（滤芯）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤芯ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_cart_filters</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_cart_setmeal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤芯表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤芯名称</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤芯别名</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1766,15 +1829,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ217"/>
+  <dimension ref="A1:AQ235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B217" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="41.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
@@ -1874,7 +1937,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
@@ -1882,7 +1945,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1908,7 +1971,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>14</v>
@@ -1920,15 +1983,15 @@
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F10" s="27"/>
     </row>
@@ -2211,44 +2274,44 @@
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F34" s="27"/>
     </row>
@@ -2356,10 +2419,10 @@
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2373,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>5</v>
@@ -2385,13 +2448,13 @@
     </row>
     <row r="45" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>10</v>
@@ -2409,7 +2472,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>15</v>
@@ -2421,7 +2484,7 @@
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1">
       <c r="A47" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>24</v>
@@ -2431,15 +2494,15 @@
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="21" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>21</v>
@@ -2451,43 +2514,43 @@
     </row>
     <row r="49" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A49" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="21" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="21" customHeight="1">
       <c r="A51" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F51" s="30"/>
     </row>
@@ -2501,10 +2564,10 @@
     </row>
     <row r="53" spans="1:6" ht="21" customHeight="1">
       <c r="A53" s="47" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="36"/>
@@ -2519,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D54" s="36" t="s">
         <v>5</v>
@@ -2528,12 +2591,12 @@
         <v>6</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="21" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B55" s="37" t="s">
         <v>8</v>
@@ -2545,29 +2608,29 @@
         <v>10</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="21" customHeight="1">
       <c r="A56" s="37" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B56" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="32" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" ht="21" customHeight="1">
       <c r="A57" s="37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B57" s="37" t="s">
         <v>8</v>
@@ -2575,7 +2638,7 @@
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
       <c r="E57" s="37" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F57" s="30"/>
     </row>
@@ -2596,11 +2659,11 @@
       <c r="F59" s="23"/>
     </row>
     <row r="60" spans="1:6" ht="21" customHeight="1">
-      <c r="A60" s="24" t="s">
-        <v>76</v>
+      <c r="A60" s="28" t="s">
+        <v>319</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
@@ -2644,10 +2707,10 @@
     </row>
     <row r="63" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A63" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>21</v>
@@ -2655,44 +2718,44 @@
       <c r="D63" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="26" t="s">
-        <v>192</v>
+      <c r="E63" s="29" t="s">
+        <v>320</v>
       </c>
       <c r="F63" s="10"/>
     </row>
     <row r="64" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A64" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
-      <c r="E64" s="26" t="s">
-        <v>194</v>
+      <c r="E64" s="29" t="s">
+        <v>321</v>
       </c>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A65" s="37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
       <c r="E65" s="37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F65" s="35" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A66" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>8</v>
@@ -2702,13 +2765,13 @@
       </c>
       <c r="D66" s="26"/>
       <c r="E66" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A67" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B67" s="26" t="s">
         <v>8</v>
@@ -2718,40 +2781,40 @@
       </c>
       <c r="D67" s="26"/>
       <c r="E67" s="29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A68" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1">
       <c r="A69" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="21" customHeight="1">
       <c r="A70" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>41</v>
@@ -2761,12 +2824,12 @@
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="21" customHeight="1">
       <c r="A71" s="26" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B71" s="26" t="s">
         <v>41</v>
@@ -2774,12 +2837,12 @@
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
       <c r="E71" s="26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="21" customHeight="1">
       <c r="A72" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>8</v>
@@ -2792,24 +2855,24 @@
     </row>
     <row r="73" spans="1:6" ht="21" customHeight="1">
       <c r="A73" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
       <c r="E73" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F73" s="30"/>
     </row>
     <row r="75" spans="1:6" ht="21" customHeight="1">
       <c r="A75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2885,15 +2948,15 @@
     </row>
     <row r="80" spans="1:6" ht="21" customHeight="1">
       <c r="A80" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="21" customHeight="1">
@@ -2905,10 +2968,10 @@
     </row>
     <row r="82" spans="1:6" ht="21" customHeight="1">
       <c r="A82" s="48" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2939,7 +3002,7 @@
         <v>8</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>10</v>
@@ -2950,7 +3013,7 @@
     </row>
     <row r="85" spans="1:6" ht="21" customHeight="1">
       <c r="A85" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>8</v>
@@ -2962,67 +3025,67 @@
         <v>15</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A86" s="32" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F86" s="10"/>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A87" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F87" s="12"/>
     </row>
     <row r="88" spans="1:6" ht="21" customHeight="1">
       <c r="A88" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="21" customHeight="1">
       <c r="A89" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="21" customHeight="1">
@@ -3034,10 +3097,10 @@
     </row>
     <row r="91" spans="1:6" ht="21" customHeight="1">
       <c r="A91" s="28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
@@ -3062,7 +3125,7 @@
     </row>
     <row r="93" spans="1:6" ht="21" customHeight="1">
       <c r="A93" s="29" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B93" s="22" t="s">
         <v>8</v>
@@ -3079,7 +3142,7 @@
     </row>
     <row r="94" spans="1:6" ht="21" customHeight="1">
       <c r="A94" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B94" s="22" t="s">
         <v>41</v>
@@ -3089,121 +3152,121 @@
       </c>
       <c r="D94" s="22"/>
       <c r="E94" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F94" s="19"/>
     </row>
     <row r="95" spans="1:6" ht="21" customHeight="1">
       <c r="A95" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
       <c r="E95" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F95" s="19"/>
     </row>
     <row r="96" spans="1:6" ht="21" customHeight="1">
       <c r="A96" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C96" s="22"/>
       <c r="D96" s="22"/>
       <c r="E96" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F96" s="19"/>
     </row>
     <row r="97" spans="1:6" ht="21" customHeight="1">
       <c r="A97" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
       <c r="E97" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F97" s="19"/>
     </row>
     <row r="98" spans="1:6" ht="21" customHeight="1">
       <c r="A98" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
       <c r="E98" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F98" s="19"/>
     </row>
     <row r="99" spans="1:6" ht="21" customHeight="1">
       <c r="A99" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="21" customHeight="1">
       <c r="A100" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C100" s="22"/>
       <c r="D100" s="22"/>
       <c r="E100" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="21" customHeight="1">
       <c r="A101" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
       <c r="E101" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="21" customHeight="1">
       <c r="A102" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="22"/>
       <c r="E102" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="21" customHeight="1">
       <c r="A103" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B103" s="22" t="s">
         <v>8</v>
@@ -3211,7 +3274,7 @@
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
       <c r="E103" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="21" customHeight="1">
@@ -3223,10 +3286,10 @@
     </row>
     <row r="106" spans="1:6" ht="21" customHeight="1">
       <c r="A106" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3270,7 +3333,7 @@
     </row>
     <row r="109" spans="1:6" ht="21" customHeight="1">
       <c r="A109" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>8</v>
@@ -3282,7 +3345,7 @@
         <v>15</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="21" customHeight="1">
@@ -3321,7 +3384,7 @@
     </row>
     <row r="112" spans="1:6" ht="21" customHeight="1">
       <c r="A112" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>8</v>
@@ -3331,37 +3394,37 @@
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="21" customHeight="1">
       <c r="A113" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="21" customHeight="1">
       <c r="A114" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="21" customHeight="1">
@@ -3369,60 +3432,60 @@
         <v>29</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="21" customHeight="1">
       <c r="A116" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="21" customHeight="1">
       <c r="A117" s="32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F117" s="30"/>
     </row>
     <row r="118" spans="1:6" ht="21" customHeight="1">
       <c r="A118" s="32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="13"/>
       <c r="E118" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="21" customHeight="1">
@@ -3433,10 +3496,10 @@
     </row>
     <row r="120" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A120" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="F120" s="10"/>
     </row>
@@ -3477,7 +3540,7 @@
     </row>
     <row r="123" spans="1:6" ht="21" customHeight="1">
       <c r="A123" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>8</v>
@@ -3489,7 +3552,7 @@
         <v>15</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="21" customHeight="1">
@@ -3545,7 +3608,7 @@
     </row>
     <row r="127" spans="1:6" ht="21" customHeight="1">
       <c r="A127" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>8</v>
@@ -3557,34 +3620,34 @@
         <v>15</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A128" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F128" s="9"/>
     </row>
     <row r="129" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A129" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F129" s="10"/>
     </row>
@@ -3598,10 +3661,10 @@
     </row>
     <row r="131" spans="1:6" ht="21" customHeight="1">
       <c r="A131" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3660,7 +3723,7 @@
     </row>
     <row r="135" spans="1:6" ht="21" customHeight="1">
       <c r="A135" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>24</v>
@@ -3670,59 +3733,59 @@
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A136" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F136" s="9"/>
     </row>
     <row r="137" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A137" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F137" s="10"/>
     </row>
     <row r="138" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A138" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F138" s="12"/>
     </row>
     <row r="140" spans="1:6" ht="21" customHeight="1">
       <c r="A140" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3764,7 +3827,7 @@
     </row>
     <row r="143" spans="1:6" ht="21" customHeight="1">
       <c r="A143" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>8</v>
@@ -3774,12 +3837,12 @@
       </c>
       <c r="D143" s="13"/>
       <c r="E143" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="21" customHeight="1">
       <c r="A144" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>8</v>
@@ -3794,7 +3857,7 @@
     </row>
     <row r="145" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A145" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>41</v>
@@ -3804,7 +3867,7 @@
       </c>
       <c r="D145" s="13"/>
       <c r="E145" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="1"/>
@@ -3847,7 +3910,7 @@
     </row>
     <row r="146" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A146" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>8</v>
@@ -3857,7 +3920,7 @@
       </c>
       <c r="D146" s="13"/>
       <c r="E146" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="1"/>
@@ -3945,10 +4008,10 @@
     </row>
     <row r="148" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4116,7 +4179,7 @@
         <v>15</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F151" s="27"/>
       <c r="G151" s="3"/>
@@ -4159,7 +4222,7 @@
     </row>
     <row r="152" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A152" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>41</v>
@@ -4169,7 +4232,7 @@
       </c>
       <c r="D152" s="13"/>
       <c r="E152" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F152" s="27"/>
       <c r="G152" s="3"/>
@@ -4212,17 +4275,17 @@
     </row>
     <row r="153" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A153" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B153" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="13"/>
       <c r="E153" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F153" s="27"/>
       <c r="G153" s="3"/>
@@ -4265,7 +4328,7 @@
     </row>
     <row r="154" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A154" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>13</v>
@@ -4275,7 +4338,7 @@
       </c>
       <c r="D154" s="13"/>
       <c r="E154" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F154" s="27"/>
       <c r="G154" s="3"/>
@@ -4363,10 +4426,10 @@
     </row>
     <row r="156" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A156" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -4522,10 +4585,10 @@
     </row>
     <row r="159" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A159" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C159" s="31" t="s">
         <v>21</v>
@@ -4534,7 +4597,7 @@
         <v>15</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F159" s="27"/>
       <c r="G159" s="3"/>
@@ -4589,7 +4652,7 @@
         <v>15</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F160" s="27"/>
       <c r="G160" s="3"/>
@@ -4642,7 +4705,7 @@
       </c>
       <c r="D161" s="31"/>
       <c r="E161" s="31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F161" s="27"/>
       <c r="G161" s="3"/>
@@ -4685,7 +4748,7 @@
     </row>
     <row r="162" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A162" s="31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B162" s="31" t="s">
         <v>24</v>
@@ -4697,7 +4760,7 @@
         <v>15</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F162" s="27"/>
       <c r="G162" s="3"/>
@@ -4740,17 +4803,17 @@
     </row>
     <row r="163" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A163" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C163" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D163" s="31"/>
       <c r="E163" s="31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F163" s="27"/>
       <c r="G163" s="3"/>
@@ -4846,7 +4909,7 @@
     </row>
     <row r="165" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A165" s="31" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B165" s="31" t="s">
         <v>24</v>
@@ -4856,7 +4919,7 @@
       </c>
       <c r="D165" s="31"/>
       <c r="E165" s="31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="3"/>
@@ -4899,17 +4962,17 @@
     </row>
     <row r="166" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A166" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C166" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D166" s="31"/>
       <c r="E166" s="31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F166" s="27"/>
       <c r="G166" s="3"/>
@@ -4997,16 +5060,16 @@
     </row>
     <row r="168" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A168" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C168" s="35"/>
       <c r="D168" s="35"/>
       <c r="E168" s="35"/>
       <c r="F168" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -5158,7 +5221,7 @@
     </row>
     <row r="171" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A171" s="37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B171" s="37" t="s">
         <v>8</v>
@@ -5170,7 +5233,7 @@
         <v>15</v>
       </c>
       <c r="E171" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F171" s="27"/>
       <c r="G171" s="3"/>
@@ -5213,7 +5276,7 @@
     </row>
     <row r="172" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A172" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B172" s="37" t="s">
         <v>41</v>
@@ -5223,7 +5286,7 @@
       </c>
       <c r="D172" s="37"/>
       <c r="E172" s="37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F172" s="27"/>
       <c r="G172" s="3"/>
@@ -5266,17 +5329,17 @@
     </row>
     <row r="173" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A173" s="37" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B173" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C173" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="37"/>
       <c r="E173" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F173" s="27"/>
       <c r="G173" s="3"/>
@@ -5364,16 +5427,16 @@
     </row>
     <row r="175" spans="1:43" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A175" s="40" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B175" s="40" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C175" s="40"/>
       <c r="D175" s="40"/>
       <c r="E175" s="41"/>
       <c r="F175" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -5525,7 +5588,7 @@
     </row>
     <row r="178" spans="1:43" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A178" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B178" s="37" t="s">
         <v>8</v>
@@ -5537,7 +5600,7 @@
         <v>15</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F178" s="46"/>
       <c r="G178" s="3"/>
@@ -5580,7 +5643,7 @@
     </row>
     <row r="179" spans="1:43" ht="21" customHeight="1">
       <c r="A179" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B179" s="37" t="s">
         <v>41</v>
@@ -5590,23 +5653,23 @@
       </c>
       <c r="D179" s="37"/>
       <c r="E179" s="43" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F179" s="46"/>
     </row>
     <row r="180" spans="1:43" ht="21" customHeight="1">
       <c r="A180" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B180" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C180" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D180" s="37"/>
       <c r="E180" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F180" s="46"/>
     </row>
@@ -5615,30 +5678,30 @@
         <v>71</v>
       </c>
       <c r="B181" s="37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C181" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D181" s="37"/>
       <c r="E181" s="43" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F181" s="46"/>
     </row>
     <row r="182" spans="1:43" ht="21" customHeight="1">
       <c r="A182" s="37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B182" s="37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C182" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D182" s="37"/>
       <c r="E182" s="43" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F182" s="46"/>
     </row>
@@ -5647,30 +5710,30 @@
         <v>47</v>
       </c>
       <c r="B183" s="37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C183" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D183" s="37"/>
       <c r="E183" s="43" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F183" s="46"/>
     </row>
     <row r="184" spans="1:43" ht="21" customHeight="1">
       <c r="A184" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B184" s="37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C184" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D184" s="37"/>
       <c r="E184" s="43" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F184" s="46"/>
     </row>
@@ -5687,7 +5750,7 @@
     </row>
     <row r="187" spans="1:43" ht="21" customHeight="1">
       <c r="A187" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B187" s="49"/>
       <c r="C187" s="49"/>
@@ -5697,10 +5760,10 @@
     </row>
     <row r="188" spans="1:43" ht="21" customHeight="1">
       <c r="A188" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -5744,7 +5807,7 @@
     </row>
     <row r="191" spans="1:43" ht="21" customHeight="1">
       <c r="A191" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B191" s="16" t="s">
         <v>8</v>
@@ -5754,7 +5817,7 @@
       </c>
       <c r="D191" s="16"/>
       <c r="E191" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="192" spans="1:43" ht="21" customHeight="1">
@@ -5762,19 +5825,19 @@
         <v>12</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C192" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="16"/>
       <c r="E192" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="21" customHeight="1">
       <c r="A193" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B193" s="16" t="s">
         <v>72</v>
@@ -5784,12 +5847,12 @@
       </c>
       <c r="D193" s="16"/>
       <c r="E193" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="21" customHeight="1">
       <c r="A194" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B194" s="16" t="s">
         <v>24</v>
@@ -5799,12 +5862,12 @@
       </c>
       <c r="D194" s="16"/>
       <c r="E194" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="21" customHeight="1">
       <c r="A195" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B195" s="16" t="s">
         <v>36</v>
@@ -5812,7 +5875,7 @@
       <c r="C195" s="16"/>
       <c r="D195" s="16"/>
       <c r="E195" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="21" customHeight="1">
@@ -5824,10 +5887,10 @@
     </row>
     <row r="197" spans="1:5" ht="21" customHeight="1">
       <c r="A197" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -5869,7 +5932,7 @@
     </row>
     <row r="200" spans="1:5" ht="21" customHeight="1">
       <c r="A200" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B200" s="16" t="s">
         <v>72</v>
@@ -5879,12 +5942,12 @@
       </c>
       <c r="D200" s="16"/>
       <c r="E200" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="21" customHeight="1">
       <c r="A201" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B201" s="16" t="s">
         <v>24</v>
@@ -5894,12 +5957,12 @@
       </c>
       <c r="D201" s="16"/>
       <c r="E201" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="21" customHeight="1">
       <c r="A202" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B202" s="16" t="s">
         <v>72</v>
@@ -5909,7 +5972,7 @@
       </c>
       <c r="D202" s="16"/>
       <c r="E202" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="21" customHeight="1">
@@ -5921,10 +5984,10 @@
     </row>
     <row r="204" spans="1:5" ht="21" customHeight="1">
       <c r="A204" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -5949,7 +6012,7 @@
     </row>
     <row r="206" spans="1:5" ht="21" customHeight="1">
       <c r="A206" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B206" s="16" t="s">
         <v>8</v>
@@ -5964,7 +6027,7 @@
     </row>
     <row r="207" spans="1:5" ht="21" customHeight="1">
       <c r="A207" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B207" s="16" t="s">
         <v>8</v>
@@ -5974,21 +6037,21 @@
       </c>
       <c r="D207" s="16"/>
       <c r="E207" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="21" customHeight="1">
       <c r="A209" s="40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B209" s="40" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C209" s="40"/>
       <c r="D209" s="40"/>
       <c r="E209" s="40"/>
       <c r="F209" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="21" customHeight="1">
@@ -6016,110 +6079,350 @@
         <v>8</v>
       </c>
       <c r="C211" s="37" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D211" s="37" t="s">
         <v>10</v>
       </c>
       <c r="E211" s="37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="21" customHeight="1">
       <c r="A212" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B212" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C212" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D212" s="37"/>
       <c r="E212" s="37" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F212" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="21" customHeight="1">
       <c r="A213" s="37" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B213" s="37" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C213" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D213" s="37"/>
       <c r="E213" s="37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F213" s="39" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="21" customHeight="1">
       <c r="A214" s="37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B214" s="37" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C214" s="37" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D214" s="37"/>
       <c r="E214" s="37" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="21" customHeight="1">
       <c r="A215" s="37" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B215" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C215" s="37" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D215" s="37"/>
       <c r="E215" s="37" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="21" customHeight="1">
       <c r="A216" s="37" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B216" s="37" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C216" s="37" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D216" s="37"/>
       <c r="E216" s="37" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="21" customHeight="1">
       <c r="A217" s="37" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B217" s="37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C217" s="37"/>
       <c r="D217" s="37"/>
       <c r="E217" s="37" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F217" s="39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="21" customHeight="1">
+      <c r="A219" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="B219" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="C219" s="40"/>
+      <c r="D219" s="40"/>
+      <c r="E219" s="40"/>
+      <c r="F219" s="39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="21" customHeight="1">
+      <c r="A220" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="21" customHeight="1">
+      <c r="A221" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D221" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" s="37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="21" customHeight="1">
+      <c r="A222" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B222" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C222" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D222" s="37"/>
+      <c r="E222" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="21" customHeight="1">
+      <c r="A223" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="B223" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C223" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D223" s="37"/>
+      <c r="E223" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="F223" s="30"/>
+    </row>
+    <row r="224" spans="1:6" ht="21" customHeight="1">
+      <c r="A224" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="B224" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C224" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D224" s="37"/>
+      <c r="E224" s="37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="21" customHeight="1">
+      <c r="A225" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="B225" s="37" t="s">
         <v>278</v>
+      </c>
+      <c r="C225" s="37"/>
+      <c r="D225" s="37"/>
+      <c r="E225" s="37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="21" customHeight="1">
+      <c r="A226" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B226" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C226" s="37"/>
+      <c r="D226" s="37"/>
+      <c r="E226" s="37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="21" customHeight="1">
+      <c r="A228" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="B228" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C228" s="40"/>
+      <c r="D228" s="40"/>
+      <c r="E228" s="40"/>
+      <c r="F228" s="39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="21" customHeight="1">
+      <c r="A229" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="21" customHeight="1">
+      <c r="A230" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D230" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="F230" s="30"/>
+    </row>
+    <row r="231" spans="1:6" ht="21" customHeight="1">
+      <c r="A231" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B231" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C231" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231" s="37"/>
+      <c r="E231" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="21" customHeight="1">
+      <c r="A232" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="B232" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C232" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D232" s="37"/>
+      <c r="E232" s="37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="21" customHeight="1">
+      <c r="A233" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="B233" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C233" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233" s="37"/>
+      <c r="E233" s="37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="21" customHeight="1">
+      <c r="A234" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="B234" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C234" s="37"/>
+      <c r="D234" s="37"/>
+      <c r="E234" s="37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="21" customHeight="1">
+      <c r="A235" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B235" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C235" s="37"/>
+      <c r="D235" s="37"/>
+      <c r="E235" s="37" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
